--- a/storage/excel/sum914.xlsx
+++ b/storage/excel/sum914.xlsx
@@ -462,25 +462,12 @@
       </top>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -513,15 +500,17 @@
       </bottom>
     </border>
     <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -539,11 +528,22 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -682,22 +682,13 @@
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -706,43 +697,67 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -751,52 +766,43 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -1652,370 +1658,370 @@
     </row>
     <row r="8" spans="1:68" customHeight="1" ht="14.25" s="1" customFormat="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
       <c r="Q8" s="13"/>
-      <c r="R8" s="64" t="s">
+      <c r="R8" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="64"/>
-      <c r="AC8" s="64"/>
-      <c r="AD8" s="64"/>
-      <c r="AE8" s="64"/>
-      <c r="AF8" s="64"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="46"/>
       <c r="AG8" s="13"/>
-      <c r="AH8" s="64" t="s">
+      <c r="AH8" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AI8" s="64"/>
-      <c r="AJ8" s="64"/>
-      <c r="AK8" s="64"/>
-      <c r="AL8" s="64"/>
-      <c r="AM8" s="64"/>
-      <c r="AN8" s="64"/>
-      <c r="AO8" s="64"/>
-      <c r="AP8" s="64"/>
-      <c r="AQ8" s="64"/>
-      <c r="AR8" s="64"/>
-      <c r="AS8" s="64"/>
-      <c r="AT8" s="64"/>
-      <c r="AU8" s="64"/>
-      <c r="AV8" s="64"/>
-      <c r="AW8" s="64"/>
+      <c r="AI8" s="46"/>
+      <c r="AJ8" s="46"/>
+      <c r="AK8" s="46"/>
+      <c r="AL8" s="46"/>
+      <c r="AM8" s="46"/>
+      <c r="AN8" s="46"/>
+      <c r="AO8" s="46"/>
+      <c r="AP8" s="46"/>
+      <c r="AQ8" s="46"/>
+      <c r="AR8" s="46"/>
+      <c r="AS8" s="46"/>
+      <c r="AT8" s="46"/>
+      <c r="AU8" s="46"/>
+      <c r="AV8" s="46"/>
+      <c r="AW8" s="46"/>
       <c r="AX8" s="13"/>
-      <c r="AY8" s="65" t="s">
+      <c r="AY8" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="AZ8" s="65"/>
-      <c r="BA8" s="65"/>
-      <c r="BB8" s="65"/>
-      <c r="BC8" s="65"/>
-      <c r="BD8" s="65"/>
-      <c r="BE8" s="65"/>
-      <c r="BF8" s="65"/>
-      <c r="BG8" s="65"/>
-      <c r="BH8" s="65"/>
-      <c r="BI8" s="65"/>
-      <c r="BJ8" s="65"/>
-      <c r="BK8" s="65"/>
-      <c r="BL8" s="65"/>
-      <c r="BM8" s="65"/>
+      <c r="AZ8" s="47"/>
+      <c r="BA8" s="47"/>
+      <c r="BB8" s="47"/>
+      <c r="BC8" s="47"/>
+      <c r="BD8" s="47"/>
+      <c r="BE8" s="47"/>
+      <c r="BF8" s="47"/>
+      <c r="BG8" s="47"/>
+      <c r="BH8" s="47"/>
+      <c r="BI8" s="47"/>
+      <c r="BJ8" s="47"/>
+      <c r="BK8" s="47"/>
+      <c r="BL8" s="47"/>
+      <c r="BM8" s="47"/>
       <c r="BN8" s="13"/>
       <c r="BO8" s="13"/>
       <c r="BP8" s="13"/>
     </row>
     <row r="9" spans="1:68">
       <c r="A9" s="11"/>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="56" t="s">
+      <c r="R9" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="56"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="56"/>
-      <c r="AF9" s="56"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="62"/>
+      <c r="AD9" s="62"/>
+      <c r="AE9" s="62"/>
+      <c r="AF9" s="62"/>
       <c r="AG9" s="3"/>
-      <c r="AH9" s="56" t="s">
+      <c r="AH9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" s="56"/>
-      <c r="AJ9" s="56"/>
-      <c r="AK9" s="56"/>
-      <c r="AL9" s="56"/>
-      <c r="AM9" s="56"/>
-      <c r="AN9" s="56"/>
-      <c r="AO9" s="56"/>
-      <c r="AP9" s="56"/>
-      <c r="AQ9" s="56"/>
-      <c r="AR9" s="56"/>
-      <c r="AS9" s="56"/>
-      <c r="AT9" s="56"/>
-      <c r="AU9" s="56"/>
-      <c r="AV9" s="56"/>
-      <c r="AW9" s="56"/>
+      <c r="AI9" s="62"/>
+      <c r="AJ9" s="62"/>
+      <c r="AK9" s="62"/>
+      <c r="AL9" s="62"/>
+      <c r="AM9" s="62"/>
+      <c r="AN9" s="62"/>
+      <c r="AO9" s="62"/>
+      <c r="AP9" s="62"/>
+      <c r="AQ9" s="62"/>
+      <c r="AR9" s="62"/>
+      <c r="AS9" s="62"/>
+      <c r="AT9" s="62"/>
+      <c r="AU9" s="62"/>
+      <c r="AV9" s="62"/>
+      <c r="AW9" s="62"/>
       <c r="AX9" s="3"/>
-      <c r="AY9" s="56" t="s">
+      <c r="AY9" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="AZ9" s="56"/>
-      <c r="BA9" s="56"/>
-      <c r="BB9" s="56"/>
-      <c r="BC9" s="56"/>
-      <c r="BD9" s="56"/>
-      <c r="BE9" s="56"/>
-      <c r="BF9" s="56"/>
-      <c r="BG9" s="56"/>
-      <c r="BH9" s="56"/>
-      <c r="BI9" s="56"/>
-      <c r="BJ9" s="56"/>
-      <c r="BK9" s="56"/>
-      <c r="BL9" s="56"/>
-      <c r="BM9" s="56"/>
+      <c r="AZ9" s="62"/>
+      <c r="BA9" s="62"/>
+      <c r="BB9" s="62"/>
+      <c r="BC9" s="62"/>
+      <c r="BD9" s="62"/>
+      <c r="BE9" s="62"/>
+      <c r="BF9" s="62"/>
+      <c r="BG9" s="62"/>
+      <c r="BH9" s="62"/>
+      <c r="BI9" s="62"/>
+      <c r="BJ9" s="62"/>
+      <c r="BK9" s="62"/>
+      <c r="BL9" s="62"/>
+      <c r="BM9" s="62"/>
       <c r="BN9" s="21"/>
       <c r="BO9" s="21"/>
       <c r="BP9" s="21"/>
     </row>
     <row r="10" spans="1:68">
       <c r="A10" s="11"/>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="46" t="s">
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="50" t="s">
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="73" t="s">
+      <c r="R10" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="S10" s="74"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="52" t="s">
+      <c r="S10" s="67"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="54" t="s">
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="54"/>
-      <c r="AE10" s="54"/>
-      <c r="AF10" s="54"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="52"/>
       <c r="AG10" s="3"/>
-      <c r="AH10" s="67" t="s">
+      <c r="AH10" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="AI10" s="68"/>
-      <c r="AJ10" s="69"/>
-      <c r="AK10" s="48" t="s">
+      <c r="AI10" s="73"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="AL10" s="50" t="s">
+      <c r="AL10" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="AM10" s="50"/>
-      <c r="AN10" s="50"/>
-      <c r="AO10" s="50"/>
-      <c r="AP10" s="50"/>
-      <c r="AQ10" s="50"/>
-      <c r="AR10" s="50" t="s">
+      <c r="AM10" s="48"/>
+      <c r="AN10" s="48"/>
+      <c r="AO10" s="48"/>
+      <c r="AP10" s="48"/>
+      <c r="AQ10" s="48"/>
+      <c r="AR10" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="AS10" s="50"/>
-      <c r="AT10" s="50"/>
-      <c r="AU10" s="50"/>
-      <c r="AV10" s="50"/>
-      <c r="AW10" s="50"/>
+      <c r="AS10" s="48"/>
+      <c r="AT10" s="48"/>
+      <c r="AU10" s="48"/>
+      <c r="AV10" s="48"/>
+      <c r="AW10" s="48"/>
       <c r="AX10" s="3"/>
-      <c r="AY10" s="73" t="s">
+      <c r="AY10" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="AZ10" s="74"/>
-      <c r="BA10" s="75"/>
-      <c r="BB10" s="52" t="s">
+      <c r="AZ10" s="67"/>
+      <c r="BA10" s="68"/>
+      <c r="BB10" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="BC10" s="53"/>
-      <c r="BD10" s="53"/>
-      <c r="BE10" s="53"/>
-      <c r="BF10" s="53"/>
-      <c r="BG10" s="53"/>
-      <c r="BH10" s="54" t="s">
+      <c r="BC10" s="50"/>
+      <c r="BD10" s="50"/>
+      <c r="BE10" s="50"/>
+      <c r="BF10" s="50"/>
+      <c r="BG10" s="50"/>
+      <c r="BH10" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="BI10" s="54"/>
-      <c r="BJ10" s="54"/>
-      <c r="BK10" s="54"/>
-      <c r="BL10" s="54"/>
-      <c r="BM10" s="54"/>
+      <c r="BI10" s="52"/>
+      <c r="BJ10" s="52"/>
+      <c r="BK10" s="52"/>
+      <c r="BL10" s="52"/>
+      <c r="BM10" s="52"/>
       <c r="BN10" s="21"/>
       <c r="BO10" s="21"/>
       <c r="BP10" s="21"/>
     </row>
     <row r="11" spans="1:68" s="19" customFormat="1">
       <c r="A11" s="25"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="46" t="s">
+      <c r="B11" s="75"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="47"/>
-      <c r="G11" s="46" t="s">
+      <c r="F11" s="60"/>
+      <c r="G11" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="46" t="s">
+      <c r="H11" s="60"/>
+      <c r="I11" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="51"/>
-      <c r="K11" s="50" t="s">
+      <c r="J11" s="61"/>
+      <c r="K11" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50" t="s">
+      <c r="L11" s="48"/>
+      <c r="M11" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50" t="s">
+      <c r="N11" s="48"/>
+      <c r="O11" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="P11" s="50"/>
+      <c r="P11" s="48"/>
       <c r="Q11" s="21"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="52" t="s">
+      <c r="R11" s="69"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="V11" s="53"/>
-      <c r="W11" s="52" t="s">
+      <c r="V11" s="50"/>
+      <c r="W11" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="52" t="s">
+      <c r="X11" s="50"/>
+      <c r="Y11" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="Z11" s="55"/>
-      <c r="AA11" s="54" t="s">
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="54" t="s">
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="54" t="s">
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AF11" s="54"/>
+      <c r="AF11" s="52"/>
       <c r="AG11" s="21"/>
-      <c r="AH11" s="70"/>
-      <c r="AI11" s="71"/>
-      <c r="AJ11" s="72"/>
-      <c r="AK11" s="49"/>
-      <c r="AL11" s="50" t="s">
+      <c r="AH11" s="75"/>
+      <c r="AI11" s="76"/>
+      <c r="AJ11" s="77"/>
+      <c r="AK11" s="64"/>
+      <c r="AL11" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="AM11" s="50"/>
-      <c r="AN11" s="50" t="s">
+      <c r="AM11" s="48"/>
+      <c r="AN11" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="AO11" s="50"/>
-      <c r="AP11" s="50" t="s">
+      <c r="AO11" s="48"/>
+      <c r="AP11" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="AQ11" s="50"/>
-      <c r="AR11" s="50" t="s">
+      <c r="AQ11" s="48"/>
+      <c r="AR11" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="AS11" s="50"/>
-      <c r="AT11" s="50" t="s">
+      <c r="AS11" s="48"/>
+      <c r="AT11" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="AU11" s="50"/>
-      <c r="AV11" s="50" t="s">
+      <c r="AU11" s="48"/>
+      <c r="AV11" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="AW11" s="50"/>
+      <c r="AW11" s="48"/>
       <c r="AX11" s="21"/>
-      <c r="AY11" s="76"/>
-      <c r="AZ11" s="77"/>
-      <c r="BA11" s="78"/>
-      <c r="BB11" s="52" t="s">
+      <c r="AY11" s="69"/>
+      <c r="AZ11" s="70"/>
+      <c r="BA11" s="71"/>
+      <c r="BB11" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="BC11" s="53"/>
-      <c r="BD11" s="52" t="s">
+      <c r="BC11" s="50"/>
+      <c r="BD11" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="BE11" s="53"/>
-      <c r="BF11" s="52" t="s">
+      <c r="BE11" s="50"/>
+      <c r="BF11" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="BG11" s="55"/>
-      <c r="BH11" s="54" t="s">
+      <c r="BG11" s="51"/>
+      <c r="BH11" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="BI11" s="54"/>
-      <c r="BJ11" s="54" t="s">
+      <c r="BI11" s="52"/>
+      <c r="BJ11" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="BK11" s="54"/>
-      <c r="BL11" s="54" t="s">
+      <c r="BK11" s="52"/>
+      <c r="BL11" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="BM11" s="54"/>
+      <c r="BM11" s="52"/>
       <c r="BN11" s="21"/>
       <c r="BO11" s="21"/>
       <c r="BP11" s="21"/>
@@ -2123,7 +2129,7 @@
       <c r="AJ12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AK12" s="66"/>
+      <c r="AK12" s="78"/>
       <c r="AL12" s="31" t="s">
         <v>25</v>
       </c>
@@ -2221,12 +2227,24 @@
       <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
+      <c r="E13" s="83">
+        <v>106144.68344342</v>
+      </c>
+      <c r="F13" s="83">
+        <v>7.5078961307409</v>
+      </c>
+      <c r="G13" s="83">
+        <v>227941.7831101</v>
+      </c>
+      <c r="H13" s="83">
+        <v>7.46541640676</v>
+      </c>
+      <c r="I13" s="83">
+        <v>334123.49352575</v>
+      </c>
+      <c r="J13" s="83">
+        <v>7.4796895940176</v>
+      </c>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
@@ -2244,22 +2262,22 @@
         <v>29</v>
       </c>
       <c r="U13" s="83">
-        <v>212.74068136169</v>
+        <v>0.11441656869711</v>
       </c>
       <c r="V13" s="83">
-        <v>18.12763345883</v>
+        <v>0.0034252373897269</v>
       </c>
       <c r="W13" s="83">
-        <v>315.55109248555</v>
+        <v>0.10475739754842</v>
       </c>
       <c r="X13" s="83">
-        <v>26.888108590694</v>
+        <v>0.00039639119866738</v>
       </c>
       <c r="Y13" s="83">
-        <v>528.29177384724</v>
+        <v>0.10800287905438</v>
       </c>
       <c r="Z13" s="83">
-        <v>45.015742049523</v>
+        <v>0.0019108142941971</v>
       </c>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20"/>
@@ -2280,12 +2298,24 @@
       <c r="AK13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL13" s="2"/>
-      <c r="AM13" s="2"/>
-      <c r="AN13" s="20"/>
-      <c r="AO13" s="20"/>
-      <c r="AP13" s="20"/>
-      <c r="AQ13" s="20"/>
+      <c r="AL13" s="83">
+        <v>15.337322691208</v>
+      </c>
+      <c r="AM13" s="83">
+        <v>1.3068932665179</v>
+      </c>
+      <c r="AN13" s="83">
+        <v>23.650482950069</v>
+      </c>
+      <c r="AO13" s="83">
+        <v>2.0152576521754</v>
+      </c>
+      <c r="AP13" s="83">
+        <v>39.258242752337</v>
+      </c>
+      <c r="AQ13" s="83">
+        <v>3.3451948649266</v>
+      </c>
       <c r="AR13" s="20"/>
       <c r="AS13" s="20"/>
       <c r="AT13" s="20"/>
@@ -2303,22 +2333,22 @@
         <v>29</v>
       </c>
       <c r="BB13" s="83">
-        <v>5.7566914893617</v>
+        <v>0.43105345520315</v>
       </c>
       <c r="BC13" s="83">
-        <v>0.029858039338991</v>
+        <v>0.012243410159214</v>
       </c>
       <c r="BD13" s="83">
-        <v>4.684375</v>
+        <v>0.34832400841372</v>
       </c>
       <c r="BE13" s="83">
-        <v>0.017457931292796</v>
+        <v>0.0025402254925535</v>
       </c>
       <c r="BF13" s="83">
-        <v>5.2205332446809</v>
+        <v>0.37612110253497</v>
       </c>
       <c r="BG13" s="83">
-        <v>0.023657985315893</v>
+        <v>0.0073918178258837</v>
       </c>
       <c r="BH13" s="20"/>
       <c r="BI13" s="20"/>
@@ -2337,12 +2367,24 @@
       <c r="D14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="E14" s="83">
+        <v>803750.24480479</v>
+      </c>
+      <c r="F14" s="83">
+        <v>56.851395258704</v>
+      </c>
+      <c r="G14" s="83">
+        <v>1810675.4100698</v>
+      </c>
+      <c r="H14" s="83">
+        <v>59.3021855371</v>
+      </c>
+      <c r="I14" s="83">
+        <v>2612289.4511734</v>
+      </c>
+      <c r="J14" s="83">
+        <v>58.478720003559</v>
+      </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
@@ -2356,22 +2398,22 @@
         <v>31</v>
       </c>
       <c r="U14" s="83">
-        <v>300.07446562953</v>
+        <v>1.001109062722</v>
       </c>
       <c r="V14" s="83">
-        <v>25.569345216292</v>
+        <v>0.00094855505576533</v>
       </c>
       <c r="W14" s="83">
-        <v>557.34027426613</v>
+        <v>1.0457926104301</v>
       </c>
       <c r="X14" s="83">
-        <v>47.490964770217</v>
+        <v>0.0003550191709701</v>
       </c>
       <c r="Y14" s="83">
-        <v>857.41473989566</v>
+        <v>1.0307789384002</v>
       </c>
       <c r="Z14" s="83">
-        <v>73.06030998651</v>
+        <v>0.00065178711336772</v>
       </c>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20"/>
@@ -2388,12 +2430,24 @@
       <c r="AK14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL14" s="2"/>
-      <c r="AM14" s="2"/>
-      <c r="AN14" s="20"/>
-      <c r="AO14" s="20"/>
-      <c r="AP14" s="20"/>
-      <c r="AQ14" s="20"/>
+      <c r="AL14" s="83">
+        <v>171.1590701642</v>
+      </c>
+      <c r="AM14" s="83">
+        <v>14.584464368692</v>
+      </c>
+      <c r="AN14" s="83">
+        <v>332.30202015549</v>
+      </c>
+      <c r="AO14" s="83">
+        <v>28.315455137449</v>
+      </c>
+      <c r="AP14" s="83">
+        <v>504.52725682401</v>
+      </c>
+      <c r="AQ14" s="83">
+        <v>42.990767553974</v>
+      </c>
       <c r="AR14" s="20"/>
       <c r="AS14" s="20"/>
       <c r="AT14" s="20"/>
@@ -2407,22 +2461,22 @@
         <v>31</v>
       </c>
       <c r="BB14" s="83">
-        <v>4.2587414965986</v>
+        <v>2.4183070053614</v>
       </c>
       <c r="BC14" s="83">
-        <v>0.0078560941515116</v>
+        <v>0.00049643350259897</v>
       </c>
       <c r="BD14" s="83">
-        <v>4.3416815343443</v>
+        <v>2.5707764821934</v>
       </c>
       <c r="BE14" s="83">
-        <v>0.00043259872548008</v>
+        <v>0.00061220105727351</v>
       </c>
       <c r="BF14" s="83">
-        <v>4.3002115154715</v>
+        <v>2.5195467379778</v>
       </c>
       <c r="BG14" s="83">
-        <v>0.0041443464384959</v>
+        <v>0.00055431727993624</v>
       </c>
       <c r="BH14" s="20"/>
       <c r="BI14" s="20"/>
@@ -2441,12 +2495,24 @@
       <c r="D15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="E15" s="83">
+        <v>33699.692760752</v>
+      </c>
+      <c r="F15" s="83">
+        <v>2.3836690136296</v>
+      </c>
+      <c r="G15" s="83">
+        <v>45950.449523406</v>
+      </c>
+      <c r="H15" s="83">
+        <v>1.5049423369841</v>
+      </c>
+      <c r="I15" s="83">
+        <v>80416.074479819</v>
+      </c>
+      <c r="J15" s="83">
+        <v>1.800194500337</v>
+      </c>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
@@ -2460,22 +2526,22 @@
         <v>32</v>
       </c>
       <c r="U15" s="83">
-        <v>954.04867610635</v>
+        <v>0.038146456947226</v>
       </c>
       <c r="V15" s="83">
-        <v>81.294487691022</v>
+        <v>0.0023869818542216</v>
       </c>
       <c r="W15" s="83">
-        <v>689.79429349202</v>
+        <v>0.02166966562704</v>
       </c>
       <c r="X15" s="83">
-        <v>58.777371748455</v>
+        <v>0.0017212625730969</v>
       </c>
       <c r="Y15" s="83">
-        <v>1643.8429695984</v>
+        <v>0.027205867510622</v>
       </c>
       <c r="Z15" s="83">
-        <v>140.07185943948</v>
+        <v>0.0020541222136592</v>
       </c>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
@@ -2492,12 +2558,24 @@
       <c r="AK15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL15" s="2"/>
-      <c r="AM15" s="2"/>
-      <c r="AN15" s="20"/>
-      <c r="AO15" s="20"/>
-      <c r="AP15" s="20"/>
-      <c r="AQ15" s="20"/>
+      <c r="AL15" s="83">
+        <v>21.170219006944</v>
+      </c>
+      <c r="AM15" s="83">
+        <v>1.8039143615817</v>
+      </c>
+      <c r="AN15" s="83">
+        <v>10.789244030435</v>
+      </c>
+      <c r="AO15" s="83">
+        <v>0.91935148383333</v>
+      </c>
+      <c r="AP15" s="83">
+        <v>32.9566725914</v>
+      </c>
+      <c r="AQ15" s="83">
+        <v>2.8082380715132</v>
+      </c>
       <c r="AR15" s="20"/>
       <c r="AS15" s="20"/>
       <c r="AT15" s="20"/>
@@ -2511,22 +2589,22 @@
         <v>32</v>
       </c>
       <c r="BB15" s="83">
-        <v>3.8590476190476</v>
+        <v>0.090593559847555</v>
       </c>
       <c r="BC15" s="83">
-        <v>0.065849241797505</v>
+        <v>0.0019632207139231</v>
       </c>
       <c r="BD15" s="83">
-        <v>4</v>
+        <v>0.05899674766084</v>
       </c>
       <c r="BE15" s="83">
-        <v>0.23839587965162</v>
+        <v>0.0071097058489909</v>
       </c>
       <c r="BF15" s="83">
-        <v>3.9295238095238</v>
+        <v>0.069613276555576</v>
       </c>
       <c r="BG15" s="83">
-        <v>0.15212256072456</v>
+        <v>0.004536463281457</v>
       </c>
       <c r="BH15" s="20"/>
       <c r="BI15" s="20"/>
@@ -2547,12 +2625,24 @@
       <c r="D16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
+      <c r="E16" s="83">
+        <v>25269.934008695</v>
+      </c>
+      <c r="F16" s="83">
+        <v>1.7874097280537</v>
+      </c>
+      <c r="G16" s="83">
+        <v>55150.10660656</v>
+      </c>
+      <c r="H16" s="83">
+        <v>1.8062441430333</v>
+      </c>
+      <c r="I16" s="83">
+        <v>80403.62380989</v>
+      </c>
+      <c r="J16" s="83">
+        <v>1.7999157796002</v>
+      </c>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
@@ -2568,22 +2658,22 @@
         <v>29</v>
       </c>
       <c r="U16" s="83">
-        <v>132.71500311854</v>
+        <v>0.023829849492927</v>
       </c>
       <c r="V16" s="83">
-        <v>11.308645415731</v>
+        <v>0.0030180327055444</v>
       </c>
       <c r="W16" s="83">
-        <v>262.7435426539</v>
+        <v>0.022276405309349</v>
       </c>
       <c r="X16" s="83">
-        <v>22.388377269538</v>
+        <v>0.00069414558063338</v>
       </c>
       <c r="Y16" s="83">
-        <v>395.45854577244</v>
+        <v>0.022798362555031</v>
       </c>
       <c r="Z16" s="83">
-        <v>33.69702268527</v>
+        <v>0.0018560891430889</v>
       </c>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
@@ -2602,12 +2692,24 @@
       <c r="AK16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL16" s="2"/>
-      <c r="AM16" s="2"/>
-      <c r="AN16" s="20"/>
-      <c r="AO16" s="20"/>
-      <c r="AP16" s="20"/>
-      <c r="AQ16" s="20"/>
+      <c r="AL16" s="83">
+        <v>2.4838221280761</v>
+      </c>
+      <c r="AM16" s="83">
+        <v>0.21164648353336</v>
+      </c>
+      <c r="AN16" s="83">
+        <v>5.0659836500124</v>
+      </c>
+      <c r="AO16" s="83">
+        <v>0.43167246681755</v>
+      </c>
+      <c r="AP16" s="83">
+        <v>7.5583210000597</v>
+      </c>
+      <c r="AQ16" s="83">
+        <v>0.64404453241508</v>
+      </c>
       <c r="AR16" s="20"/>
       <c r="AS16" s="20"/>
       <c r="AT16" s="20"/>
@@ -2623,22 +2725,22 @@
         <v>29</v>
       </c>
       <c r="BB16" s="83">
-        <v>5.84</v>
+        <v>0.081080317808927</v>
       </c>
       <c r="BC16" s="83">
-        <v>3.6165975415821</v>
+        <v>0.034577797101692</v>
       </c>
       <c r="BD16" s="83">
-        <v>4.4660633484163</v>
+        <v>0.080678946833974</v>
       </c>
       <c r="BE16" s="83">
-        <v>0.069041558783442</v>
+        <v>0.0023898474615954</v>
       </c>
       <c r="BF16" s="83">
-        <v>5.1530316742081</v>
+        <v>0.080813807481558</v>
       </c>
       <c r="BG16" s="83">
-        <v>1.8428195501828</v>
+        <v>0.018483822281644</v>
       </c>
       <c r="BH16" s="20"/>
       <c r="BI16" s="20"/>
@@ -2657,12 +2759,24 @@
       <c r="D17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
+      <c r="E17" s="83">
+        <v>773495.95608528</v>
+      </c>
+      <c r="F17" s="83">
+        <v>54.711428848266</v>
+      </c>
+      <c r="G17" s="83">
+        <v>1511076.9484287</v>
+      </c>
+      <c r="H17" s="83">
+        <v>49.489911365779</v>
+      </c>
+      <c r="I17" s="83">
+        <v>2289124.1813289</v>
+      </c>
+      <c r="J17" s="83">
+        <v>51.244341239895</v>
+      </c>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
@@ -2676,22 +2790,22 @@
         <v>31</v>
       </c>
       <c r="U17" s="83">
-        <v>430.58141803483</v>
+        <v>1.0012777985918</v>
       </c>
       <c r="V17" s="83">
-        <v>36.689842630748</v>
+        <v>0.00033161079243349</v>
       </c>
       <c r="W17" s="83">
-        <v>540.05742074242</v>
+        <v>0.83930900703561</v>
       </c>
       <c r="X17" s="83">
-        <v>46.018292821462</v>
+        <v>0.00046012184453137</v>
       </c>
       <c r="Y17" s="83">
-        <v>970.63883877725</v>
+        <v>0.8937305209985</v>
       </c>
       <c r="Z17" s="83">
-        <v>82.708135452209</v>
+        <v>0.00039586631848243</v>
       </c>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
@@ -2708,12 +2822,24 @@
       <c r="AK17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL17" s="2"/>
-      <c r="AM17" s="2"/>
-      <c r="AN17" s="20"/>
-      <c r="AO17" s="20"/>
-      <c r="AP17" s="20"/>
-      <c r="AQ17" s="20"/>
+      <c r="AL17" s="83">
+        <v>234.87758381828</v>
+      </c>
+      <c r="AM17" s="83">
+        <v>20.013918917156</v>
+      </c>
+      <c r="AN17" s="83">
+        <v>271.98605156082</v>
+      </c>
+      <c r="AO17" s="83">
+        <v>23.175931453497</v>
+      </c>
+      <c r="AP17" s="83">
+        <v>513.58012457728</v>
+      </c>
+      <c r="AQ17" s="83">
+        <v>43.76216241523</v>
+      </c>
       <c r="AR17" s="20"/>
       <c r="AS17" s="20"/>
       <c r="AT17" s="20"/>
@@ -2727,22 +2853,22 @@
         <v>31</v>
       </c>
       <c r="BB17" s="83">
-        <v>4.0973494124923</v>
+        <v>2.2446640895291</v>
       </c>
       <c r="BC17" s="83">
-        <v>0.00061453493160568</v>
+        <v>0.00052095626831632</v>
       </c>
       <c r="BD17" s="83">
-        <v>3.9318639821029</v>
+        <v>1.9552072276782</v>
       </c>
       <c r="BE17" s="83">
-        <v>0.00069821614575853</v>
+        <v>0.00054516719889219</v>
       </c>
       <c r="BF17" s="83">
-        <v>4.0146066972976</v>
+        <v>2.0524647332601</v>
       </c>
       <c r="BG17" s="83">
-        <v>0.00065637553868211</v>
+        <v>0.00053306173360425</v>
       </c>
       <c r="BH17" s="20"/>
       <c r="BI17" s="20"/>
@@ -2761,12 +2887,24 @@
       <c r="D18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
+      <c r="E18" s="83">
+        <v>62369.898899903</v>
+      </c>
+      <c r="F18" s="83">
+        <v>4.4115890446354</v>
+      </c>
+      <c r="G18" s="83">
+        <v>132362.55197858</v>
+      </c>
+      <c r="H18" s="83">
+        <v>4.3350611445565</v>
+      </c>
+      <c r="I18" s="83">
+        <v>194799.15555935</v>
+      </c>
+      <c r="J18" s="83">
+        <v>4.360774518983</v>
+      </c>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
       <c r="M18" s="20"/>
@@ -2780,22 +2918,22 @@
         <v>32</v>
       </c>
       <c r="U18" s="83">
-        <v>344.6454327819</v>
+        <v>0.073924294296234</v>
       </c>
       <c r="V18" s="83">
-        <v>29.367237327346</v>
+        <v>0.0046642107633363</v>
       </c>
       <c r="W18" s="83">
-        <v>698.81179207824</v>
+        <v>0.064427324290999</v>
       </c>
       <c r="X18" s="83">
-        <v>59.545752802987</v>
+        <v>0.00050463175214068</v>
       </c>
       <c r="Y18" s="83">
-        <v>1043.4572248601</v>
+        <v>0.067618306212758</v>
       </c>
       <c r="Z18" s="83">
-        <v>88.912990130332</v>
+        <v>0.0025844212577385</v>
       </c>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
@@ -2812,12 +2950,24 @@
       <c r="AK18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL18" s="2"/>
-      <c r="AM18" s="2"/>
-      <c r="AN18" s="20"/>
-      <c r="AO18" s="20"/>
-      <c r="AP18" s="20"/>
-      <c r="AQ18" s="20"/>
+      <c r="AL18" s="83">
+        <v>16.119787146412</v>
+      </c>
+      <c r="AM18" s="83">
+        <v>1.3735670627458</v>
+      </c>
+      <c r="AN18" s="83">
+        <v>30.759725652306</v>
+      </c>
+      <c r="AO18" s="83">
+        <v>2.621036222833</v>
+      </c>
+      <c r="AP18" s="83">
+        <v>46.995241029149</v>
+      </c>
+      <c r="AQ18" s="83">
+        <v>4.0044644880938</v>
+      </c>
       <c r="AR18" s="20"/>
       <c r="AS18" s="20"/>
       <c r="AT18" s="20"/>
@@ -2831,22 +2981,22 @@
         <v>32</v>
       </c>
       <c r="BB18" s="83">
-        <v>3.3838596491228</v>
+        <v>0.15920214133454</v>
       </c>
       <c r="BC18" s="83">
-        <v>0.028983149800086</v>
+        <v>0.0070054747430039</v>
       </c>
       <c r="BD18" s="83">
-        <v>4.4261904761905</v>
+        <v>0.18820278117067</v>
       </c>
       <c r="BE18" s="83">
-        <v>0.023150371346545</v>
+        <v>0.0013937902849105</v>
       </c>
       <c r="BF18" s="83">
-        <v>3.9050250626566</v>
+        <v>0.17845856618573</v>
       </c>
       <c r="BG18" s="83">
-        <v>0.026066760573315</v>
+        <v>0.0041996325139572</v>
       </c>
       <c r="BH18" s="20"/>
       <c r="BI18" s="20"/>
@@ -2867,12 +3017,24 @@
       <c r="D19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
+      <c r="E19" s="83">
+        <v>20217.881431703</v>
+      </c>
+      <c r="F19" s="83">
+        <v>1.4300645953104</v>
+      </c>
+      <c r="G19" s="83">
+        <v>18378.266373668</v>
+      </c>
+      <c r="H19" s="83">
+        <v>0.60191426706318</v>
+      </c>
+      <c r="I19" s="83">
+        <v>39317.995697452</v>
+      </c>
+      <c r="J19" s="83">
+        <v>0.88017277735424</v>
+      </c>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
@@ -2888,22 +3050,22 @@
         <v>29</v>
       </c>
       <c r="U19" s="83">
-        <v>178.72247772403</v>
+        <v>0.026214430592339</v>
       </c>
       <c r="V19" s="83">
-        <v>15.228942326865</v>
+        <v>0.0038790637785998</v>
       </c>
       <c r="W19" s="83">
-        <v>330.0730461908</v>
+        <v>0.010234359904258</v>
       </c>
       <c r="X19" s="83">
-        <v>28.125524265918</v>
+        <v>0.00473599860547</v>
       </c>
       <c r="Y19" s="83">
-        <v>508.79552391483</v>
+        <v>0.015603663655453</v>
       </c>
       <c r="Z19" s="83">
-        <v>43.354466592783</v>
+        <v>0.0043075311920349</v>
       </c>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
@@ -2922,12 +3084,24 @@
       <c r="AK19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL19" s="2"/>
-      <c r="AM19" s="2"/>
-      <c r="AN19" s="20"/>
-      <c r="AO19" s="20"/>
-      <c r="AP19" s="20"/>
-      <c r="AQ19" s="20"/>
+      <c r="AL19" s="83">
+        <v>2.5020890161821</v>
+      </c>
+      <c r="AM19" s="83">
+        <v>0.21320300506888</v>
+      </c>
+      <c r="AN19" s="83">
+        <v>1.9586790291233</v>
+      </c>
+      <c r="AO19" s="83">
+        <v>0.1668990400716</v>
+      </c>
+      <c r="AP19" s="83">
+        <v>4.5591149597668</v>
+      </c>
+      <c r="AQ19" s="83">
+        <v>0.38848218572173</v>
+      </c>
       <c r="AR19" s="20"/>
       <c r="AS19" s="20"/>
       <c r="AT19" s="20"/>
@@ -2943,22 +3117,22 @@
         <v>29</v>
       </c>
       <c r="BB19" s="83">
-        <v>3.9833333333333</v>
+        <v>0.056608148698404</v>
       </c>
       <c r="BC19" s="83">
-        <v>0.068148792896507</v>
+        <v>0.013118053144404</v>
       </c>
       <c r="BD19" s="83">
-        <v>4.1666666666667</v>
+        <v>0.024678923623703</v>
       </c>
       <c r="BE19" s="83">
-        <v>0.73043257459655</v>
+        <v>0.0064286734066914</v>
       </c>
       <c r="BF19" s="83">
-        <v>4.075</v>
+        <v>0.035407143248803</v>
       </c>
       <c r="BG19" s="83">
-        <v>0.39929068374653</v>
+        <v>0.0097733632755477</v>
       </c>
       <c r="BH19" s="20"/>
       <c r="BI19" s="20"/>
@@ -2977,12 +3151,24 @@
       <c r="D20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
+      <c r="E20" s="83">
+        <v>239291.67403989</v>
+      </c>
+      <c r="F20" s="83">
+        <v>16.925737355468</v>
+      </c>
+      <c r="G20" s="83">
+        <v>255508.22595275</v>
+      </c>
+      <c r="H20" s="83">
+        <v>8.3682564734895</v>
+      </c>
+      <c r="I20" s="83">
+        <v>502258.93167504</v>
+      </c>
+      <c r="J20" s="83">
+        <v>11.243570049834</v>
+      </c>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
@@ -2996,22 +3182,22 @@
         <v>31</v>
       </c>
       <c r="U20" s="83">
-        <v>247.04008196557</v>
+        <v>0.88027341902978</v>
       </c>
       <c r="V20" s="83">
-        <v>21.050285384286</v>
+        <v>0.0085090301482461</v>
       </c>
       <c r="W20" s="83">
-        <v>368.16674055821</v>
+        <v>0.38921875970117</v>
       </c>
       <c r="X20" s="83">
-        <v>31.371487962965</v>
+        <v>0.0026653860165211</v>
       </c>
       <c r="Y20" s="83">
-        <v>615.20682252379</v>
+        <v>0.55421312523558</v>
       </c>
       <c r="Z20" s="83">
-        <v>52.421773347252</v>
+        <v>0.0055872080823836</v>
       </c>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
@@ -3028,12 +3214,24 @@
       <c r="AK20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL20" s="2"/>
-      <c r="AM20" s="2"/>
-      <c r="AN20" s="20"/>
-      <c r="AO20" s="20"/>
-      <c r="AP20" s="20"/>
-      <c r="AQ20" s="20"/>
+      <c r="AL20" s="83">
+        <v>41.791690800597</v>
+      </c>
+      <c r="AM20" s="83">
+        <v>3.5610699731189</v>
+      </c>
+      <c r="AN20" s="83">
+        <v>30.853219697256</v>
+      </c>
+      <c r="AO20" s="83">
+        <v>2.6290028504032</v>
+      </c>
+      <c r="AP20" s="83">
+        <v>74.340728009917</v>
+      </c>
+      <c r="AQ20" s="83">
+        <v>6.334573433725</v>
+      </c>
       <c r="AR20" s="20"/>
       <c r="AS20" s="20"/>
       <c r="AT20" s="20"/>
@@ -3047,22 +3245,22 @@
         <v>31</v>
       </c>
       <c r="BB20" s="83">
-        <v>4.4383913043478</v>
+        <v>0.75030234803953</v>
       </c>
       <c r="BC20" s="83">
-        <v>0.018959680321377</v>
+        <v>0.0035453798718977</v>
       </c>
       <c r="BD20" s="83">
-        <v>3.9339788732394</v>
+        <v>0.32930939580764</v>
       </c>
       <c r="BE20" s="83">
-        <v>0.0057817730206111</v>
+        <v>0.0025699482974717</v>
       </c>
       <c r="BF20" s="83">
-        <v>4.1861850887936</v>
+        <v>0.47076302775756</v>
       </c>
       <c r="BG20" s="83">
-        <v>0.012370726670994</v>
+        <v>0.0030576640846847</v>
       </c>
       <c r="BH20" s="20"/>
       <c r="BI20" s="20"/>
@@ -3081,12 +3279,24 @@
       <c r="D21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
+      <c r="E21" s="83">
+        <v>1684.0175256637</v>
+      </c>
+      <c r="F21" s="83">
+        <v>0.11911504424779</v>
+      </c>
+      <c r="G21" s="83">
+        <v>11031.169382729</v>
+      </c>
+      <c r="H21" s="83">
+        <v>0.36128642924494</v>
+      </c>
+      <c r="I21" s="83">
+        <v>12504.100952353</v>
+      </c>
+      <c r="J21" s="83">
+        <v>0.2799168438859</v>
+      </c>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
@@ -3100,22 +3310,22 @@
         <v>32</v>
       </c>
       <c r="U21" s="83">
-        <v>159.38184355854</v>
+        <v>0.0083380530973451</v>
       </c>
       <c r="V21" s="83">
-        <v>13.580926889623</v>
+        <v>0</v>
       </c>
       <c r="W21" s="83">
-        <v>335.27355399252</v>
+        <v>0.022278285341264</v>
       </c>
       <c r="X21" s="83">
-        <v>28.568659535703</v>
+        <v>0.0086868247477181</v>
       </c>
       <c r="Y21" s="83">
-        <v>494.65539755106</v>
+        <v>0.017594367307307</v>
       </c>
       <c r="Z21" s="83">
-        <v>42.149586425326</v>
+        <v>0.004343412373859</v>
       </c>
       <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
@@ -3132,12 +3342,24 @@
       <c r="AK21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL21" s="2"/>
-      <c r="AM21" s="2"/>
-      <c r="AN21" s="20"/>
-      <c r="AO21" s="20"/>
-      <c r="AP21" s="20"/>
-      <c r="AQ21" s="20"/>
+      <c r="AL21" s="83">
+        <v>0.28764811132984</v>
+      </c>
+      <c r="AM21" s="83">
+        <v>0.024510495566415</v>
+      </c>
+      <c r="AN21" s="83">
+        <v>1.3011481268325</v>
+      </c>
+      <c r="AO21" s="83">
+        <v>0.1108708318874</v>
+      </c>
+      <c r="AP21" s="83">
+        <v>1.5693863012194</v>
+      </c>
+      <c r="AQ21" s="83">
+        <v>0.13372740672691</v>
+      </c>
       <c r="AR21" s="20"/>
       <c r="AS21" s="20"/>
       <c r="AT21" s="20"/>
@@ -3151,22 +3373,22 @@
         <v>32</v>
       </c>
       <c r="BB21" s="83">
-        <v>1.32</v>
+        <v>0.0023823008849558</v>
       </c>
       <c r="BC21" s="83">
         <v>0</v>
       </c>
       <c r="BD21" s="83">
-        <v>5.875</v>
+        <v>0.022883771668964</v>
       </c>
       <c r="BE21" s="83">
-        <v>2.6632465046339</v>
+        <v>0.012087555260151</v>
       </c>
       <c r="BF21" s="83">
-        <v>3.5975</v>
+        <v>0.015995277485537</v>
       </c>
       <c r="BG21" s="83">
-        <v>1.3316232523169</v>
+        <v>0.0060437776300753</v>
       </c>
       <c r="BH21" s="20"/>
       <c r="BI21" s="20"/>
@@ -3187,12 +3409,24 @@
       <c r="D22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
+      <c r="E22" s="83">
+        <v>107870.60917195</v>
+      </c>
+      <c r="F22" s="83">
+        <v>7.6299754537821</v>
+      </c>
+      <c r="G22" s="83">
+        <v>147037.61160351</v>
+      </c>
+      <c r="H22" s="83">
+        <v>4.8156901428882</v>
+      </c>
+      <c r="I22" s="83">
+        <v>257361.26082157</v>
+      </c>
+      <c r="J22" s="83">
+        <v>5.7612900073486</v>
+      </c>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
@@ -3208,22 +3442,22 @@
         <v>31</v>
       </c>
       <c r="U22" s="83">
-        <v>190.02817467487</v>
+        <v>0.12159767456883</v>
       </c>
       <c r="V22" s="83">
-        <v>16.192300764045</v>
+        <v>0.0031693306753485</v>
       </c>
       <c r="W22" s="83">
-        <v>376.73168378939</v>
+        <v>0.081265632842533</v>
       </c>
       <c r="X22" s="83">
-        <v>32.101306775694</v>
+        <v>0.001870223494642</v>
       </c>
       <c r="Y22" s="83">
-        <v>566.75985846426</v>
+        <v>0.094817198862567</v>
       </c>
       <c r="Z22" s="83">
-        <v>48.29360753974</v>
+        <v>0.0025197770849953</v>
       </c>
       <c r="AA22" s="20"/>
       <c r="AB22" s="20"/>
@@ -3242,12 +3476,24 @@
       <c r="AK22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL22" s="2"/>
-      <c r="AM22" s="2"/>
-      <c r="AN22" s="20"/>
-      <c r="AO22" s="20"/>
-      <c r="AP22" s="20"/>
-      <c r="AQ22" s="20"/>
+      <c r="AL22" s="83">
+        <v>14.103222634805</v>
+      </c>
+      <c r="AM22" s="83">
+        <v>1.2017356007117</v>
+      </c>
+      <c r="AN22" s="83">
+        <v>16.837796246139</v>
+      </c>
+      <c r="AO22" s="83">
+        <v>1.4347486181335</v>
+      </c>
+      <c r="AP22" s="83">
+        <v>31.329854131148</v>
+      </c>
+      <c r="AQ22" s="83">
+        <v>2.6696168705152</v>
+      </c>
       <c r="AR22" s="20"/>
       <c r="AS22" s="20"/>
       <c r="AT22" s="20"/>
@@ -3263,22 +3509,22 @@
         <v>31</v>
       </c>
       <c r="BB22" s="83">
-        <v>5.952118226601</v>
+        <v>0.46020819068536</v>
       </c>
       <c r="BC22" s="83">
-        <v>0.064139568708233</v>
+        <v>0.0083965039759281</v>
       </c>
       <c r="BD22" s="83">
-        <v>5.8116666666667</v>
+        <v>0.28321623558425</v>
       </c>
       <c r="BE22" s="83">
-        <v>0.085152945122641</v>
+        <v>0.0030050011459687</v>
       </c>
       <c r="BF22" s="83">
-        <v>5.8818924466338</v>
+        <v>0.34268553249822</v>
       </c>
       <c r="BG22" s="83">
-        <v>0.074646256915437</v>
+        <v>0.0057007525609484</v>
       </c>
       <c r="BH22" s="20"/>
       <c r="BI22" s="20"/>
@@ -3297,12 +3543,24 @@
       <c r="D23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
+      <c r="E23" s="83">
+        <v>70822.223607351</v>
+      </c>
+      <c r="F23" s="83">
+        <v>5.0094444803307</v>
+      </c>
+      <c r="G23" s="83">
+        <v>112147.03299825</v>
+      </c>
+      <c r="H23" s="83">
+        <v>3.6729742511061</v>
+      </c>
+      <c r="I23" s="83">
+        <v>184134.17580552</v>
+      </c>
+      <c r="J23" s="83">
+        <v>4.1220282481256</v>
+      </c>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
@@ -3316,22 +3574,22 @@
         <v>36</v>
       </c>
       <c r="U23" s="83">
-        <v>729.61378643877</v>
+        <v>0.084656049350817</v>
       </c>
       <c r="V23" s="83">
-        <v>62.170390742448</v>
+        <v>0.0022254940651604</v>
       </c>
       <c r="W23" s="83">
-        <v>530.58891491578</v>
+        <v>0.046363629506056</v>
       </c>
       <c r="X23" s="83">
-        <v>45.211481439974</v>
+        <v>0.0020520246965818</v>
       </c>
       <c r="Y23" s="83">
-        <v>1260.2027013546</v>
+        <v>0.059229882573896</v>
       </c>
       <c r="Z23" s="83">
-        <v>107.38187218242</v>
+        <v>0.0021387593808711</v>
       </c>
       <c r="AA23" s="20"/>
       <c r="AB23" s="20"/>
@@ -3348,12 +3606,24 @@
       <c r="AK23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL23" s="2"/>
-      <c r="AM23" s="2"/>
-      <c r="AN23" s="20"/>
-      <c r="AO23" s="20"/>
-      <c r="AP23" s="20"/>
-      <c r="AQ23" s="20"/>
+      <c r="AL23" s="83">
+        <v>27.845350384248</v>
+      </c>
+      <c r="AM23" s="83">
+        <v>2.3727023062418</v>
+      </c>
+      <c r="AN23" s="83">
+        <v>19.670402445902</v>
+      </c>
+      <c r="AO23" s="83">
+        <v>1.6761149924154</v>
+      </c>
+      <c r="AP23" s="83">
+        <v>48.670972437104</v>
+      </c>
+      <c r="AQ23" s="83">
+        <v>4.1472535613657</v>
+      </c>
       <c r="AR23" s="20"/>
       <c r="AS23" s="20"/>
       <c r="AT23" s="20"/>
@@ -3367,22 +3637,22 @@
         <v>36</v>
       </c>
       <c r="BB23" s="83">
-        <v>8.7111936339523</v>
+        <v>0.465196253472</v>
       </c>
       <c r="BC23" s="83">
-        <v>0.12194973441658</v>
+        <v>0.0055851904287166</v>
       </c>
       <c r="BD23" s="83">
-        <v>6.2395104895105</v>
+        <v>0.23302974686299</v>
       </c>
       <c r="BE23" s="83">
-        <v>0.028694301219435</v>
+        <v>0.0068670585895218</v>
       </c>
       <c r="BF23" s="83">
-        <v>7.4753520617314</v>
+        <v>0.31103769308361</v>
       </c>
       <c r="BG23" s="83">
-        <v>0.075322017818009</v>
+        <v>0.0062261245091192</v>
       </c>
       <c r="BH23" s="20"/>
       <c r="BI23" s="20"/>
@@ -3403,12 +3673,24 @@
       <c r="D24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
+      <c r="E24" s="83">
+        <v>37083.846351644</v>
+      </c>
+      <c r="F24" s="83">
+        <v>2.6230392093534</v>
+      </c>
+      <c r="G24" s="83">
+        <v>27574.096585433</v>
+      </c>
+      <c r="H24" s="83">
+        <v>0.90309073765141</v>
+      </c>
+      <c r="I24" s="83">
+        <v>66157.116621417</v>
+      </c>
+      <c r="J24" s="83">
+        <v>1.4809934241433</v>
+      </c>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
@@ -3424,22 +3706,22 @@
         <v>32</v>
       </c>
       <c r="U24" s="83">
-        <v>437.1418190367</v>
+        <v>0.028617253407403</v>
       </c>
       <c r="V24" s="83">
-        <v>37.248854400117</v>
+        <v>0.0021965977427272</v>
       </c>
       <c r="W24" s="83">
-        <v>758.50609758368</v>
+        <v>0.011439065786611</v>
       </c>
       <c r="X24" s="83">
-        <v>64.632304575106</v>
+        <v>0.00055935973826301</v>
       </c>
       <c r="Y24" s="83">
-        <v>1195.6479166204</v>
+        <v>0.017210936827197</v>
       </c>
       <c r="Z24" s="83">
-        <v>101.88115897522</v>
+        <v>0.0013779787404951</v>
       </c>
       <c r="AA24" s="20"/>
       <c r="AB24" s="20"/>
@@ -3458,12 +3740,24 @@
       <c r="AK24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL24" s="2"/>
-      <c r="AM24" s="2"/>
-      <c r="AN24" s="20"/>
-      <c r="AO24" s="20"/>
-      <c r="AP24" s="20"/>
-      <c r="AQ24" s="20"/>
+      <c r="AL24" s="83">
+        <v>11.039748792845</v>
+      </c>
+      <c r="AM24" s="83">
+        <v>0.94069699463836</v>
+      </c>
+      <c r="AN24" s="83">
+        <v>7.0342355370255</v>
+      </c>
+      <c r="AO24" s="83">
+        <v>0.59938721010994</v>
+      </c>
+      <c r="AP24" s="83">
+        <v>18.553812423677</v>
+      </c>
+      <c r="AQ24" s="83">
+        <v>1.5809703566215</v>
+      </c>
       <c r="AR24" s="20"/>
       <c r="AS24" s="20"/>
       <c r="AT24" s="20"/>
@@ -3479,22 +3773,22 @@
         <v>32</v>
       </c>
       <c r="BB24" s="83">
-        <v>4.0672727272727</v>
+        <v>0.10132873522382</v>
       </c>
       <c r="BC24" s="83">
-        <v>0.17724715896389</v>
+        <v>0.0069569835835646</v>
       </c>
       <c r="BD24" s="83">
-        <v>3.625</v>
+        <v>0.032509511858998</v>
       </c>
       <c r="BE24" s="83">
-        <v>0.21365001606618</v>
+        <v>0.0033252855314283</v>
       </c>
       <c r="BF24" s="83">
-        <v>3.8461363636364</v>
+        <v>0.055632770909579</v>
       </c>
       <c r="BG24" s="83">
-        <v>0.19544858751504</v>
+        <v>0.0051411345574964</v>
       </c>
       <c r="BH24" s="20"/>
       <c r="BI24" s="20"/>
@@ -3513,12 +3807,24 @@
       <c r="D25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
+      <c r="E25" s="83">
+        <v>15178.723686364</v>
+      </c>
+      <c r="F25" s="83">
+        <v>1.0736315483496</v>
+      </c>
+      <c r="G25" s="83">
+        <v>18391.660423529</v>
+      </c>
+      <c r="H25" s="83">
+        <v>0.60235294117647</v>
+      </c>
+      <c r="I25" s="83">
+        <v>33981.168791813</v>
+      </c>
+      <c r="J25" s="83">
+        <v>0.76070255318664</v>
+      </c>
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
@@ -3532,22 +3838,22 @@
         <v>38</v>
       </c>
       <c r="U25" s="83">
-        <v>821.21804703689</v>
+        <v>0.013123176797365</v>
       </c>
       <c r="V25" s="83">
-        <v>69.975989788014</v>
+        <v>0.005034569253219</v>
       </c>
       <c r="W25" s="83">
-        <v>909.0275371782</v>
+        <v>0.0090352941176471</v>
       </c>
       <c r="X25" s="83">
-        <v>77.458236442954</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="83">
-        <v>1730.2455842151</v>
+        <v>0.010408822698032</v>
       </c>
       <c r="Z25" s="83">
-        <v>147.43422623097</v>
+        <v>0.0025172846266095</v>
       </c>
       <c r="AA25" s="20"/>
       <c r="AB25" s="20"/>
@@ -3564,12 +3870,24 @@
       <c r="AK25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL25" s="2"/>
-      <c r="AM25" s="2"/>
-      <c r="AN25" s="20"/>
-      <c r="AO25" s="20"/>
-      <c r="AP25" s="20"/>
-      <c r="AQ25" s="20"/>
+      <c r="AL25" s="83">
+        <v>10.183950918024</v>
+      </c>
+      <c r="AM25" s="83">
+        <v>0.86777445772487</v>
+      </c>
+      <c r="AN25" s="83">
+        <v>10.951108212594</v>
+      </c>
+      <c r="AO25" s="83">
+        <v>0.93314393079512</v>
+      </c>
+      <c r="AP25" s="83">
+        <v>21.450307893664</v>
+      </c>
+      <c r="AQ25" s="83">
+        <v>1.8277807356191</v>
+      </c>
       <c r="AR25" s="20"/>
       <c r="AS25" s="20"/>
       <c r="AT25" s="20"/>
@@ -3583,22 +3901,22 @@
         <v>38</v>
       </c>
       <c r="BB25" s="83">
-        <v>3.3985714285714</v>
+        <v>0.048919255862024</v>
       </c>
       <c r="BC25" s="83">
-        <v>0.41950796709517</v>
+        <v>0.016462139286342</v>
       </c>
       <c r="BD25" s="83">
-        <v>1.825</v>
+        <v>0.021985882352941</v>
       </c>
       <c r="BE25" s="83">
         <v>0</v>
       </c>
       <c r="BF25" s="83">
-        <v>2.6117857142857</v>
+        <v>0.031035495851993</v>
       </c>
       <c r="BG25" s="83">
-        <v>0.20975398354759</v>
+        <v>0.008231069643171</v>
       </c>
       <c r="BH25" s="20"/>
       <c r="BI25" s="20"/>
@@ -3617,12 +3935,24 @@
       <c r="D26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
+      <c r="E26" s="83">
+        <v>3374.4824671533</v>
+      </c>
+      <c r="F26" s="83">
+        <v>0.23868613138686</v>
+      </c>
+      <c r="G26" s="83">
+        <v>1837.2526066584</v>
+      </c>
+      <c r="H26" s="83">
+        <v>0.060172626387176</v>
+      </c>
+      <c r="I26" s="83">
+        <v>5367.3343568124</v>
+      </c>
+      <c r="J26" s="83">
+        <v>0.12015316406707</v>
+      </c>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
       <c r="M26" s="20"/>
@@ -3636,22 +3966,22 @@
         <v>39</v>
       </c>
       <c r="U26" s="83">
-        <v>124.06095881388</v>
+        <v>0.0035802919708029</v>
       </c>
       <c r="V26" s="83">
-        <v>10.571234300531</v>
+        <v>0</v>
       </c>
       <c r="W26" s="83">
-        <v>501.477538023</v>
+        <v>0.00060172626387176</v>
       </c>
       <c r="X26" s="83">
-        <v>42.73090101494</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="83">
-        <v>625.53849683688</v>
+        <v>0.0016025243414006</v>
       </c>
       <c r="Z26" s="83">
-        <v>53.302135315471</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="20"/>
       <c r="AB26" s="20"/>
@@ -3668,12 +3998,24 @@
       <c r="AK26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL26" s="2"/>
-      <c r="AM26" s="2"/>
-      <c r="AN26" s="20"/>
-      <c r="AO26" s="20"/>
-      <c r="AP26" s="20"/>
-      <c r="AQ26" s="20"/>
+      <c r="AL26" s="83">
+        <v>0.87093030339499</v>
+      </c>
+      <c r="AM26" s="83">
+        <v>0.074211971152287</v>
+      </c>
+      <c r="AN26" s="83">
+        <v>0.60350441074038</v>
+      </c>
+      <c r="AO26" s="83">
+        <v>0.051424610839188</v>
+      </c>
+      <c r="AP26" s="83">
+        <v>1.5109019819301</v>
+      </c>
+      <c r="AQ26" s="83">
+        <v>0.12874395788027</v>
+      </c>
       <c r="AR26" s="20"/>
       <c r="AS26" s="20"/>
       <c r="AT26" s="20"/>
@@ -3687,19 +4029,19 @@
         <v>39</v>
       </c>
       <c r="BB26" s="83">
-        <v>0.85</v>
+        <v>0.0059671532846715</v>
       </c>
       <c r="BC26" s="83">
         <v>0</v>
       </c>
       <c r="BD26" s="83">
-        <v>2.5</v>
+        <v>0.0030086313193588</v>
       </c>
       <c r="BE26" s="83">
         <v>0</v>
       </c>
       <c r="BF26" s="83">
-        <v>1.675</v>
+        <v>0.0040026946997039</v>
       </c>
       <c r="BG26" s="83">
         <v>0</v>
@@ -3723,12 +4065,24 @@
       <c r="D27" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
+      <c r="E27" s="83">
+        <v>5052.0525769912</v>
+      </c>
+      <c r="F27" s="83">
+        <v>0.35734513274336</v>
+      </c>
+      <c r="G27" s="83">
+        <v>3676.4186490114</v>
+      </c>
+      <c r="H27" s="83">
+        <v>0.12040792050482</v>
+      </c>
+      <c r="I27" s="83">
+        <v>8934.9948743985</v>
+      </c>
+      <c r="J27" s="83">
+        <v>0.20001882381697</v>
+      </c>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
@@ -3744,22 +4098,22 @@
         <v>41</v>
       </c>
       <c r="U27" s="83">
-        <v>194.11891202642</v>
+        <v>0.0047646017699115</v>
       </c>
       <c r="V27" s="83">
-        <v>16.540872493772</v>
+        <v>0</v>
       </c>
       <c r="W27" s="83">
-        <v>250.7387690115</v>
+        <v>0.0012040792050482</v>
       </c>
       <c r="X27" s="83">
-        <v>21.36545050747</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="83">
-        <v>444.85768103792</v>
+        <v>0.0024004147868423</v>
       </c>
       <c r="Z27" s="83">
-        <v>37.906323001241</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="20"/>
       <c r="AB27" s="20"/>
@@ -3778,12 +4132,24 @@
       <c r="AK27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL27" s="2"/>
-      <c r="AM27" s="2"/>
-      <c r="AN27" s="20"/>
-      <c r="AO27" s="20"/>
-      <c r="AP27" s="20"/>
-      <c r="AQ27" s="20"/>
+      <c r="AL27" s="83">
+        <v>1.0510219452436</v>
+      </c>
+      <c r="AM27" s="83">
+        <v>0.08955757995421</v>
+      </c>
+      <c r="AN27" s="83">
+        <v>0.30194076412533</v>
+      </c>
+      <c r="AO27" s="83">
+        <v>0.025728372511119</v>
+      </c>
+      <c r="AP27" s="83">
+        <v>1.4091420852377</v>
+      </c>
+      <c r="AQ27" s="83">
+        <v>0.12007299708311</v>
+      </c>
       <c r="AR27" s="20"/>
       <c r="AS27" s="20"/>
       <c r="AT27" s="20"/>
@@ -3799,19 +4165,19 @@
         <v>41</v>
       </c>
       <c r="BB27" s="83">
-        <v>2.2</v>
+        <v>0.011911504424779</v>
       </c>
       <c r="BC27" s="83">
         <v>0</v>
       </c>
       <c r="BD27" s="83">
-        <v>4</v>
+        <v>0.0048144367882788</v>
       </c>
       <c r="BE27" s="83">
         <v>0</v>
       </c>
       <c r="BF27" s="83">
-        <v>3.1</v>
+        <v>0.0071990515141428</v>
       </c>
       <c r="BG27" s="83">
         <v>0</v>
@@ -3835,12 +4201,24 @@
       <c r="D28" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
+      <c r="E28" s="83">
+        <v>82571.661792042</v>
+      </c>
+      <c r="F28" s="83">
+        <v>5.8405135327175</v>
+      </c>
+      <c r="G28" s="83">
+        <v>53305.200257123</v>
+      </c>
+      <c r="H28" s="83">
+        <v>1.7458208457242</v>
+      </c>
+      <c r="I28" s="83">
+        <v>139445.95474165</v>
+      </c>
+      <c r="J28" s="83">
+        <v>3.121637588554</v>
+      </c>
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
       <c r="M28" s="20"/>
@@ -3856,22 +4234,22 @@
         <v>41</v>
       </c>
       <c r="U28" s="83">
-        <v>292.5231910446</v>
+        <v>0.061983147083522</v>
       </c>
       <c r="V28" s="83">
-        <v>24.925901108911</v>
+        <v>0.0019104480218723</v>
       </c>
       <c r="W28" s="83">
-        <v>494.43603413135</v>
+        <v>0.018662287662291</v>
       </c>
       <c r="X28" s="83">
-        <v>42.130894468332</v>
+        <v>0.00078394026575791</v>
       </c>
       <c r="Y28" s="83">
-        <v>786.95922517595</v>
+        <v>0.033218096427824</v>
       </c>
       <c r="Z28" s="83">
-        <v>67.056795577243</v>
+        <v>0.0013471941438151</v>
       </c>
       <c r="AA28" s="20"/>
       <c r="AB28" s="20"/>
@@ -3890,12 +4268,24 @@
       <c r="AK28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL28" s="2"/>
-      <c r="AM28" s="2"/>
-      <c r="AN28" s="20"/>
-      <c r="AO28" s="20"/>
-      <c r="AP28" s="20"/>
-      <c r="AQ28" s="20"/>
+      <c r="AL28" s="83">
+        <v>17.047623916873</v>
+      </c>
+      <c r="AM28" s="83">
+        <v>1.4526280339567</v>
+      </c>
+      <c r="AN28" s="83">
+        <v>8.5874039428145</v>
+      </c>
+      <c r="AO28" s="83">
+        <v>0.73173268996722</v>
+      </c>
+      <c r="AP28" s="83">
+        <v>26.440922523701</v>
+      </c>
+      <c r="AQ28" s="83">
+        <v>2.2530310082445</v>
+      </c>
       <c r="AR28" s="20"/>
       <c r="AS28" s="20"/>
       <c r="AT28" s="20"/>
@@ -3911,22 +4301,22 @@
         <v>41</v>
       </c>
       <c r="BB28" s="83">
-        <v>2.2351875</v>
+        <v>0.1302625179252</v>
       </c>
       <c r="BC28" s="83">
-        <v>0.030465289771965</v>
+        <v>0.0030825407204531</v>
       </c>
       <c r="BD28" s="83">
-        <v>2.0588942307692</v>
+        <v>0.037018072096903</v>
       </c>
       <c r="BE28" s="83">
-        <v>0.047480023122505</v>
+        <v>0.0010309018872002</v>
       </c>
       <c r="BF28" s="83">
-        <v>2.1470408653846</v>
+        <v>0.06834820589521</v>
       </c>
       <c r="BG28" s="83">
-        <v>0.038972656447235</v>
+        <v>0.0020567213038266</v>
       </c>
       <c r="BH28" s="20"/>
       <c r="BI28" s="20"/>
@@ -3949,12 +4339,24 @@
       <c r="D29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
+      <c r="E29" s="83">
+        <v>77500.266967573</v>
+      </c>
+      <c r="F29" s="83">
+        <v>5.4818002713003</v>
+      </c>
+      <c r="G29" s="83">
+        <v>29405.608885008</v>
+      </c>
+      <c r="H29" s="83">
+        <v>0.96307536084717</v>
+      </c>
+      <c r="I29" s="83">
+        <v>110844.57144956</v>
+      </c>
+      <c r="J29" s="83">
+        <v>2.4813669307594</v>
+      </c>
       <c r="K29" s="20"/>
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
@@ -3972,22 +4374,22 @@
         <v>44</v>
       </c>
       <c r="U29" s="83">
-        <v>64.706326984655</v>
+        <v>0.085794754860797</v>
       </c>
       <c r="V29" s="83">
-        <v>5.5136261223625</v>
+        <v>0.0039215224200137</v>
       </c>
       <c r="W29" s="83">
-        <v>78.78190413357</v>
+        <v>0.015648642924494</v>
       </c>
       <c r="X29" s="83">
-        <v>6.7130060512215</v>
+        <v>0.00096019392715506</v>
       </c>
       <c r="Y29" s="83">
-        <v>143.48823111823</v>
+        <v>0.039217736535092</v>
       </c>
       <c r="Z29" s="83">
-        <v>12.226632173584</v>
+        <v>0.0024408581735844</v>
       </c>
       <c r="AA29" s="20"/>
       <c r="AB29" s="20"/>
@@ -4008,12 +4410,24 @@
       <c r="AK29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL29" s="2"/>
-      <c r="AM29" s="2"/>
-      <c r="AN29" s="20"/>
-      <c r="AO29" s="20"/>
-      <c r="AP29" s="20"/>
-      <c r="AQ29" s="20"/>
+      <c r="AL29" s="83">
+        <v>3.1490358420452</v>
+      </c>
+      <c r="AM29" s="83">
+        <v>0.26832934410068</v>
+      </c>
+      <c r="AN29" s="83">
+        <v>0.89819774562899</v>
+      </c>
+      <c r="AO29" s="83">
+        <v>0.076535429905046</v>
+      </c>
+      <c r="AP29" s="83">
+        <v>4.2157409137691</v>
+      </c>
+      <c r="AQ29" s="83">
+        <v>0.35922328326226</v>
+      </c>
       <c r="AR29" s="20"/>
       <c r="AS29" s="20"/>
       <c r="AT29" s="20"/>
@@ -4031,22 +4445,22 @@
         <v>44</v>
       </c>
       <c r="BB29" s="83">
-        <v>4.9815324675325</v>
+        <v>0.28726868742329</v>
       </c>
       <c r="BC29" s="83">
-        <v>0.060179589457998</v>
+        <v>0.010854779119428</v>
       </c>
       <c r="BD29" s="83">
-        <v>2.6181818181818</v>
+        <v>0.025280649887575</v>
       </c>
       <c r="BE29" s="83">
-        <v>0.41022366702474</v>
+        <v>0.0025948617437966</v>
       </c>
       <c r="BF29" s="83">
-        <v>3.7998571428571</v>
+        <v>0.11330863049958</v>
       </c>
       <c r="BG29" s="83">
-        <v>0.23520162824137</v>
+        <v>0.0067248204316123</v>
       </c>
       <c r="BH29" s="20"/>
       <c r="BI29" s="20"/>
@@ -4065,12 +4479,24 @@
       <c r="D30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
+      <c r="E30" s="83">
+        <v>6739.2938105678</v>
+      </c>
+      <c r="F30" s="83">
+        <v>0.47668819843679</v>
+      </c>
+      <c r="G30" s="83">
+        <v>12866.508553693</v>
+      </c>
+      <c r="H30" s="83">
+        <v>0.42139638790165</v>
+      </c>
+      <c r="I30" s="83">
+        <v>19653.996847222</v>
+      </c>
+      <c r="J30" s="83">
+        <v>0.43997443624146</v>
+      </c>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
@@ -4084,22 +4510,22 @@
         <v>45</v>
       </c>
       <c r="U30" s="83">
-        <v>334.47070381586</v>
+        <v>0.013111775725082</v>
       </c>
       <c r="V30" s="83">
-        <v>28.50024867215</v>
+        <v>0.0021011238126037</v>
       </c>
       <c r="W30" s="83">
-        <v>174.82064172746</v>
+        <v>0.0060203960252412</v>
       </c>
       <c r="X30" s="83">
-        <v>14.896466881597</v>
+        <v>0.0017977426522005</v>
       </c>
       <c r="Y30" s="83">
-        <v>509.29134554333</v>
+        <v>0.0084030996043878</v>
       </c>
       <c r="Z30" s="83">
-        <v>43.396715553747</v>
+        <v>0.0019494332324021</v>
       </c>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
@@ -4116,12 +4542,24 @@
       <c r="AK30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL30" s="2"/>
-      <c r="AM30" s="2"/>
-      <c r="AN30" s="20"/>
-      <c r="AO30" s="20"/>
-      <c r="AP30" s="20"/>
-      <c r="AQ30" s="20"/>
+      <c r="AL30" s="83">
+        <v>1.2496810839046</v>
+      </c>
+      <c r="AM30" s="83">
+        <v>0.10648532515951</v>
+      </c>
+      <c r="AN30" s="83">
+        <v>0.78974730742448</v>
+      </c>
+      <c r="AO30" s="83">
+        <v>0.06729436806564</v>
+      </c>
+      <c r="AP30" s="83">
+        <v>2.0939301541124</v>
+      </c>
+      <c r="AQ30" s="83">
+        <v>0.17842378843192</v>
+      </c>
       <c r="AR30" s="20"/>
       <c r="AS30" s="20"/>
       <c r="AT30" s="20"/>
@@ -4135,22 +4573,22 @@
         <v>45</v>
       </c>
       <c r="BB30" s="83">
-        <v>7.06</v>
+        <v>0.036930224145727</v>
       </c>
       <c r="BC30" s="83">
-        <v>1.6030353153384</v>
+        <v>0.0087046557950727</v>
       </c>
       <c r="BD30" s="83">
-        <v>4.75</v>
+        <v>0.019266520635381</v>
       </c>
       <c r="BE30" s="83">
-        <v>1.8592593251333</v>
+        <v>0.0058771431688265</v>
       </c>
       <c r="BF30" s="83">
-        <v>5.905</v>
+        <v>0.025201525014857</v>
       </c>
       <c r="BG30" s="83">
-        <v>1.7311473202359</v>
+        <v>0.0072908994819496</v>
       </c>
       <c r="BH30" s="20"/>
       <c r="BI30" s="20"/>
@@ -4169,12 +4607,24 @@
       <c r="D31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
+      <c r="E31" s="83">
+        <v>3374.4824671533</v>
+      </c>
+      <c r="F31" s="83">
+        <v>0.23868613138686</v>
+      </c>
+      <c r="G31" s="83">
+        <v>0</v>
+      </c>
+      <c r="H31" s="83">
+        <v>0</v>
+      </c>
+      <c r="I31" s="83">
+        <v>3582.5305411971</v>
+      </c>
+      <c r="J31" s="83">
+        <v>0.080198540145985</v>
+      </c>
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
@@ -4188,10 +4638,10 @@
         <v>46</v>
       </c>
       <c r="U31" s="83">
-        <v>29.473876275782</v>
+        <v>0.0023868613138686</v>
       </c>
       <c r="V31" s="83">
-        <v>2.5114689974594</v>
+        <v>0</v>
       </c>
       <c r="W31" s="83">
         <v>0</v>
@@ -4200,10 +4650,10 @@
         <v>0</v>
       </c>
       <c r="Y31" s="83">
-        <v>29.473876275782</v>
+        <v>0.00080198540145985</v>
       </c>
       <c r="Z31" s="83">
-        <v>2.5114689974594</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="20"/>
       <c r="AB31" s="20"/>
@@ -4220,12 +4670,24 @@
       <c r="AK31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL31" s="4"/>
-      <c r="AM31" s="4"/>
-      <c r="AN31" s="22"/>
-      <c r="AO31" s="22"/>
-      <c r="AP31" s="22"/>
-      <c r="AQ31" s="22"/>
+      <c r="AL31" s="83">
+        <v>0.20691192662475</v>
+      </c>
+      <c r="AM31" s="83">
+        <v>0.017630965267695</v>
+      </c>
+      <c r="AN31" s="83">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="83">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="83">
+        <v>0.21966873548359</v>
+      </c>
+      <c r="AQ31" s="83">
+        <v>0.018717972950556</v>
+      </c>
       <c r="AR31" s="22"/>
       <c r="AS31" s="22"/>
       <c r="AT31" s="22"/>
@@ -4239,7 +4701,7 @@
         <v>46</v>
       </c>
       <c r="BB31" s="83">
-        <v>1.7</v>
+        <v>0.011934306569343</v>
       </c>
       <c r="BC31" s="83">
         <v>0</v>
@@ -4251,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="BF31" s="83">
-        <v>0.85</v>
+        <v>0.0040099270072993</v>
       </c>
       <c r="BG31" s="83">
         <v>0</v>
@@ -4277,12 +4739,24 @@
       <c r="D32" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
+      <c r="E32" s="83">
+        <v>3368.0350513274</v>
+      </c>
+      <c r="F32" s="83">
+        <v>0.23823008849558</v>
+      </c>
+      <c r="G32" s="83">
+        <v>3676.4186490114</v>
+      </c>
+      <c r="H32" s="83">
+        <v>0.12040792050482</v>
+      </c>
+      <c r="I32" s="83">
+        <v>7147.1520640339</v>
+      </c>
+      <c r="J32" s="83">
+        <v>0.15999616894972</v>
+      </c>
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
@@ -4300,22 +4774,22 @@
         <v>41</v>
       </c>
       <c r="U32" s="83">
-        <v>121.628390994</v>
+        <v>0.0023823008849558</v>
       </c>
       <c r="V32" s="83">
-        <v>10.363955196599</v>
+        <v>0</v>
       </c>
       <c r="W32" s="83">
-        <v>509.437498944</v>
+        <v>0.0012040792050482</v>
       </c>
       <c r="X32" s="83">
-        <v>43.409169285018</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="83">
-        <v>631.065889938</v>
+        <v>0.0015999616894972</v>
       </c>
       <c r="Z32" s="83">
-        <v>53.773124481617</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="20"/>
       <c r="AB32" s="20"/>
@@ -4336,12 +4810,24 @@
       <c r="AK32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL32" s="15"/>
-      <c r="AM32" s="15"/>
-      <c r="AN32" s="15"/>
-      <c r="AO32" s="15"/>
-      <c r="AP32" s="15"/>
-      <c r="AQ32" s="15"/>
+      <c r="AL32" s="83">
+        <v>0.43902336894053</v>
+      </c>
+      <c r="AM32" s="83">
+        <v>0.037409181267423</v>
+      </c>
+      <c r="AN32" s="83">
+        <v>0.61340309875025</v>
+      </c>
+      <c r="AO32" s="83">
+        <v>0.052268078044509</v>
+      </c>
+      <c r="AP32" s="83">
+        <v>1.0619826537946</v>
+      </c>
+      <c r="AQ32" s="83">
+        <v>0.090491541929834</v>
+      </c>
       <c r="AR32" s="15"/>
       <c r="AS32" s="15"/>
       <c r="AT32" s="15"/>
@@ -4359,19 +4845,19 @@
         <v>41</v>
       </c>
       <c r="BB32" s="83">
-        <v>1.98</v>
+        <v>0.0071469026548673</v>
       </c>
       <c r="BC32" s="83">
         <v>0</v>
       </c>
       <c r="BD32" s="83">
-        <v>2.5</v>
+        <v>0.0030098846739682</v>
       </c>
       <c r="BE32" s="83">
         <v>0</v>
       </c>
       <c r="BF32" s="83">
-        <v>2.24</v>
+        <v>0.0043999227155503</v>
       </c>
       <c r="BG32" s="83">
         <v>0</v>
@@ -4397,12 +4883,24 @@
       <c r="D33" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
+      <c r="E33" s="83">
+        <v>441470.48835693</v>
+      </c>
+      <c r="F33" s="83">
+        <v>31.226383308572</v>
+      </c>
+      <c r="G33" s="83">
+        <v>406214.60246249</v>
+      </c>
+      <c r="H33" s="83">
+        <v>13.304103865961</v>
+      </c>
+      <c r="I33" s="83">
+        <v>863306.84353226</v>
+      </c>
+      <c r="J33" s="83">
+        <v>19.325989758678</v>
+      </c>
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
       <c r="M33" s="20"/>
@@ -4420,22 +4918,22 @@
         <v>41</v>
       </c>
       <c r="U33" s="83">
-        <v>2479.6314863252</v>
+        <v>0.39090028421937</v>
       </c>
       <c r="V33" s="83">
-        <v>211.28939894977</v>
+        <v>0.0011258534838333</v>
       </c>
       <c r="W33" s="83">
-        <v>4213.959741265</v>
+        <v>0.14146708638573</v>
       </c>
       <c r="X33" s="83">
-        <v>359.07150955319</v>
+        <v>0.00055349547077112</v>
       </c>
       <c r="Y33" s="83">
-        <v>6693.5912275902</v>
+        <v>0.22527664085783</v>
       </c>
       <c r="Z33" s="83">
-        <v>570.36090850296</v>
+        <v>0.0008396744773022</v>
       </c>
       <c r="AA33" s="20"/>
       <c r="AB33" s="20"/>
@@ -4456,12 +4954,24 @@
       <c r="AK33" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL33" s="4"/>
-      <c r="AM33" s="4"/>
-      <c r="AN33" s="22"/>
-      <c r="AO33" s="22"/>
-      <c r="AP33" s="22"/>
-      <c r="AQ33" s="22"/>
+      <c r="AL33" s="83">
+        <v>767.96935772747</v>
+      </c>
+      <c r="AM33" s="83">
+        <v>65.438668971958</v>
+      </c>
+      <c r="AN33" s="83">
+        <v>562.70173941738</v>
+      </c>
+      <c r="AO33" s="83">
+        <v>47.947815215755</v>
+      </c>
+      <c r="AP33" s="83">
+        <v>1361.9552903075</v>
+      </c>
+      <c r="AQ33" s="83">
+        <v>116.0522102871</v>
+      </c>
       <c r="AR33" s="22"/>
       <c r="AS33" s="22"/>
       <c r="AT33" s="22"/>
@@ -4479,22 +4989,22 @@
         <v>41</v>
       </c>
       <c r="BB33" s="83">
-        <v>5.3223695054945</v>
+        <v>1.652724324656</v>
       </c>
       <c r="BC33" s="83">
-        <v>0.001967470505551</v>
+        <v>0.0044970353061287</v>
       </c>
       <c r="BD33" s="83">
-        <v>4.4314736842105</v>
+        <v>0.58244871835787</v>
       </c>
       <c r="BE33" s="83">
-        <v>0.0080394791276714</v>
+        <v>0.0033070279549738</v>
       </c>
       <c r="BF33" s="83">
-        <v>4.8769215948525</v>
+        <v>0.94206132207405</v>
       </c>
       <c r="BG33" s="83">
-        <v>0.0050034748166112</v>
+        <v>0.0039020316305513</v>
       </c>
       <c r="BH33" s="20"/>
       <c r="BI33" s="20"/>
@@ -4517,12 +5027,24 @@
       <c r="D34" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
+      <c r="E34" s="83">
+        <v>117945.70095472</v>
+      </c>
+      <c r="F34" s="83">
+        <v>8.342613526258</v>
+      </c>
+      <c r="G34" s="83">
+        <v>84549.975184484</v>
+      </c>
+      <c r="H34" s="83">
+        <v>2.7691315006891</v>
+      </c>
+      <c r="I34" s="83">
+        <v>207353.73887791</v>
+      </c>
+      <c r="J34" s="83">
+        <v>4.6418214612802</v>
+      </c>
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>
       <c r="M34" s="20"/>
@@ -4540,22 +5062,22 @@
         <v>41</v>
       </c>
       <c r="U34" s="83">
-        <v>290.73578812477</v>
+        <v>0.09057759834636</v>
       </c>
       <c r="V34" s="83">
-        <v>24.773596506112</v>
+        <v>0.001173189108412</v>
       </c>
       <c r="W34" s="83">
-        <v>10321.447027216</v>
+        <v>0.027691315006891</v>
       </c>
       <c r="X34" s="83">
-        <v>879.49050118908</v>
+        <v>0.00040866981784853</v>
       </c>
       <c r="Y34" s="83">
-        <v>10612.182815341</v>
+        <v>0.048821106208952</v>
       </c>
       <c r="Z34" s="83">
-        <v>904.26409769519</v>
+        <v>0.00079092946313025</v>
       </c>
       <c r="AA34" s="20"/>
       <c r="AB34" s="20"/>
@@ -4576,12 +5098,24 @@
       <c r="AK34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL34" s="4"/>
-      <c r="AM34" s="4"/>
-      <c r="AN34" s="22"/>
-      <c r="AO34" s="22"/>
-      <c r="AP34" s="22"/>
-      <c r="AQ34" s="22"/>
+      <c r="AL34" s="83">
+        <v>23.905493851586</v>
+      </c>
+      <c r="AM34" s="83">
+        <v>2.0369871310936</v>
+      </c>
+      <c r="AN34" s="83">
+        <v>333.44576544539</v>
+      </c>
+      <c r="AO34" s="83">
+        <v>28.412913673601</v>
+      </c>
+      <c r="AP34" s="83">
+        <v>349.30610181828</v>
+      </c>
+      <c r="AQ34" s="83">
+        <v>29.764372935935</v>
+      </c>
       <c r="AR34" s="22"/>
       <c r="AS34" s="22"/>
       <c r="AT34" s="22"/>
@@ -4599,22 +5133,22 @@
         <v>41</v>
       </c>
       <c r="BB34" s="83">
-        <v>4.6939</v>
+        <v>0.39683209417996</v>
       </c>
       <c r="BC34" s="83">
-        <v>0.017696775459801</v>
+        <v>0.004381307064849</v>
       </c>
       <c r="BD34" s="83">
-        <v>3.8104288499025</v>
+        <v>0.10384728802495</v>
       </c>
       <c r="BE34" s="83">
-        <v>0.017056914741477</v>
+        <v>0.0019537637758866</v>
       </c>
       <c r="BF34" s="83">
-        <v>4.2521644249513</v>
+        <v>0.20229018289303</v>
       </c>
       <c r="BG34" s="83">
-        <v>0.017376845100639</v>
+        <v>0.0031675354203678</v>
       </c>
       <c r="BH34" s="20"/>
       <c r="BI34" s="20"/>
@@ -4635,12 +5169,24 @@
       <c r="D35" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
+      <c r="E35" s="83">
+        <v>1684.0175256637</v>
+      </c>
+      <c r="F35" s="83">
+        <v>0.11911504424779</v>
+      </c>
+      <c r="G35" s="83">
+        <v>3676.4186490114</v>
+      </c>
+      <c r="H35" s="83">
+        <v>0.12040792050482</v>
+      </c>
+      <c r="I35" s="83">
+        <v>5359.3092536693</v>
+      </c>
+      <c r="J35" s="83">
+        <v>0.11997351408246</v>
+      </c>
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
@@ -4656,22 +5202,22 @@
         <v>41</v>
       </c>
       <c r="U35" s="83">
-        <v>25.54196210874</v>
+        <v>0.0011911504424779</v>
       </c>
       <c r="V35" s="83">
-        <v>2.1764305912857</v>
+        <v>0</v>
       </c>
       <c r="W35" s="83">
-        <v>45.76977529575</v>
+        <v>0.0012040792050482</v>
       </c>
       <c r="X35" s="83">
-        <v>3.9000425529509</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="83">
-        <v>71.31173740449</v>
+        <v>0.0011997351408246</v>
       </c>
       <c r="Z35" s="83">
-        <v>6.0764731442366</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="20"/>
       <c r="AB35" s="20"/>
@@ -4690,12 +5236,24 @@
       <c r="AK35" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL35" s="4"/>
-      <c r="AM35" s="4"/>
-      <c r="AN35" s="22"/>
-      <c r="AO35" s="22"/>
-      <c r="AP35" s="22"/>
-      <c r="AQ35" s="22"/>
+      <c r="AL35" s="83">
+        <v>0.046097453738756</v>
+      </c>
+      <c r="AM35" s="83">
+        <v>0.0039279640330794</v>
+      </c>
+      <c r="AN35" s="83">
+        <v>0.055086740100779</v>
+      </c>
+      <c r="AO35" s="83">
+        <v>0.0046939411239874</v>
+      </c>
+      <c r="AP35" s="83">
+        <v>0.10245367188665</v>
+      </c>
+      <c r="AQ35" s="83">
+        <v>0.0087300773814612</v>
+      </c>
       <c r="AR35" s="22"/>
       <c r="AS35" s="22"/>
       <c r="AT35" s="22"/>
@@ -4710,22 +5268,22 @@
       <c r="BA35" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="BB35" s="84">
-        <v>0.66</v>
-      </c>
-      <c r="BC35" s="84">
-        <v>0</v>
-      </c>
-      <c r="BD35" s="84">
-        <v>3.5</v>
-      </c>
-      <c r="BE35" s="84">
-        <v>0</v>
-      </c>
-      <c r="BF35" s="84">
-        <v>2.08</v>
-      </c>
-      <c r="BG35" s="84">
+      <c r="BB35" s="86">
+        <v>0.0011911504424779</v>
+      </c>
+      <c r="BC35" s="86">
+        <v>0</v>
+      </c>
+      <c r="BD35" s="86">
+        <v>0.0042145905563212</v>
+      </c>
+      <c r="BE35" s="86">
+        <v>0</v>
+      </c>
+      <c r="BF35" s="86">
+        <v>0.0031987146780698</v>
+      </c>
+      <c r="BG35" s="86">
         <v>0</v>
       </c>
       <c r="BH35" s="20"/>
@@ -4747,12 +5305,24 @@
       <c r="D36" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
+      <c r="E36" s="83">
+        <v>3368.0350513274</v>
+      </c>
+      <c r="F36" s="83">
+        <v>0.23823008849558</v>
+      </c>
+      <c r="G36" s="83">
+        <v>1839.1660423529</v>
+      </c>
+      <c r="H36" s="83">
+        <v>0.060235294117647</v>
+      </c>
+      <c r="I36" s="83">
+        <v>5362.3482484186</v>
+      </c>
+      <c r="J36" s="83">
+        <v>0.12004154502863</v>
+      </c>
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
       <c r="M36" s="20"/>
@@ -4768,22 +5338,22 @@
         <v>41</v>
       </c>
       <c r="U36" s="83">
-        <v>15.568434047232</v>
+        <v>0.0023823008849558</v>
       </c>
       <c r="V36" s="83">
-        <v>1.3265862651646</v>
+        <v>0</v>
       </c>
       <c r="W36" s="83">
-        <v>31.839843684</v>
+        <v>0.00060235294117647</v>
       </c>
       <c r="X36" s="83">
-        <v>2.7130730803136</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="83">
-        <v>47.408277731232</v>
+        <v>0.0012004154502863</v>
       </c>
       <c r="Z36" s="83">
-        <v>4.0396593454783</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="20"/>
       <c r="AB36" s="20"/>
@@ -4802,12 +5372,24 @@
       <c r="AK36" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL36" s="15"/>
-      <c r="AM36" s="15"/>
-      <c r="AN36" s="15"/>
-      <c r="AO36" s="15"/>
-      <c r="AP36" s="15"/>
-      <c r="AQ36" s="15"/>
+      <c r="AL36" s="83">
+        <v>0.056194991224388</v>
+      </c>
+      <c r="AM36" s="83">
+        <v>0.0047883752022301</v>
+      </c>
+      <c r="AN36" s="83">
+        <v>0.038357646979313</v>
+      </c>
+      <c r="AO36" s="83">
+        <v>0.0032684550991073</v>
+      </c>
+      <c r="AP36" s="83">
+        <v>0.096922235207833</v>
+      </c>
+      <c r="AQ36" s="83">
+        <v>0.0082587436620594</v>
+      </c>
       <c r="AR36" s="15"/>
       <c r="AS36" s="15"/>
       <c r="AT36" s="15"/>
@@ -4823,19 +5405,19 @@
         <v>41</v>
       </c>
       <c r="BB36" s="83">
-        <v>1.98</v>
+        <v>0.0071469026548673</v>
       </c>
       <c r="BC36" s="83">
         <v>0</v>
       </c>
       <c r="BD36" s="83">
-        <v>1</v>
+        <v>0.0012047058823529</v>
       </c>
       <c r="BE36" s="83">
         <v>0</v>
       </c>
       <c r="BF36" s="83">
-        <v>1.49</v>
+        <v>0.0032012839979178</v>
       </c>
       <c r="BG36" s="83">
         <v>0</v>
@@ -4861,12 +5443,24 @@
       <c r="D37" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
+      <c r="E37" s="83">
+        <v>594890.16341962</v>
+      </c>
+      <c r="F37" s="83">
+        <v>42.078165493185</v>
+      </c>
+      <c r="G37" s="83">
+        <v>1126892.1563248</v>
+      </c>
+      <c r="H37" s="83">
+        <v>36.907315006891</v>
+      </c>
+      <c r="I37" s="83">
+        <v>1726289.4332436</v>
+      </c>
+      <c r="J37" s="83">
+        <v>38.644720770286</v>
+      </c>
       <c r="K37" s="20"/>
       <c r="L37" s="20"/>
       <c r="M37" s="20"/>
@@ -4884,22 +5478,22 @@
         <v>41</v>
       </c>
       <c r="U37" s="83">
-        <v>436.82901846942</v>
+        <v>0.45177208836638</v>
       </c>
       <c r="V37" s="83">
-        <v>37.222200663779</v>
+        <v>0.00030293301267637</v>
       </c>
       <c r="W37" s="83">
-        <v>564.57802456324</v>
+        <v>0.37870766374121</v>
       </c>
       <c r="X37" s="83">
-        <v>48.107693473034</v>
+        <v>0.00018249304549426</v>
       </c>
       <c r="Y37" s="83">
-        <v>1001.4070430327</v>
+        <v>0.40325731041527</v>
       </c>
       <c r="Z37" s="83">
-        <v>85.329894136814</v>
+        <v>0.00024271302908532</v>
       </c>
       <c r="AA37" s="20"/>
       <c r="AB37" s="20"/>
@@ -4920,12 +5514,24 @@
       <c r="AK37" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL37" s="4"/>
-      <c r="AM37" s="4"/>
-      <c r="AN37" s="22"/>
-      <c r="AO37" s="22"/>
-      <c r="AP37" s="22"/>
-      <c r="AQ37" s="22"/>
+      <c r="AL37" s="83">
+        <v>184.31420333262</v>
+      </c>
+      <c r="AM37" s="83">
+        <v>15.705413265973</v>
+      </c>
+      <c r="AN37" s="83">
+        <v>207.74875192727</v>
+      </c>
+      <c r="AO37" s="83">
+        <v>17.702271151722</v>
+      </c>
+      <c r="AP37" s="83">
+        <v>397.49585187784</v>
+      </c>
+      <c r="AQ37" s="83">
+        <v>33.870621538511</v>
+      </c>
       <c r="AR37" s="22"/>
       <c r="AS37" s="22"/>
       <c r="AT37" s="22"/>
@@ -4943,22 +5549,22 @@
         <v>41</v>
       </c>
       <c r="BB37" s="83">
-        <v>4.6024258842772</v>
+        <v>1.9481219863058</v>
       </c>
       <c r="BC37" s="83">
-        <v>0.0012144988980074</v>
+        <v>0.0013037140621581</v>
       </c>
       <c r="BD37" s="83">
-        <v>4.3259788359788</v>
+        <v>1.5869430042794</v>
       </c>
       <c r="BE37" s="83">
-        <v>0.00095084110867505</v>
+        <v>0.0011120583722169</v>
       </c>
       <c r="BF37" s="83">
-        <v>4.464202360128</v>
+        <v>1.7082991422403</v>
       </c>
       <c r="BG37" s="83">
-        <v>0.0010826700033412</v>
+        <v>0.0012078862171875</v>
       </c>
       <c r="BH37" s="20"/>
       <c r="BI37" s="20"/>
@@ -4979,12 +5585,24 @@
       <c r="D38" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
+      <c r="E38" s="83">
+        <v>200507.69162302</v>
+      </c>
+      <c r="F38" s="83">
+        <v>14.182442994639</v>
+      </c>
+      <c r="G38" s="83">
+        <v>251833.72073943</v>
+      </c>
+      <c r="H38" s="83">
+        <v>8.2479112207152</v>
+      </c>
+      <c r="I38" s="83">
+        <v>457514.18004168</v>
+      </c>
+      <c r="J38" s="83">
+        <v>10.241913896753</v>
+      </c>
       <c r="K38" s="20"/>
       <c r="L38" s="20"/>
       <c r="M38" s="20"/>
@@ -5000,22 +5618,22 @@
         <v>41</v>
       </c>
       <c r="U38" s="83">
-        <v>712.69033768859</v>
+        <v>0.15731394612751</v>
       </c>
       <c r="V38" s="83">
-        <v>60.728343674444</v>
+        <v>0.0010856304185637</v>
       </c>
       <c r="W38" s="83">
-        <v>663.24185893928</v>
+        <v>0.085489623558425</v>
       </c>
       <c r="X38" s="83">
-        <v>56.514838800216</v>
+        <v>0.00011582257626844</v>
       </c>
       <c r="Y38" s="83">
-        <v>1375.9321966279</v>
+        <v>0.10962259594164</v>
       </c>
       <c r="Z38" s="83">
-        <v>117.24318247466</v>
+        <v>0.00060072649741609</v>
       </c>
       <c r="AA38" s="20"/>
       <c r="AB38" s="20"/>
@@ -5034,12 +5652,24 @@
       <c r="AK38" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL38" s="4"/>
-      <c r="AM38" s="4"/>
-      <c r="AN38" s="22"/>
-      <c r="AO38" s="22"/>
-      <c r="AP38" s="22"/>
-      <c r="AQ38" s="22"/>
+      <c r="AL38" s="83">
+        <v>102.21539400729</v>
+      </c>
+      <c r="AM38" s="83">
+        <v>8.709773723361</v>
+      </c>
+      <c r="AN38" s="83">
+        <v>54.742994127658</v>
+      </c>
+      <c r="AO38" s="83">
+        <v>4.6646505296177</v>
+      </c>
+      <c r="AP38" s="83">
+        <v>161.69753700948</v>
+      </c>
+      <c r="AQ38" s="83">
+        <v>13.778247128578</v>
+      </c>
       <c r="AR38" s="22"/>
       <c r="AS38" s="22"/>
       <c r="AT38" s="22"/>
@@ -5055,22 +5685,22 @@
         <v>41</v>
       </c>
       <c r="BB38" s="83">
-        <v>3.0232941176471</v>
+        <v>0.42904674116659</v>
       </c>
       <c r="BC38" s="83">
-        <v>0.016748501354398</v>
+        <v>0.0046601876506926</v>
       </c>
       <c r="BD38" s="83">
-        <v>3.2401321398124</v>
+        <v>0.2673561053166</v>
       </c>
       <c r="BE38" s="83">
-        <v>0.0067047664096101</v>
+        <v>0.000528773802092</v>
       </c>
       <c r="BF38" s="83">
-        <v>3.1317131287298</v>
+        <v>0.3216841589622</v>
       </c>
       <c r="BG38" s="83">
-        <v>0.011726633882004</v>
+        <v>0.0025944807263923</v>
       </c>
       <c r="BH38" s="20"/>
       <c r="BI38" s="20"/>
@@ -5091,12 +5721,24 @@
       <c r="D39" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
+      <c r="E39" s="83">
+        <v>0</v>
+      </c>
+      <c r="F39" s="83">
+        <v>0</v>
+      </c>
+      <c r="G39" s="83">
+        <v>7352.8372980228</v>
+      </c>
+      <c r="H39" s="83">
+        <v>0.24081584100965</v>
+      </c>
+      <c r="I39" s="83">
+        <v>7142.9328866094</v>
+      </c>
+      <c r="J39" s="83">
+        <v>0.15990171843041</v>
+      </c>
       <c r="K39" s="20"/>
       <c r="L39" s="20"/>
       <c r="M39" s="20"/>
@@ -5118,16 +5760,16 @@
         <v>0</v>
       </c>
       <c r="W39" s="83">
-        <v>2865.58593156</v>
+        <v>0.0024081584100965</v>
       </c>
       <c r="X39" s="83">
-        <v>244.17657722823</v>
+        <v>0.0037754345526031</v>
       </c>
       <c r="Y39" s="83">
-        <v>2865.58593156</v>
+        <v>0.0015990171843041</v>
       </c>
       <c r="Z39" s="83">
-        <v>244.17657722823</v>
+        <v>0.0018877172763016</v>
       </c>
       <c r="AA39" s="20"/>
       <c r="AB39" s="20"/>
@@ -5146,12 +5788,24 @@
       <c r="AK39" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL39" s="4"/>
-      <c r="AM39" s="4"/>
-      <c r="AN39" s="22"/>
-      <c r="AO39" s="22"/>
-      <c r="AP39" s="22"/>
-      <c r="AQ39" s="22"/>
+      <c r="AL39" s="83">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="83">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="83">
+        <v>6.9022214990747</v>
+      </c>
+      <c r="AO39" s="83">
+        <v>0.58813829393616</v>
+      </c>
+      <c r="AP39" s="83">
+        <v>6.7051809985869</v>
+      </c>
+      <c r="AQ39" s="83">
+        <v>0.57134847288959</v>
+      </c>
       <c r="AR39" s="22"/>
       <c r="AS39" s="22"/>
       <c r="AT39" s="22"/>
@@ -5173,16 +5827,16 @@
         <v>0</v>
       </c>
       <c r="BD39" s="83">
-        <v>2</v>
+        <v>0.0048175701748023</v>
       </c>
       <c r="BE39" s="83">
-        <v>1.1180339887499</v>
+        <v>0.0067966326790536</v>
       </c>
       <c r="BF39" s="83">
-        <v>1</v>
+        <v>0.0031988665960688</v>
       </c>
       <c r="BG39" s="83">
-        <v>0.55901699437495</v>
+        <v>0.0033983163395268</v>
       </c>
       <c r="BH39" s="20"/>
       <c r="BI39" s="20"/>
@@ -5203,12 +5857,24 @@
       <c r="D40" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
+      <c r="E40" s="83">
+        <v>0</v>
+      </c>
+      <c r="F40" s="83">
+        <v>0</v>
+      </c>
+      <c r="G40" s="83">
+        <v>0</v>
+      </c>
+      <c r="H40" s="83">
+        <v>0</v>
+      </c>
+      <c r="I40" s="83">
+        <v>0</v>
+      </c>
+      <c r="J40" s="83">
+        <v>0</v>
+      </c>
       <c r="K40" s="20"/>
       <c r="L40" s="20"/>
       <c r="M40" s="20"/>
@@ -5258,12 +5924,24 @@
       <c r="AK40" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL40" s="4"/>
-      <c r="AM40" s="4"/>
-      <c r="AN40" s="22"/>
-      <c r="AO40" s="22"/>
-      <c r="AP40" s="22"/>
-      <c r="AQ40" s="22"/>
+      <c r="AL40" s="83">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="83">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="83">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="83">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="83">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="83">
+        <v>0</v>
+      </c>
       <c r="AR40" s="22"/>
       <c r="AS40" s="22"/>
       <c r="AT40" s="22"/>
@@ -5315,12 +5993,24 @@
       <c r="D41" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
+      <c r="E41" s="83">
+        <v>5058.499992817</v>
+      </c>
+      <c r="F41" s="83">
+        <v>0.35780117563465</v>
+      </c>
+      <c r="G41" s="83">
+        <v>0</v>
+      </c>
+      <c r="H41" s="83">
+        <v>0</v>
+      </c>
+      <c r="I41" s="83">
+        <v>5370.3733515617</v>
+      </c>
+      <c r="J41" s="83">
+        <v>0.12022119501324</v>
+      </c>
       <c r="K41" s="20"/>
       <c r="L41" s="20"/>
       <c r="M41" s="20"/>
@@ -5336,10 +6026,10 @@
         <v>41</v>
       </c>
       <c r="U41" s="83">
-        <v>373.7308741452</v>
+        <v>0.0035780117563465</v>
       </c>
       <c r="V41" s="83">
-        <v>31.845607785912</v>
+        <v>0.0017586884821336</v>
       </c>
       <c r="W41" s="83">
         <v>0</v>
@@ -5348,10 +6038,10 @@
         <v>0</v>
       </c>
       <c r="Y41" s="83">
-        <v>373.7308741452</v>
+        <v>0.0012022119501324</v>
       </c>
       <c r="Z41" s="83">
-        <v>31.845607785912</v>
+        <v>0.00087934424106681</v>
       </c>
       <c r="AA41" s="20"/>
       <c r="AB41" s="20"/>
@@ -5370,12 +6060,24 @@
       <c r="AK41" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL41" s="4"/>
-      <c r="AM41" s="4"/>
-      <c r="AN41" s="22"/>
-      <c r="AO41" s="22"/>
-      <c r="AP41" s="22"/>
-      <c r="AQ41" s="22"/>
+      <c r="AL41" s="83">
+        <v>2.2430532007306</v>
+      </c>
+      <c r="AM41" s="83">
+        <v>0.19113056323426</v>
+      </c>
+      <c r="AN41" s="83">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="83">
+        <v>0</v>
+      </c>
+      <c r="AP41" s="83">
+        <v>2.3813448952148</v>
+      </c>
+      <c r="AQ41" s="83">
+        <v>0.20291439852125</v>
+      </c>
       <c r="AR41" s="22"/>
       <c r="AS41" s="22"/>
       <c r="AT41" s="22"/>
@@ -5391,10 +6093,10 @@
         <v>41</v>
       </c>
       <c r="BB41" s="83">
-        <v>2.87</v>
+        <v>0.016705748982624</v>
       </c>
       <c r="BC41" s="83">
-        <v>1.9448650338777</v>
+        <v>0.013188526722053</v>
       </c>
       <c r="BD41" s="83">
         <v>0</v>
@@ -5403,10 +6105,10 @@
         <v>0</v>
       </c>
       <c r="BF41" s="83">
-        <v>1.435</v>
+        <v>0.0056131316581616</v>
       </c>
       <c r="BG41" s="83">
-        <v>0.97243251693884</v>
+        <v>0.0065942633610267</v>
       </c>
       <c r="BH41" s="20"/>
       <c r="BI41" s="20"/>
@@ -5429,12 +6131,24 @@
       <c r="D42" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
+      <c r="E42" s="83">
+        <v>192148.85444505</v>
+      </c>
+      <c r="F42" s="83">
+        <v>13.591200180867</v>
+      </c>
+      <c r="G42" s="83">
+        <v>619544.46932557</v>
+      </c>
+      <c r="H42" s="83">
+        <v>20.290959309494</v>
+      </c>
+      <c r="I42" s="83">
+        <v>805853.55429944</v>
+      </c>
+      <c r="J42" s="83">
+        <v>18.039840242276</v>
+      </c>
       <c r="K42" s="20"/>
       <c r="L42" s="20"/>
       <c r="M42" s="20"/>
@@ -5452,22 +6166,22 @@
         <v>61</v>
       </c>
       <c r="U42" s="83">
-        <v>857.8048522922</v>
+        <v>0.15617752083199</v>
       </c>
       <c r="V42" s="83">
-        <v>73.093551463818</v>
+        <v>0.0017240339118688</v>
       </c>
       <c r="W42" s="83">
-        <v>1714.9033454801</v>
+        <v>0.217961523174</v>
       </c>
       <c r="X42" s="83">
-        <v>146.12691406836</v>
+        <v>0.00013541714055491</v>
       </c>
       <c r="Y42" s="83">
-        <v>2572.7081977723</v>
+        <v>0.19720209838709</v>
       </c>
       <c r="Z42" s="83">
-        <v>219.22046553218</v>
+        <v>0.00092972552621185</v>
       </c>
       <c r="AA42" s="20"/>
       <c r="AB42" s="20"/>
@@ -5488,12 +6202,24 @@
       <c r="AK42" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL42" s="4"/>
-      <c r="AM42" s="4"/>
-      <c r="AN42" s="22"/>
-      <c r="AO42" s="22"/>
-      <c r="AP42" s="22"/>
-      <c r="AQ42" s="22"/>
+      <c r="AL42" s="83">
+        <v>116.15660681487</v>
+      </c>
+      <c r="AM42" s="83">
+        <v>9.8977044666947</v>
+      </c>
+      <c r="AN42" s="83">
+        <v>347.37042719466</v>
+      </c>
+      <c r="AO42" s="83">
+        <v>29.599434101257</v>
+      </c>
+      <c r="AP42" s="83">
+        <v>460.77195171345</v>
+      </c>
+      <c r="AQ42" s="83">
+        <v>39.262378005503</v>
+      </c>
       <c r="AR42" s="22"/>
       <c r="AS42" s="22"/>
       <c r="AT42" s="22"/>
@@ -5511,22 +6237,22 @@
         <v>61</v>
       </c>
       <c r="BB42" s="83">
-        <v>8.3828023507578</v>
+        <v>1.1445419223564</v>
       </c>
       <c r="BC42" s="83">
-        <v>0.038371239132337</v>
+        <v>0.016111954608468</v>
       </c>
       <c r="BD42" s="83">
-        <v>8.0147058823529</v>
+        <v>1.6268908624066</v>
       </c>
       <c r="BE42" s="83">
-        <v>0.0026877854762362</v>
+        <v>0.0016910221703825</v>
       </c>
       <c r="BF42" s="83">
-        <v>8.1987541165554</v>
+        <v>1.4648216185498</v>
       </c>
       <c r="BG42" s="83">
-        <v>0.020529512304286</v>
+        <v>0.0089014883894255</v>
       </c>
       <c r="BH42" s="20"/>
       <c r="BI42" s="20"/>
@@ -5545,12 +6271,24 @@
       <c r="D43" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
+      <c r="E43" s="83">
+        <v>759972.23655336</v>
+      </c>
+      <c r="F43" s="83">
+        <v>53.754860151153</v>
+      </c>
+      <c r="G43" s="83">
+        <v>1685658.0416465</v>
+      </c>
+      <c r="H43" s="83">
+        <v>55.207689562631</v>
+      </c>
+      <c r="I43" s="83">
+        <v>2444363.9358313</v>
+      </c>
+      <c r="J43" s="83">
+        <v>54.719538880375</v>
+      </c>
       <c r="K43" s="20"/>
       <c r="L43" s="20"/>
       <c r="M43" s="20"/>
@@ -5564,22 +6302,22 @@
         <v>62</v>
       </c>
       <c r="U43" s="83">
-        <v>1146.6478191025</v>
+        <v>0.64718688715199</v>
       </c>
       <c r="V43" s="83">
-        <v>97.705860665726</v>
+        <v>0.00044014888980785</v>
       </c>
       <c r="W43" s="83">
-        <v>2254.9887616767</v>
+        <v>0.62793701893088</v>
       </c>
       <c r="X43" s="83">
-        <v>192.14759238247</v>
+        <v>4.4910735340094E-5</v>
       </c>
       <c r="Y43" s="83">
-        <v>3401.6365807792</v>
+        <v>0.63440497465317</v>
       </c>
       <c r="Z43" s="83">
-        <v>289.8534530482</v>
+        <v>0.00024252981257397</v>
       </c>
       <c r="AA43" s="20"/>
       <c r="AB43" s="20"/>
@@ -5596,12 +6334,24 @@
       <c r="AK43" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL43" s="4"/>
-      <c r="AM43" s="4"/>
-      <c r="AN43" s="22"/>
-      <c r="AO43" s="22"/>
-      <c r="AP43" s="22"/>
-      <c r="AQ43" s="22"/>
+      <c r="AL43" s="83">
+        <v>616.93115111723</v>
+      </c>
+      <c r="AM43" s="83">
+        <v>52.568703386699</v>
+      </c>
+      <c r="AN43" s="83">
+        <v>1244.4456744067</v>
+      </c>
+      <c r="AO43" s="83">
+        <v>106.03921591619</v>
+      </c>
+      <c r="AP43" s="83">
+        <v>1863.8869915802</v>
+      </c>
+      <c r="AQ43" s="83">
+        <v>158.82181055255</v>
+      </c>
       <c r="AR43" s="22"/>
       <c r="AS43" s="22"/>
       <c r="AT43" s="22"/>
@@ -5615,22 +6365,22 @@
         <v>62</v>
       </c>
       <c r="BB43" s="83">
-        <v>8.3812042757456</v>
+        <v>4.4968461081325</v>
       </c>
       <c r="BC43" s="83">
-        <v>0.0074244095606329</v>
+        <v>0.0069561580885544</v>
       </c>
       <c r="BD43" s="83">
-        <v>8.1170825559701</v>
+        <v>4.4866322535722</v>
       </c>
       <c r="BE43" s="83">
-        <v>0.001737552647943</v>
+        <v>0.0016237431662355</v>
       </c>
       <c r="BF43" s="83">
-        <v>8.2491434158579</v>
+        <v>4.4900641087045</v>
       </c>
       <c r="BG43" s="83">
-        <v>0.0045809811042879</v>
+        <v>0.0042899506273949</v>
       </c>
       <c r="BH43" s="20"/>
       <c r="BI43" s="20"/>
@@ -5651,12 +6401,24 @@
       <c r="D44" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
+      <c r="E44" s="83">
+        <v>299951.76575083</v>
+      </c>
+      <c r="F44" s="83">
+        <v>21.21638718429</v>
+      </c>
+      <c r="G44" s="83">
+        <v>459542.76394795</v>
+      </c>
+      <c r="H44" s="83">
+        <v>15.050676724451</v>
+      </c>
+      <c r="I44" s="83">
+        <v>764868.80167189</v>
+      </c>
+      <c r="J44" s="83">
+        <v>17.122355438957</v>
+      </c>
       <c r="K44" s="20"/>
       <c r="L44" s="20"/>
       <c r="M44" s="20"/>
@@ -5672,22 +6434,22 @@
         <v>64</v>
       </c>
       <c r="U44" s="83">
-        <v>1309.4616034538</v>
+        <v>0.25150375944706</v>
       </c>
       <c r="V44" s="83">
-        <v>111.5792232303</v>
+        <v>0.00088591539051646</v>
       </c>
       <c r="W44" s="83">
-        <v>2533.4167623267</v>
+        <v>0.16013877420759</v>
       </c>
       <c r="X44" s="83">
-        <v>215.87244231786</v>
+        <v>0.00037876020014774</v>
       </c>
       <c r="Y44" s="83">
-        <v>3842.8783657805</v>
+        <v>0.19083740924805</v>
       </c>
       <c r="Z44" s="83">
-        <v>327.45166554815</v>
+        <v>0.0006323377953321</v>
       </c>
       <c r="AA44" s="20"/>
       <c r="AB44" s="20"/>
@@ -5706,12 +6468,24 @@
       <c r="AK44" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL44" s="4"/>
-      <c r="AM44" s="4"/>
-      <c r="AN44" s="22"/>
-      <c r="AO44" s="22"/>
-      <c r="AP44" s="22"/>
-      <c r="AQ44" s="22"/>
+      <c r="AL44" s="83">
+        <v>277.88166872634</v>
+      </c>
+      <c r="AM44" s="83">
+        <v>23.678296992172</v>
+      </c>
+      <c r="AN44" s="83">
+        <v>381.43116792309</v>
+      </c>
+      <c r="AO44" s="83">
+        <v>32.501749818727</v>
+      </c>
+      <c r="AP44" s="83">
+        <v>665.55629692448</v>
+      </c>
+      <c r="AQ44" s="83">
+        <v>56.712052060935</v>
+      </c>
       <c r="AR44" s="22"/>
       <c r="AS44" s="22"/>
       <c r="AT44" s="22"/>
@@ -5727,22 +6501,22 @@
         <v>64</v>
       </c>
       <c r="BB44" s="83">
-        <v>5.0318327028163</v>
+        <v>1.0673433240747</v>
       </c>
       <c r="BC44" s="83">
-        <v>0.017849447719443</v>
+        <v>0.0052479975910764</v>
       </c>
       <c r="BD44" s="83">
-        <v>4.5466666666667</v>
+        <v>0.68170940161021</v>
       </c>
       <c r="BE44" s="83">
-        <v>0.0078556542010519</v>
+        <v>0.0025053424270735</v>
       </c>
       <c r="BF44" s="83">
-        <v>4.7892496847415</v>
+        <v>0.81128239955827</v>
       </c>
       <c r="BG44" s="83">
-        <v>0.012852550960248</v>
+        <v>0.0038766700090749</v>
       </c>
       <c r="BH44" s="20"/>
       <c r="BI44" s="20"/>
@@ -5761,12 +6535,24 @@
       <c r="D45" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
+      <c r="E45" s="83">
+        <v>180322.04727045</v>
+      </c>
+      <c r="F45" s="83">
+        <v>12.754658613785</v>
+      </c>
+      <c r="G45" s="83">
+        <v>185635.22382889</v>
+      </c>
+      <c r="H45" s="83">
+        <v>6.0798166388627</v>
+      </c>
+      <c r="I45" s="83">
+        <v>371775.32181456</v>
+      </c>
+      <c r="J45" s="83">
+        <v>8.3225635424365</v>
+      </c>
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
       <c r="M45" s="20"/>
@@ -5780,22 +6566,22 @@
         <v>65</v>
       </c>
       <c r="U45" s="83">
-        <v>3490.9236017356</v>
+        <v>0.14304750339125</v>
       </c>
       <c r="V45" s="83">
-        <v>297.46160010389</v>
+        <v>0.00023417739760334</v>
       </c>
       <c r="W45" s="83">
-        <v>7958.5644366279</v>
+        <v>0.07403802422572</v>
       </c>
       <c r="X45" s="83">
-        <v>678.14927564506</v>
+        <v>0.00044703674123123</v>
       </c>
       <c r="Y45" s="83">
-        <v>11449.488038363</v>
+        <v>0.097225209225339</v>
       </c>
       <c r="Z45" s="83">
-        <v>975.61087574895</v>
+        <v>0.00034060706941729</v>
       </c>
       <c r="AA45" s="20"/>
       <c r="AB45" s="20"/>
@@ -5812,12 +6598,24 @@
       <c r="AK45" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL45" s="4"/>
-      <c r="AM45" s="4"/>
-      <c r="AN45" s="22"/>
-      <c r="AO45" s="22"/>
-      <c r="AP45" s="22"/>
-      <c r="AQ45" s="22"/>
+      <c r="AL45" s="83">
+        <v>445.32117847623</v>
+      </c>
+      <c r="AM45" s="83">
+        <v>37.94581761796</v>
+      </c>
+      <c r="AN45" s="83">
+        <v>495.04541478402</v>
+      </c>
+      <c r="AO45" s="83">
+        <v>42.182819793746</v>
+      </c>
+      <c r="AP45" s="83">
+        <v>953.68986481287</v>
+      </c>
+      <c r="AQ45" s="83">
+        <v>81.263913380704</v>
+      </c>
       <c r="AR45" s="22"/>
       <c r="AS45" s="22"/>
       <c r="AT45" s="22"/>
@@ -5831,22 +6629,22 @@
         <v>65</v>
       </c>
       <c r="BB45" s="83">
-        <v>4.6051219512195</v>
+        <v>0.58164853045669</v>
       </c>
       <c r="BC45" s="83">
-        <v>0.008970577811758</v>
+        <v>0.0020607458384392</v>
       </c>
       <c r="BD45" s="83">
-        <v>4.5517961570593</v>
+        <v>0.27870454195982</v>
       </c>
       <c r="BE45" s="83">
-        <v>0.0058254253796773</v>
+        <v>0.0015719760284287</v>
       </c>
       <c r="BF45" s="83">
-        <v>4.5784590541394</v>
+        <v>0.38049372209477</v>
       </c>
       <c r="BG45" s="83">
-        <v>0.0073980015957177</v>
+        <v>0.0018163609334339</v>
       </c>
       <c r="BH45" s="20"/>
       <c r="BI45" s="20"/>
@@ -5869,12 +6667,24 @@
       <c r="D46" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
+      <c r="E46" s="83">
+        <v>220767.48125759</v>
+      </c>
+      <c r="F46" s="83">
+        <v>15.615471868742</v>
+      </c>
+      <c r="G46" s="83">
+        <v>150735.07804516</v>
+      </c>
+      <c r="H46" s="83">
+        <v>4.9367874084282</v>
+      </c>
+      <c r="I46" s="83">
+        <v>380810.51415703</v>
+      </c>
+      <c r="J46" s="83">
+        <v>8.5248253870938</v>
+      </c>
       <c r="K46" s="20"/>
       <c r="L46" s="20"/>
       <c r="M46" s="20"/>
@@ -5892,22 +6702,22 @@
         <v>67</v>
       </c>
       <c r="U46" s="83">
-        <v>2234.0503829502</v>
+        <v>0.20740611071636</v>
       </c>
       <c r="V46" s="83">
-        <v>190.36343313118</v>
+        <v>0.00060958372690234</v>
       </c>
       <c r="W46" s="83">
-        <v>3805.3161751478</v>
+        <v>0.057193448901139</v>
       </c>
       <c r="X46" s="83">
-        <v>324.25099128434</v>
+        <v>0.00046355237638354</v>
       </c>
       <c r="Y46" s="83">
-        <v>6039.3665580979</v>
+        <v>0.10766490327105</v>
       </c>
       <c r="Z46" s="83">
-        <v>514.61442441553</v>
+        <v>0.00053656805164294</v>
       </c>
       <c r="AA46" s="20"/>
       <c r="AB46" s="20"/>
@@ -5928,12 +6738,24 @@
       <c r="AK46" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL46" s="4"/>
-      <c r="AM46" s="4"/>
-      <c r="AN46" s="22"/>
-      <c r="AO46" s="22"/>
-      <c r="AP46" s="22"/>
-      <c r="AQ46" s="22"/>
+      <c r="AL46" s="83">
+        <v>345.26434844346</v>
+      </c>
+      <c r="AM46" s="83">
+        <v>29.419975130867</v>
+      </c>
+      <c r="AN46" s="83">
+        <v>188.34646081688</v>
+      </c>
+      <c r="AO46" s="83">
+        <v>16.049001926206</v>
+      </c>
+      <c r="AP46" s="83">
+        <v>549.52070297892</v>
+      </c>
+      <c r="AQ46" s="83">
+        <v>46.824659100834</v>
+      </c>
       <c r="AR46" s="22"/>
       <c r="AS46" s="22"/>
       <c r="AT46" s="22"/>
@@ -5951,22 +6773,22 @@
         <v>67</v>
       </c>
       <c r="BB46" s="83">
-        <v>3.932575</v>
+        <v>0.61646834313029</v>
       </c>
       <c r="BC46" s="83">
-        <v>0.014493269894452</v>
+        <v>0.0037463940709475</v>
       </c>
       <c r="BD46" s="83">
-        <v>3.3217261904762</v>
+        <v>0.16405939508232</v>
       </c>
       <c r="BE46" s="83">
-        <v>0.015304272158698</v>
+        <v>0.0011742313957078</v>
       </c>
       <c r="BF46" s="83">
-        <v>3.6271505952381</v>
+        <v>0.31606880162644</v>
       </c>
       <c r="BG46" s="83">
-        <v>0.014898771026575</v>
+        <v>0.0024603127333277</v>
       </c>
       <c r="BH46" s="20"/>
       <c r="BI46" s="20"/>
@@ -5985,12 +6807,24 @@
       <c r="D47" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
+      <c r="E47" s="83">
+        <v>254509.08222121</v>
+      </c>
+      <c r="F47" s="83">
+        <v>18.002105161165</v>
+      </c>
+      <c r="G47" s="83">
+        <v>205890.9249588</v>
+      </c>
+      <c r="H47" s="83">
+        <v>6.7432195546529</v>
+      </c>
+      <c r="I47" s="83">
+        <v>470213.6878187</v>
+      </c>
+      <c r="J47" s="83">
+        <v>10.526205118441</v>
+      </c>
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
       <c r="M47" s="20"/>
@@ -6004,22 +6838,22 @@
         <v>68</v>
       </c>
       <c r="U47" s="83">
-        <v>3630.3368992348</v>
+        <v>0.26465429881791</v>
       </c>
       <c r="V47" s="83">
-        <v>309.34100718379</v>
+        <v>0.0003046680682475</v>
       </c>
       <c r="W47" s="83">
-        <v>9179.4911273304</v>
+        <v>0.097534175672735</v>
       </c>
       <c r="X47" s="83">
-        <v>782.18443895983</v>
+        <v>0.0011582195943201</v>
       </c>
       <c r="Y47" s="83">
-        <v>12809.828026565</v>
+        <v>0.15368653704951</v>
       </c>
       <c r="Z47" s="83">
-        <v>1091.5254461436</v>
+        <v>0.0007314438312838</v>
       </c>
       <c r="AA47" s="20"/>
       <c r="AB47" s="20"/>
@@ -6036,12 +6870,24 @@
       <c r="AK47" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL47" s="4"/>
-      <c r="AM47" s="4"/>
-      <c r="AN47" s="22"/>
-      <c r="AO47" s="22"/>
-      <c r="AP47" s="22"/>
-      <c r="AQ47" s="22"/>
+      <c r="AL47" s="83">
+        <v>649.18046418601</v>
+      </c>
+      <c r="AM47" s="83">
+        <v>55.316667353289</v>
+      </c>
+      <c r="AN47" s="83">
+        <v>628.43014204735</v>
+      </c>
+      <c r="AO47" s="83">
+        <v>53.548532403855</v>
+      </c>
+      <c r="AP47" s="83">
+        <v>1299.6946935763</v>
+      </c>
+      <c r="AQ47" s="83">
+        <v>110.74698483964</v>
+      </c>
       <c r="AR47" s="22"/>
       <c r="AS47" s="22"/>
       <c r="AT47" s="22"/>
@@ -6055,22 +6901,22 @@
         <v>68</v>
       </c>
       <c r="BB47" s="83">
-        <v>4.6978455284553</v>
+        <v>0.85005071700795</v>
       </c>
       <c r="BC47" s="83">
-        <v>0.016742413194681</v>
+        <v>0.0046595679603735</v>
       </c>
       <c r="BD47" s="83">
-        <v>3.6872580645161</v>
+        <v>0.24593396097773</v>
       </c>
       <c r="BE47" s="83">
-        <v>0.021422879345562</v>
+        <v>0.0020683419554239</v>
       </c>
       <c r="BF47" s="83">
-        <v>4.1925517964857</v>
+        <v>0.44891719100388</v>
       </c>
       <c r="BG47" s="83">
-        <v>0.019082646270122</v>
+        <v>0.0033639549578987</v>
       </c>
       <c r="BH47" s="20"/>
       <c r="BI47" s="20"/>
@@ -6089,12 +6935,24 @@
       <c r="D48" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
+      <c r="E48" s="83">
+        <v>55627.381381422</v>
+      </c>
+      <c r="F48" s="83">
+        <v>3.9346728247529</v>
+      </c>
+      <c r="G48" s="83">
+        <v>25738.757414469</v>
+      </c>
+      <c r="H48" s="83">
+        <v>0.84298077899471</v>
+      </c>
+      <c r="I48" s="83">
+        <v>84060.97729329</v>
+      </c>
+      <c r="J48" s="83">
+        <v>1.8817893063695</v>
+      </c>
       <c r="K48" s="20"/>
       <c r="L48" s="20"/>
       <c r="M48" s="20"/>
@@ -6108,22 +6966,22 @@
         <v>69</v>
       </c>
       <c r="U48" s="83">
-        <v>5377.5320939104</v>
+        <v>0.052460784187068</v>
       </c>
       <c r="V48" s="83">
-        <v>458.21950972211</v>
+        <v>0.0025011038599756</v>
       </c>
       <c r="W48" s="83">
-        <v>7878.2386555444</v>
+        <v>0.010236866613476</v>
       </c>
       <c r="X48" s="83">
-        <v>671.30471583894</v>
+        <v>0.0009907193191868</v>
       </c>
       <c r="Y48" s="83">
-        <v>13255.770749455</v>
+        <v>0.024424102918203</v>
       </c>
       <c r="Z48" s="83">
-        <v>1129.524225561</v>
+        <v>0.0017459115895812</v>
       </c>
       <c r="AA48" s="20"/>
       <c r="AB48" s="20"/>
@@ -6140,12 +6998,24 @@
       <c r="AK48" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL48" s="4"/>
-      <c r="AM48" s="4"/>
-      <c r="AN48" s="22"/>
-      <c r="AO48" s="22"/>
-      <c r="AP48" s="22"/>
-      <c r="AQ48" s="22"/>
+      <c r="AL48" s="83">
+        <v>187.83372977532</v>
+      </c>
+      <c r="AM48" s="83">
+        <v>16.005312114155</v>
+      </c>
+      <c r="AN48" s="83">
+        <v>71.538162626652</v>
+      </c>
+      <c r="AO48" s="83">
+        <v>6.095766837417</v>
+      </c>
+      <c r="AP48" s="83">
+        <v>268.91023815808</v>
+      </c>
+      <c r="AQ48" s="83">
+        <v>22.91384139345</v>
+      </c>
       <c r="AR48" s="22"/>
       <c r="AS48" s="22"/>
       <c r="AT48" s="22"/>
@@ -6159,22 +7029,22 @@
         <v>69</v>
       </c>
       <c r="BB48" s="83">
-        <v>4.15</v>
+        <v>0.17650004521672</v>
       </c>
       <c r="BC48" s="83">
-        <v>0.10076820998038</v>
+        <v>0.0036969601643713</v>
       </c>
       <c r="BD48" s="83">
-        <v>4.0555555555556</v>
+        <v>0.031909038949735</v>
       </c>
       <c r="BE48" s="83">
-        <v>0.20272318428681</v>
+        <v>0.0025873394440623</v>
       </c>
       <c r="BF48" s="83">
-        <v>4.1027777777778</v>
+        <v>0.080491617055441</v>
       </c>
       <c r="BG48" s="83">
-        <v>0.15174569713359</v>
+        <v>0.0031421498042168</v>
       </c>
       <c r="BH48" s="20"/>
       <c r="BI48" s="20"/>
@@ -6193,12 +7063,24 @@
       <c r="D49" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
+      <c r="E49" s="83">
+        <v>6742.5175184807</v>
+      </c>
+      <c r="F49" s="83">
+        <v>0.47691621988244</v>
+      </c>
+      <c r="G49" s="83">
+        <v>5515.5846913643</v>
+      </c>
+      <c r="H49" s="83">
+        <v>0.18064321462247</v>
+      </c>
+      <c r="I49" s="83">
+        <v>12516.34523292</v>
+      </c>
+      <c r="J49" s="83">
+        <v>0.28019094438982</v>
+      </c>
       <c r="K49" s="20"/>
       <c r="L49" s="20"/>
       <c r="M49" s="20"/>
@@ -6212,22 +7094,22 @@
         <v>70</v>
       </c>
       <c r="U49" s="83">
-        <v>10040.460533643</v>
+        <v>0.0083448937407144</v>
       </c>
       <c r="V49" s="83">
-        <v>855.54764207171</v>
+        <v>0.0054604570276967</v>
       </c>
       <c r="W49" s="83">
-        <v>4903.335927336</v>
+        <v>0.0018064321462247</v>
       </c>
       <c r="X49" s="83">
-        <v>417.8132543683</v>
+        <v>0.001631469422356</v>
       </c>
       <c r="Y49" s="83">
-        <v>14943.796460979</v>
+        <v>0.0040033552419733</v>
       </c>
       <c r="Z49" s="83">
-        <v>1273.36089644</v>
+        <v>0.0035459632250263</v>
       </c>
       <c r="AA49" s="20"/>
       <c r="AB49" s="20"/>
@@ -6244,12 +7126,24 @@
       <c r="AK49" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL49" s="4"/>
-      <c r="AM49" s="4"/>
-      <c r="AN49" s="22"/>
-      <c r="AO49" s="22"/>
-      <c r="AP49" s="22"/>
-      <c r="AQ49" s="22"/>
+      <c r="AL49" s="83">
+        <v>40.618092974592</v>
+      </c>
+      <c r="AM49" s="83">
+        <v>3.461067702365</v>
+      </c>
+      <c r="AN49" s="83">
+        <v>11.506974840875</v>
+      </c>
+      <c r="AO49" s="83">
+        <v>0.98050932619097</v>
+      </c>
+      <c r="AP49" s="83">
+        <v>54.30081416932</v>
+      </c>
+      <c r="AQ49" s="83">
+        <v>4.6269723753678</v>
+      </c>
       <c r="AR49" s="22"/>
       <c r="AS49" s="22"/>
       <c r="AT49" s="22"/>
@@ -6263,22 +7157,22 @@
         <v>70</v>
       </c>
       <c r="BB49" s="83">
-        <v>2</v>
+        <v>0.0095383243976487</v>
       </c>
       <c r="BC49" s="83">
-        <v>0.8124038404636</v>
+        <v>0.010261674761878</v>
       </c>
       <c r="BD49" s="83">
-        <v>6.25</v>
+        <v>0.0090290273446</v>
       </c>
       <c r="BE49" s="83">
-        <v>0.72168783648703</v>
+        <v>0.0040786735558899</v>
       </c>
       <c r="BF49" s="83">
-        <v>4.125</v>
+        <v>0.0092001511544244</v>
       </c>
       <c r="BG49" s="83">
-        <v>0.76704583847531</v>
+        <v>0.0071701741588841</v>
       </c>
       <c r="BH49" s="20"/>
       <c r="BI49" s="20"/>
@@ -6297,12 +7191,24 @@
       <c r="D50" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
+      <c r="E50" s="83">
+        <v>10107.328861895</v>
+      </c>
+      <c r="F50" s="83">
+        <v>0.71491828693237</v>
+      </c>
+      <c r="G50" s="83">
+        <v>3678.3320847059</v>
+      </c>
+      <c r="H50" s="83">
+        <v>0.12047058823529</v>
+      </c>
+      <c r="I50" s="83">
+        <v>14303.8045778</v>
+      </c>
+      <c r="J50" s="83">
+        <v>0.32020501499751</v>
+      </c>
       <c r="K50" s="20"/>
       <c r="L50" s="20"/>
       <c r="M50" s="20"/>
@@ -6316,22 +7222,22 @@
         <v>71</v>
       </c>
       <c r="U50" s="83">
-        <v>26341.760922246</v>
+        <v>0.016685227052516</v>
       </c>
       <c r="V50" s="83">
-        <v>2244.5814481846</v>
+        <v>0.00635227812928</v>
       </c>
       <c r="W50" s="83">
-        <v>29531.45501691</v>
+        <v>0.0024094117647059</v>
       </c>
       <c r="X50" s="83">
-        <v>2516.3752819909</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="83">
-        <v>55873.215939156</v>
+        <v>0.0072060857014101</v>
       </c>
       <c r="Z50" s="83">
-        <v>4760.9567301755</v>
+        <v>0.00317613906464</v>
       </c>
       <c r="AA50" s="20"/>
       <c r="AB50" s="20"/>
@@ -6348,12 +7254,24 @@
       <c r="AK50" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL50" s="4"/>
-      <c r="AM50" s="4"/>
-      <c r="AN50" s="22"/>
-      <c r="AO50" s="22"/>
-      <c r="AP50" s="22"/>
-      <c r="AQ50" s="22"/>
+      <c r="AL50" s="83">
+        <v>153.72406810837</v>
+      </c>
+      <c r="AM50" s="83">
+        <v>13.098827843514</v>
+      </c>
+      <c r="AN50" s="83">
+        <v>71.153435146625</v>
+      </c>
+      <c r="AO50" s="83">
+        <v>6.062984208844</v>
+      </c>
+      <c r="AP50" s="83">
+        <v>232.32385782628</v>
+      </c>
+      <c r="AQ50" s="83">
+        <v>19.796315925377</v>
+      </c>
       <c r="AR50" s="22"/>
       <c r="AS50" s="22"/>
       <c r="AT50" s="22"/>
@@ -6367,22 +7285,22 @@
         <v>71</v>
       </c>
       <c r="BB50" s="83">
-        <v>3.165</v>
+        <v>0.019065247723015</v>
       </c>
       <c r="BC50" s="83">
-        <v>0.13819269959814</v>
+        <v>0.00028232347241245</v>
       </c>
       <c r="BD50" s="83">
-        <v>1.75</v>
+        <v>0.0042164705882353</v>
       </c>
       <c r="BE50" s="83">
         <v>0</v>
       </c>
       <c r="BF50" s="83">
-        <v>2.4575</v>
+        <v>0.0092056597055214</v>
       </c>
       <c r="BG50" s="83">
-        <v>0.069096349799071</v>
+        <v>0.00014116173620622</v>
       </c>
       <c r="BH50" s="20"/>
       <c r="BI50" s="20"/>
@@ -6401,12 +7319,24 @@
       <c r="D51" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
+      <c r="E51" s="83">
+        <v>3374.4824671533</v>
+      </c>
+      <c r="F51" s="83">
+        <v>0.23868613138686</v>
+      </c>
+      <c r="G51" s="83">
+        <v>0</v>
+      </c>
+      <c r="H51" s="83">
+        <v>0</v>
+      </c>
+      <c r="I51" s="83">
+        <v>3582.5305411971</v>
+      </c>
+      <c r="J51" s="83">
+        <v>0.080198540145985</v>
+      </c>
       <c r="K51" s="20"/>
       <c r="L51" s="20"/>
       <c r="M51" s="20"/>
@@ -6420,10 +7350,10 @@
         <v>72</v>
       </c>
       <c r="U51" s="83">
-        <v>1008.7785034866</v>
+        <v>0.0023868613138686</v>
       </c>
       <c r="V51" s="83">
-        <v>85.958016282093</v>
+        <v>0</v>
       </c>
       <c r="W51" s="83">
         <v>0</v>
@@ -6432,10 +7362,10 @@
         <v>0</v>
       </c>
       <c r="Y51" s="83">
-        <v>1008.7785034866</v>
+        <v>0.00080198540145985</v>
       </c>
       <c r="Z51" s="83">
-        <v>85.958016282093</v>
+        <v>0</v>
       </c>
       <c r="AA51" s="20"/>
       <c r="AB51" s="20"/>
@@ -6452,12 +7382,24 @@
       <c r="AK51" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL51" s="4"/>
-      <c r="AM51" s="4"/>
-      <c r="AN51" s="22"/>
-      <c r="AO51" s="22"/>
-      <c r="AP51" s="22"/>
-      <c r="AQ51" s="22"/>
+      <c r="AL51" s="83">
+        <v>7.0818070124542</v>
+      </c>
+      <c r="AM51" s="83">
+        <v>0.60344077553123</v>
+      </c>
+      <c r="AN51" s="83">
+        <v>0</v>
+      </c>
+      <c r="AO51" s="83">
+        <v>0</v>
+      </c>
+      <c r="AP51" s="83">
+        <v>7.5184239823251</v>
+      </c>
+      <c r="AQ51" s="83">
+        <v>0.64064490753392</v>
+      </c>
       <c r="AR51" s="22"/>
       <c r="AS51" s="22"/>
       <c r="AT51" s="22"/>
@@ -6471,7 +7413,7 @@
         <v>72</v>
       </c>
       <c r="BB51" s="83">
-        <v>2.55</v>
+        <v>0.017901459854015</v>
       </c>
       <c r="BC51" s="83">
         <v>0</v>
@@ -6483,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="BF51" s="83">
-        <v>1.275</v>
+        <v>0.0060148905109489</v>
       </c>
       <c r="BG51" s="83">
         <v>0</v>
@@ -6507,12 +7449,24 @@
       <c r="D52" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
+      <c r="E52" s="83">
+        <v>11794.570095472</v>
+      </c>
+      <c r="F52" s="83">
+        <v>0.8342613526258</v>
+      </c>
+      <c r="G52" s="83">
+        <v>0</v>
+      </c>
+      <c r="H52" s="83">
+        <v>0</v>
+      </c>
+      <c r="I52" s="83">
+        <v>12521.74459302</v>
+      </c>
+      <c r="J52" s="83">
+        <v>0.28031181448227</v>
+      </c>
       <c r="K52" s="20"/>
       <c r="L52" s="20"/>
       <c r="M52" s="20"/>
@@ -6528,10 +7482,10 @@
         <v>69</v>
       </c>
       <c r="U52" s="83">
-        <v>4671.2820987685</v>
+        <v>0.013111775725082</v>
       </c>
       <c r="V52" s="83">
-        <v>398.03994763606</v>
+        <v>0.010859017248463</v>
       </c>
       <c r="W52" s="83">
         <v>0</v>
@@ -6540,10 +7494,10 @@
         <v>0</v>
       </c>
       <c r="Y52" s="83">
-        <v>4671.2820987685</v>
+        <v>0.0044055566436277</v>
       </c>
       <c r="Z52" s="83">
-        <v>398.03994763606</v>
+        <v>0.0054295086242313</v>
       </c>
       <c r="AA52" s="20"/>
       <c r="AB52" s="20"/>
@@ -6562,12 +7516,24 @@
       <c r="AK52" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL52" s="4"/>
-      <c r="AM52" s="4"/>
-      <c r="AN52" s="22"/>
-      <c r="AO52" s="22"/>
-      <c r="AP52" s="22"/>
-      <c r="AQ52" s="22"/>
+      <c r="AL52" s="83">
+        <v>39.350861812355</v>
+      </c>
+      <c r="AM52" s="83">
+        <v>3.3530869350308</v>
+      </c>
+      <c r="AN52" s="83">
+        <v>0</v>
+      </c>
+      <c r="AO52" s="83">
+        <v>0</v>
+      </c>
+      <c r="AP52" s="83">
+        <v>41.776973398862</v>
+      </c>
+      <c r="AQ52" s="83">
+        <v>3.559815903317</v>
+      </c>
       <c r="AR52" s="22"/>
       <c r="AS52" s="22"/>
       <c r="AT52" s="22"/>
@@ -6583,10 +7549,10 @@
         <v>69</v>
       </c>
       <c r="BB52" s="83">
-        <v>5.854</v>
+        <v>0.04294754214844</v>
       </c>
       <c r="BC52" s="83">
-        <v>5.0545857538336</v>
+        <v>0.078230635589189</v>
       </c>
       <c r="BD52" s="83">
         <v>0</v>
@@ -6595,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="BF52" s="83">
-        <v>2.927</v>
+        <v>0.014430374161876</v>
       </c>
       <c r="BG52" s="83">
-        <v>2.5272928769168</v>
+        <v>0.039115317794594</v>
       </c>
       <c r="BH52" s="20"/>
       <c r="BI52" s="20"/>
@@ -6617,12 +7583,24 @@
       <c r="D53" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
+      <c r="E53" s="83">
+        <v>1687.2412335766</v>
+      </c>
+      <c r="F53" s="83">
+        <v>0.11934306569343</v>
+      </c>
+      <c r="G53" s="83">
+        <v>3674.5052133169</v>
+      </c>
+      <c r="H53" s="83">
+        <v>0.12034525277435</v>
+      </c>
+      <c r="I53" s="83">
+        <v>5360.8729018291</v>
+      </c>
+      <c r="J53" s="83">
+        <v>0.12000851791516</v>
+      </c>
       <c r="K53" s="20"/>
       <c r="L53" s="20"/>
       <c r="M53" s="20"/>
@@ -6636,22 +7614,22 @@
         <v>70</v>
       </c>
       <c r="U53" s="83">
-        <v>2456.1563563152</v>
+        <v>0.0011934306569343</v>
       </c>
       <c r="V53" s="83">
-        <v>209.28908312162</v>
+        <v>0</v>
       </c>
       <c r="W53" s="83">
-        <v>2159.1393998212</v>
+        <v>0.0012034525277435</v>
       </c>
       <c r="X53" s="83">
-        <v>183.98026825877</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="83">
-        <v>4615.2957561365</v>
+        <v>0.0012000851791516</v>
       </c>
       <c r="Z53" s="83">
-        <v>393.26935138039</v>
+        <v>0</v>
       </c>
       <c r="AA53" s="20"/>
       <c r="AB53" s="20"/>
@@ -6668,12 +7646,24 @@
       <c r="AK53" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL53" s="4"/>
-      <c r="AM53" s="4"/>
-      <c r="AN53" s="22"/>
-      <c r="AO53" s="22"/>
-      <c r="AP53" s="22"/>
-      <c r="AQ53" s="22"/>
+      <c r="AL53" s="83">
+        <v>8.6213302760312</v>
+      </c>
+      <c r="AM53" s="83">
+        <v>0.73462355282062</v>
+      </c>
+      <c r="AN53" s="83">
+        <v>5.196843536931</v>
+      </c>
+      <c r="AO53" s="83">
+        <v>0.44282303778189</v>
+      </c>
+      <c r="AP53" s="83">
+        <v>14.201351127313</v>
+      </c>
+      <c r="AQ53" s="83">
+        <v>1.2100971295583</v>
+      </c>
       <c r="AR53" s="22"/>
       <c r="AS53" s="22"/>
       <c r="AT53" s="22"/>
@@ -6687,19 +7677,19 @@
         <v>70</v>
       </c>
       <c r="BB53" s="83">
-        <v>1.7</v>
+        <v>0.0059671532846715</v>
       </c>
       <c r="BC53" s="83">
         <v>0</v>
       </c>
       <c r="BD53" s="83">
-        <v>5.25</v>
+        <v>0.012636251541307</v>
       </c>
       <c r="BE53" s="83">
         <v>0</v>
       </c>
       <c r="BF53" s="83">
-        <v>3.475</v>
+        <v>0.010395434527078</v>
       </c>
       <c r="BG53" s="83">
         <v>0</v>
@@ -6721,12 +7711,24 @@
       <c r="D54" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
+      <c r="E54" s="83">
+        <v>3374.4824671533</v>
+      </c>
+      <c r="F54" s="83">
+        <v>0.23868613138686</v>
+      </c>
+      <c r="G54" s="83">
+        <v>0</v>
+      </c>
+      <c r="H54" s="83">
+        <v>0</v>
+      </c>
+      <c r="I54" s="83">
+        <v>3582.5305411971</v>
+      </c>
+      <c r="J54" s="83">
+        <v>0.080198540145985</v>
+      </c>
       <c r="K54" s="20"/>
       <c r="L54" s="20"/>
       <c r="M54" s="20"/>
@@ -6740,10 +7742,10 @@
         <v>71</v>
       </c>
       <c r="U54" s="83">
-        <v>6035.1270469459</v>
+        <v>0.0059671532846715</v>
       </c>
       <c r="V54" s="83">
-        <v>514.25317567026</v>
+        <v>0</v>
       </c>
       <c r="W54" s="83">
         <v>0</v>
@@ -6752,10 +7754,10 @@
         <v>0</v>
       </c>
       <c r="Y54" s="83">
-        <v>6035.1270469459</v>
+        <v>0.0020049635036496</v>
       </c>
       <c r="Z54" s="83">
-        <v>514.25317567026</v>
+        <v>0</v>
       </c>
       <c r="AA54" s="20"/>
       <c r="AB54" s="20"/>
@@ -6772,12 +7774,24 @@
       <c r="AK54" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL54" s="4"/>
-      <c r="AM54" s="4"/>
-      <c r="AN54" s="22"/>
-      <c r="AO54" s="22"/>
-      <c r="AP54" s="22"/>
-      <c r="AQ54" s="22"/>
+      <c r="AL54" s="83">
+        <v>42.367680213639</v>
+      </c>
+      <c r="AM54" s="83">
+        <v>3.6101500310042</v>
+      </c>
+      <c r="AN54" s="83">
+        <v>0</v>
+      </c>
+      <c r="AO54" s="83">
+        <v>0</v>
+      </c>
+      <c r="AP54" s="83">
+        <v>44.979788694258</v>
+      </c>
+      <c r="AQ54" s="83">
+        <v>3.8327277946377</v>
+      </c>
       <c r="AR54" s="22"/>
       <c r="AS54" s="22"/>
       <c r="AT54" s="22"/>
@@ -6791,7 +7805,7 @@
         <v>71</v>
       </c>
       <c r="BB54" s="83">
-        <v>2.04</v>
+        <v>0.014321167883212</v>
       </c>
       <c r="BC54" s="83">
         <v>0</v>
@@ -6803,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="BF54" s="83">
-        <v>1.02</v>
+        <v>0.0048119124087591</v>
       </c>
       <c r="BG54" s="83">
         <v>0</v>
@@ -6825,12 +7839,24 @@
       <c r="D55" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
+      <c r="E55" s="83">
+        <v>1684.0175256637</v>
+      </c>
+      <c r="F55" s="83">
+        <v>0.11911504424779</v>
+      </c>
+      <c r="G55" s="83">
+        <v>0</v>
+      </c>
+      <c r="H55" s="83">
+        <v>0</v>
+      </c>
+      <c r="I55" s="83">
+        <v>1787.8428103646</v>
+      </c>
+      <c r="J55" s="83">
+        <v>0.040022654867257</v>
+      </c>
       <c r="K55" s="20"/>
       <c r="L55" s="20"/>
       <c r="M55" s="20"/>
@@ -6844,10 +7870,10 @@
         <v>72</v>
       </c>
       <c r="U55" s="83">
-        <v>671.38871828688</v>
+        <v>0.0011911504424779</v>
       </c>
       <c r="V55" s="83">
-        <v>57.209032685225</v>
+        <v>0</v>
       </c>
       <c r="W55" s="83">
         <v>0</v>
@@ -6856,10 +7882,10 @@
         <v>0</v>
       </c>
       <c r="Y55" s="83">
-        <v>671.38871828688</v>
+        <v>0.00040022654867257</v>
       </c>
       <c r="Z55" s="83">
-        <v>57.209032685225</v>
+        <v>0</v>
       </c>
       <c r="AA55" s="20"/>
       <c r="AB55" s="20"/>
@@ -6876,12 +7902,24 @@
       <c r="AK55" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL55" s="4"/>
-      <c r="AM55" s="4"/>
-      <c r="AN55" s="22"/>
-      <c r="AO55" s="22"/>
-      <c r="AP55" s="22"/>
-      <c r="AQ55" s="22"/>
+      <c r="AL55" s="83">
+        <v>1.2117044982759</v>
+      </c>
+      <c r="AM55" s="83">
+        <v>0.10324934029809</v>
+      </c>
+      <c r="AN55" s="83">
+        <v>0</v>
+      </c>
+      <c r="AO55" s="83">
+        <v>0</v>
+      </c>
+      <c r="AP55" s="83">
+        <v>1.2864101130273</v>
+      </c>
+      <c r="AQ55" s="83">
+        <v>0.10961500573105</v>
+      </c>
       <c r="AR55" s="22"/>
       <c r="AS55" s="22"/>
       <c r="AT55" s="22"/>
@@ -6895,7 +7933,7 @@
         <v>72</v>
       </c>
       <c r="BB55" s="83">
-        <v>1.32</v>
+        <v>0.0023823008849558</v>
       </c>
       <c r="BC55" s="83">
         <v>0</v>
@@ -6907,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="BF55" s="83">
-        <v>0.66</v>
+        <v>0.00080045309734513</v>
       </c>
       <c r="BG55" s="83">
         <v>0</v>
@@ -6929,12 +7967,24 @@
       <c r="D56" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
+      <c r="E56" s="83">
+        <v>6736.0701026549</v>
+      </c>
+      <c r="F56" s="83">
+        <v>0.47646017699115</v>
+      </c>
+      <c r="G56" s="83">
+        <v>0</v>
+      </c>
+      <c r="H56" s="83">
+        <v>0</v>
+      </c>
+      <c r="I56" s="83">
+        <v>7151.3712414584</v>
+      </c>
+      <c r="J56" s="83">
+        <v>0.16009061946903</v>
+      </c>
       <c r="K56" s="20"/>
       <c r="L56" s="20"/>
       <c r="M56" s="20"/>
@@ -6948,10 +7998,10 @@
         <v>74</v>
       </c>
       <c r="U56" s="83">
-        <v>6093.5823887994</v>
+        <v>0.0071469026548673</v>
       </c>
       <c r="V56" s="83">
-        <v>519.2341553496</v>
+        <v>0</v>
       </c>
       <c r="W56" s="83">
         <v>0</v>
@@ -6960,10 +8010,10 @@
         <v>0</v>
       </c>
       <c r="Y56" s="83">
-        <v>6093.5823887994</v>
+        <v>0.0024013592920354</v>
       </c>
       <c r="Z56" s="83">
-        <v>519.2341553496</v>
+        <v>0</v>
       </c>
       <c r="AA56" s="20"/>
       <c r="AB56" s="20"/>
@@ -6980,12 +8030,24 @@
       <c r="AK56" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL56" s="4"/>
-      <c r="AM56" s="4"/>
-      <c r="AN56" s="22"/>
-      <c r="AO56" s="22"/>
-      <c r="AP56" s="22"/>
-      <c r="AQ56" s="22"/>
+      <c r="AL56" s="83">
+        <v>43.990141567841</v>
+      </c>
+      <c r="AM56" s="83">
+        <v>3.7483999629957</v>
+      </c>
+      <c r="AN56" s="83">
+        <v>0</v>
+      </c>
+      <c r="AO56" s="83">
+        <v>0</v>
+      </c>
+      <c r="AP56" s="83">
+        <v>46.702280190338</v>
+      </c>
+      <c r="AQ56" s="83">
+        <v>3.9795012950187</v>
+      </c>
       <c r="AR56" s="22"/>
       <c r="AS56" s="22"/>
       <c r="AT56" s="22"/>
@@ -6999,7 +8061,7 @@
         <v>74</v>
       </c>
       <c r="BB56" s="83">
-        <v>3.96</v>
+        <v>0.028587610619469</v>
       </c>
       <c r="BC56" s="83">
         <v>0</v>
@@ -7011,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="BF56" s="83">
-        <v>1.98</v>
+        <v>0.0096054371681416</v>
       </c>
       <c r="BG56" s="83">
         <v>0</v>
@@ -7033,12 +8095,24 @@
       <c r="D57" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
+      <c r="E57" s="83">
+        <v>0</v>
+      </c>
+      <c r="F57" s="83">
+        <v>0</v>
+      </c>
+      <c r="G57" s="83">
+        <v>0</v>
+      </c>
+      <c r="H57" s="83">
+        <v>0</v>
+      </c>
+      <c r="I57" s="83">
+        <v>0</v>
+      </c>
+      <c r="J57" s="83">
+        <v>0</v>
+      </c>
       <c r="K57" s="20"/>
       <c r="L57" s="20"/>
       <c r="M57" s="20"/>
@@ -7084,12 +8158,24 @@
       <c r="AK57" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL57" s="15"/>
-      <c r="AM57" s="15"/>
-      <c r="AN57" s="15"/>
-      <c r="AO57" s="15"/>
-      <c r="AP57" s="15"/>
-      <c r="AQ57" s="15"/>
+      <c r="AL57" s="83">
+        <v>0</v>
+      </c>
+      <c r="AM57" s="83">
+        <v>0</v>
+      </c>
+      <c r="AN57" s="83">
+        <v>0</v>
+      </c>
+      <c r="AO57" s="83">
+        <v>0</v>
+      </c>
+      <c r="AP57" s="83">
+        <v>0</v>
+      </c>
+      <c r="AQ57" s="83">
+        <v>0</v>
+      </c>
       <c r="AR57" s="15"/>
       <c r="AS57" s="15"/>
       <c r="AT57" s="15"/>
@@ -7137,12 +8223,24 @@
       <c r="D58" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
+      <c r="E58" s="83">
+        <v>1687.2412335766</v>
+      </c>
+      <c r="F58" s="83">
+        <v>0.11934306569343</v>
+      </c>
+      <c r="G58" s="83">
+        <v>0</v>
+      </c>
+      <c r="H58" s="83">
+        <v>0</v>
+      </c>
+      <c r="I58" s="83">
+        <v>1791.2652705985</v>
+      </c>
+      <c r="J58" s="83">
+        <v>0.040099270072993</v>
+      </c>
       <c r="K58" s="20"/>
       <c r="L58" s="20"/>
       <c r="M58" s="20"/>
@@ -7156,10 +8254,10 @@
         <v>76</v>
       </c>
       <c r="U58" s="83">
-        <v>33473.902341781</v>
+        <v>0.0035802919708029</v>
       </c>
       <c r="V58" s="83">
-        <v>2852.3112185432</v>
+        <v>0</v>
       </c>
       <c r="W58" s="83">
         <v>0</v>
@@ -7168,10 +8266,10 @@
         <v>0</v>
       </c>
       <c r="Y58" s="83">
-        <v>33473.902341781</v>
+        <v>0.0012029781021898</v>
       </c>
       <c r="Z58" s="83">
-        <v>2852.3112185432</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
@@ -7188,12 +8286,24 @@
       <c r="AK58" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL58" s="16"/>
-      <c r="AM58" s="16"/>
-      <c r="AN58" s="16"/>
-      <c r="AO58" s="16"/>
-      <c r="AP58" s="16"/>
-      <c r="AQ58" s="16"/>
+      <c r="AL58" s="84">
+        <v>117.4964154762</v>
+      </c>
+      <c r="AM58" s="84">
+        <v>10.011869562727</v>
+      </c>
+      <c r="AN58" s="84">
+        <v>0</v>
+      </c>
+      <c r="AO58" s="84">
+        <v>0</v>
+      </c>
+      <c r="AP58" s="84">
+        <v>124.74046050675</v>
+      </c>
+      <c r="AQ58" s="84">
+        <v>10.62913463978</v>
+      </c>
       <c r="AR58" s="16"/>
       <c r="AS58" s="16"/>
       <c r="AT58" s="16"/>
@@ -7207,7 +8317,7 @@
         <v>76</v>
       </c>
       <c r="BB58" s="83">
-        <v>0.68</v>
+        <v>0.0023868613138686</v>
       </c>
       <c r="BC58" s="83">
         <v>0</v>
@@ -7219,7 +8329,7 @@
         <v>0</v>
       </c>
       <c r="BF58" s="83">
-        <v>0.34</v>
+        <v>0.00080198540145985</v>
       </c>
       <c r="BG58" s="83">
         <v>0</v>
@@ -7245,12 +8355,24 @@
       <c r="D59" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
+      <c r="E59" s="83">
+        <v>5055.2762849041</v>
+      </c>
+      <c r="F59" s="83">
+        <v>0.35757315418901</v>
+      </c>
+      <c r="G59" s="83">
+        <v>1837.2526066584</v>
+      </c>
+      <c r="H59" s="83">
+        <v>0.060172626387176</v>
+      </c>
+      <c r="I59" s="83">
+        <v>7151.754706943</v>
+      </c>
+      <c r="J59" s="83">
+        <v>0.16009920372859</v>
+      </c>
       <c r="K59" s="20"/>
       <c r="L59" s="20"/>
       <c r="M59" s="20"/>
@@ -7268,22 +8390,22 @@
         <v>79</v>
       </c>
       <c r="U59" s="83">
-        <v>246.2053490424</v>
+        <v>0.0035757315418901</v>
       </c>
       <c r="V59" s="83">
-        <v>20.979157791903</v>
+        <v>0.0031478375067946</v>
       </c>
       <c r="W59" s="83">
-        <v>318.39843684</v>
+        <v>0.00060172626387176</v>
       </c>
       <c r="X59" s="83">
-        <v>27.130730803136</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="83">
-        <v>564.6037858824</v>
+        <v>0.0016009920372859</v>
       </c>
       <c r="Z59" s="83">
-        <v>48.109888595039</v>
+        <v>0.0015739187533973</v>
       </c>
       <c r="AA59" s="20"/>
       <c r="AB59" s="20"/>
@@ -7304,12 +8426,24 @@
       <c r="AK59" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL59" s="16"/>
-      <c r="AM59" s="16"/>
-      <c r="AN59" s="16"/>
-      <c r="AO59" s="16"/>
-      <c r="AP59" s="16"/>
-      <c r="AQ59" s="16"/>
+      <c r="AL59" s="84">
+        <v>0.87871907440338</v>
+      </c>
+      <c r="AM59" s="84">
+        <v>0.074875652329912</v>
+      </c>
+      <c r="AN59" s="84">
+        <v>0.38317740364469</v>
+      </c>
+      <c r="AO59" s="84">
+        <v>0.032650546564564</v>
+      </c>
+      <c r="AP59" s="84">
+        <v>1.3051337134152</v>
+      </c>
+      <c r="AQ59" s="84">
+        <v>0.11121044372011</v>
+      </c>
       <c r="AR59" s="16"/>
       <c r="AS59" s="16"/>
       <c r="AT59" s="16"/>
@@ -7327,22 +8461,22 @@
         <v>79</v>
       </c>
       <c r="BB59" s="83">
-        <v>11.42</v>
+        <v>0.040544719333376</v>
       </c>
       <c r="BC59" s="83">
-        <v>0.46904157598234</v>
+        <v>0.017686382862137</v>
       </c>
       <c r="BD59" s="83">
-        <v>1.5</v>
+        <v>0.0018051787916153</v>
       </c>
       <c r="BE59" s="83">
         <v>0</v>
       </c>
       <c r="BF59" s="83">
-        <v>6.46</v>
+        <v>0.014821664413647</v>
       </c>
       <c r="BG59" s="83">
-        <v>0.23452078799117</v>
+        <v>0.0088431914310685</v>
       </c>
       <c r="BH59" s="20"/>
       <c r="BI59" s="20"/>
@@ -7361,12 +8495,24 @@
       <c r="D60" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
+      <c r="E60" s="83">
+        <v>15156.157730973</v>
+      </c>
+      <c r="F60" s="83">
+        <v>1.0720353982301</v>
+      </c>
+      <c r="G60" s="83">
+        <v>20217.432416021</v>
+      </c>
+      <c r="H60" s="83">
+        <v>0.66214956118082</v>
+      </c>
+      <c r="I60" s="83">
+        <v>35730.862513346</v>
+      </c>
+      <c r="J60" s="83">
+        <v>0.79987120242938</v>
+      </c>
       <c r="K60" s="20"/>
       <c r="L60" s="20"/>
       <c r="M60" s="20"/>
@@ -7380,22 +8526,22 @@
         <v>80</v>
       </c>
       <c r="U60" s="83">
-        <v>618.41279687616</v>
+        <v>0.011911504424779</v>
       </c>
       <c r="V60" s="83">
-        <v>52.694954421818</v>
+        <v>0</v>
       </c>
       <c r="W60" s="83">
-        <v>1150.7829217217</v>
+        <v>0.0066214956118082</v>
       </c>
       <c r="X60" s="83">
-        <v>98.058212759907</v>
+        <v>0.0011505180760626</v>
       </c>
       <c r="Y60" s="83">
-        <v>1769.1957185979</v>
+        <v>0.0083989385729663</v>
       </c>
       <c r="Z60" s="83">
-        <v>150.75316718172</v>
+        <v>0.00057525903803132</v>
       </c>
       <c r="AA60" s="20"/>
       <c r="AB60" s="20"/>
@@ -7412,12 +8558,24 @@
       <c r="AK60" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL60" s="4"/>
-      <c r="AM60" s="4"/>
-      <c r="AN60" s="22"/>
-      <c r="AO60" s="22"/>
-      <c r="AP60" s="22"/>
-      <c r="AQ60" s="22"/>
+      <c r="AL60" s="83">
+        <v>10.044854681359</v>
+      </c>
+      <c r="AM60" s="83">
+        <v>0.85592206739863</v>
+      </c>
+      <c r="AN60" s="83">
+        <v>7.8002940007491</v>
+      </c>
+      <c r="AO60" s="83">
+        <v>0.66466305180383</v>
+      </c>
+      <c r="AP60" s="83">
+        <v>18.241769263152</v>
+      </c>
+      <c r="AQ60" s="83">
+        <v>1.5543811589132</v>
+      </c>
       <c r="AR60" s="22"/>
       <c r="AS60" s="22"/>
       <c r="AT60" s="22"/>
@@ -7431,22 +8589,22 @@
         <v>80</v>
       </c>
       <c r="BB60" s="83">
-        <v>3.5933333333333</v>
+        <v>0.058366371681416</v>
       </c>
       <c r="BC60" s="83">
         <v>0</v>
       </c>
       <c r="BD60" s="83">
-        <v>4.9107142857143</v>
+        <v>0.030101980126206</v>
       </c>
       <c r="BE60" s="83">
-        <v>1.5926107564566</v>
+        <v>0.0095099122160236</v>
       </c>
       <c r="BF60" s="83">
-        <v>4.2520238095238</v>
+        <v>0.039598815688756</v>
       </c>
       <c r="BG60" s="83">
-        <v>0.79630537822829</v>
+        <v>0.0047549561080118</v>
       </c>
       <c r="BH60" s="20"/>
       <c r="BI60" s="20"/>
@@ -7465,12 +8623,24 @@
       <c r="D61" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
+      <c r="E61" s="83">
+        <v>11791.346387559</v>
+      </c>
+      <c r="F61" s="83">
+        <v>0.83403333118016</v>
+      </c>
+      <c r="G61" s="83">
+        <v>16541.01376701</v>
+      </c>
+      <c r="H61" s="83">
+        <v>0.541741640676</v>
+      </c>
+      <c r="I61" s="83">
+        <v>28587.132909546</v>
+      </c>
+      <c r="J61" s="83">
+        <v>0.6399516486854</v>
+      </c>
       <c r="K61" s="20"/>
       <c r="L61" s="20"/>
       <c r="M61" s="20"/>
@@ -7484,22 +8654,22 @@
         <v>81</v>
       </c>
       <c r="U61" s="83">
-        <v>714.36408310476</v>
+        <v>0.0083403333118016</v>
       </c>
       <c r="V61" s="83">
-        <v>60.870963521357</v>
+        <v>0.00060883670740576</v>
       </c>
       <c r="W61" s="83">
-        <v>1546.885738981</v>
+        <v>0.00541741640676</v>
       </c>
       <c r="X61" s="83">
-        <v>131.81013381857</v>
+        <v>0.0020202701911874</v>
       </c>
       <c r="Y61" s="83">
-        <v>2261.2498220858</v>
+        <v>0.006399516486854</v>
       </c>
       <c r="Z61" s="83">
-        <v>192.68109733993</v>
+        <v>0.0013145534492966</v>
       </c>
       <c r="AA61" s="20"/>
       <c r="AB61" s="20"/>
@@ -7516,12 +8686,24 @@
       <c r="AK61" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL61" s="16"/>
-      <c r="AM61" s="16"/>
-      <c r="AN61" s="16"/>
-      <c r="AO61" s="16"/>
-      <c r="AP61" s="16"/>
-      <c r="AQ61" s="16"/>
+      <c r="AL61" s="84">
+        <v>5.3144014747041</v>
+      </c>
+      <c r="AM61" s="84">
+        <v>0.45284014965953</v>
+      </c>
+      <c r="AN61" s="84">
+        <v>9.2748685456362</v>
+      </c>
+      <c r="AO61" s="84">
+        <v>0.79031154877366</v>
+      </c>
+      <c r="AP61" s="84">
+        <v>14.652147144551</v>
+      </c>
+      <c r="AQ61" s="84">
+        <v>1.2485094581872</v>
+      </c>
       <c r="AR61" s="16"/>
       <c r="AS61" s="16"/>
       <c r="AT61" s="16"/>
@@ -7535,22 +8717,22 @@
         <v>81</v>
       </c>
       <c r="BB61" s="83">
-        <v>2.88</v>
+        <v>0.026209870163426</v>
       </c>
       <c r="BC61" s="83">
-        <v>0.18687063686046</v>
+        <v>0.0020294556913525</v>
       </c>
       <c r="BD61" s="83">
-        <v>5.75</v>
+        <v>0.031901518822079</v>
       </c>
       <c r="BE61" s="83">
-        <v>1.2699792211773</v>
+        <v>0.010656763162954</v>
       </c>
       <c r="BF61" s="83">
-        <v>4.315</v>
+        <v>0.029989124872771</v>
       </c>
       <c r="BG61" s="83">
-        <v>0.72842492901891</v>
+        <v>0.0063431094271533</v>
       </c>
       <c r="BH61" s="20"/>
       <c r="BI61" s="20"/>
@@ -7569,12 +8751,24 @@
       <c r="D62" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
+      <c r="E62" s="83">
+        <v>5061.7237007299</v>
+      </c>
+      <c r="F62" s="83">
+        <v>0.35802919708029</v>
+      </c>
+      <c r="G62" s="83">
+        <v>18376.352937973</v>
+      </c>
+      <c r="H62" s="83">
+        <v>0.6018515993327</v>
+      </c>
+      <c r="I62" s="83">
+        <v>23225.551592097</v>
+      </c>
+      <c r="J62" s="83">
+        <v>0.51992727217589</v>
+      </c>
       <c r="K62" s="20"/>
       <c r="L62" s="20"/>
       <c r="M62" s="20"/>
@@ -7588,22 +8782,22 @@
         <v>82</v>
       </c>
       <c r="U62" s="83">
-        <v>153.71862910272</v>
+        <v>0.0035802919708029</v>
       </c>
       <c r="V62" s="83">
-        <v>13.098364385843</v>
+        <v>0</v>
       </c>
       <c r="W62" s="83">
-        <v>5435.1608163703</v>
+        <v>0.006018515993327</v>
       </c>
       <c r="X62" s="83">
-        <v>463.13005316291</v>
+        <v>0.0043783362422242</v>
       </c>
       <c r="Y62" s="83">
-        <v>5588.879445473</v>
+        <v>0.0051992727217589</v>
       </c>
       <c r="Z62" s="83">
-        <v>476.22841754876</v>
+        <v>0.0021891681211121</v>
       </c>
       <c r="AA62" s="20"/>
       <c r="AB62" s="20"/>
@@ -7620,12 +8814,24 @@
       <c r="AK62" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL62" s="4"/>
-      <c r="AM62" s="4"/>
-      <c r="AN62" s="22"/>
-      <c r="AO62" s="22"/>
-      <c r="AP62" s="22"/>
-      <c r="AQ62" s="22"/>
+      <c r="AL62" s="83">
+        <v>1.6186987457038</v>
+      </c>
+      <c r="AM62" s="83">
+        <v>0.13792932012142</v>
+      </c>
+      <c r="AN62" s="83">
+        <v>46.380900160962</v>
+      </c>
+      <c r="AO62" s="83">
+        <v>3.9521165027156</v>
+      </c>
+      <c r="AP62" s="83">
+        <v>46.775342810993</v>
+      </c>
+      <c r="AQ62" s="83">
+        <v>3.9857269609247</v>
+      </c>
       <c r="AR62" s="22"/>
       <c r="AS62" s="22"/>
       <c r="AT62" s="22"/>
@@ -7639,22 +8845,22 @@
         <v>82</v>
       </c>
       <c r="BB62" s="83">
-        <v>0.79333333333333</v>
+        <v>0.0083540145985401</v>
       </c>
       <c r="BC62" s="83">
         <v>0</v>
       </c>
       <c r="BD62" s="83">
-        <v>3.125</v>
+        <v>0.022868104736346</v>
       </c>
       <c r="BE62" s="83">
-        <v>1.2685521952256</v>
+        <v>0.0088491659052895</v>
       </c>
       <c r="BF62" s="83">
-        <v>1.9591666666667</v>
+        <v>0.017991370450043</v>
       </c>
       <c r="BG62" s="83">
-        <v>0.63427609761279</v>
+        <v>0.0044245829526447</v>
       </c>
       <c r="BH62" s="20"/>
       <c r="BI62" s="20"/>
@@ -7675,12 +8881,24 @@
       <c r="D63" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
+      <c r="E63" s="83">
+        <v>57295.280367521</v>
+      </c>
+      <c r="F63" s="83">
+        <v>4.0526477617725</v>
+      </c>
+      <c r="G63" s="83">
+        <v>113967.06468366</v>
+      </c>
+      <c r="H63" s="83">
+        <v>3.7325828679191</v>
+      </c>
+      <c r="I63" s="83">
+        <v>171541.32600558</v>
+      </c>
+      <c r="J63" s="83">
+        <v>3.8401246722538</v>
+      </c>
       <c r="K63" s="20"/>
       <c r="L63" s="20"/>
       <c r="M63" s="20"/>
@@ -7696,22 +8914,22 @@
         <v>79</v>
       </c>
       <c r="U63" s="83">
-        <v>68.303248672775</v>
+        <v>0.040526477617725</v>
       </c>
       <c r="V63" s="83">
-        <v>5.8201198194071</v>
+        <v>0.0014164756372469</v>
       </c>
       <c r="W63" s="83">
-        <v>253.17650704356</v>
+        <v>0.037325828679191</v>
       </c>
       <c r="X63" s="83">
-        <v>21.573170165181</v>
+        <v>0.00069489839091023</v>
       </c>
       <c r="Y63" s="83">
-        <v>321.47975571633</v>
+        <v>0.038401246722538</v>
       </c>
       <c r="Z63" s="83">
-        <v>27.393289984589</v>
+        <v>0.0010556870140786</v>
       </c>
       <c r="AA63" s="20"/>
       <c r="AB63" s="20"/>
@@ -7730,12 +8948,24 @@
       <c r="AK63" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL63" s="4"/>
-      <c r="AM63" s="4"/>
-      <c r="AN63" s="22"/>
-      <c r="AO63" s="22"/>
-      <c r="AP63" s="22"/>
-      <c r="AQ63" s="22"/>
+      <c r="AL63" s="83">
+        <v>2.7788299913842</v>
+      </c>
+      <c r="AM63" s="83">
+        <v>0.23678410356585</v>
+      </c>
+      <c r="AN63" s="83">
+        <v>9.3770010276994</v>
+      </c>
+      <c r="AO63" s="83">
+        <v>0.79901425757027</v>
+      </c>
+      <c r="AP63" s="83">
+        <v>12.059466106066</v>
+      </c>
+      <c r="AQ63" s="83">
+        <v>1.0275871068979</v>
+      </c>
       <c r="AR63" s="22"/>
       <c r="AS63" s="22"/>
       <c r="AT63" s="22"/>
@@ -7751,22 +8981,22 @@
         <v>79</v>
       </c>
       <c r="BB63" s="83">
-        <v>6.0433333333333</v>
+        <v>0.24433177443318</v>
       </c>
       <c r="BC63" s="83">
-        <v>0.099735367301388</v>
+        <v>0.0091302444347847</v>
       </c>
       <c r="BD63" s="83">
-        <v>6.6373958333333</v>
+        <v>0.24737992137521</v>
       </c>
       <c r="BE63" s="83">
-        <v>0.040326465342258</v>
+        <v>0.0056106745525292</v>
       </c>
       <c r="BF63" s="83">
-        <v>6.3403645833333</v>
+        <v>0.24635574400269</v>
       </c>
       <c r="BG63" s="83">
-        <v>0.070030916321823</v>
+        <v>0.007370459493657</v>
       </c>
       <c r="BH63" s="20"/>
       <c r="BI63" s="20"/>
@@ -7785,12 +9015,24 @@
       <c r="D64" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
+      <c r="E64" s="83">
+        <v>136476.34115285</v>
+      </c>
+      <c r="F64" s="83">
+        <v>9.6533350558749</v>
+      </c>
+      <c r="G64" s="83">
+        <v>216885.73906334</v>
+      </c>
+      <c r="H64" s="83">
+        <v>7.1033152970189</v>
+      </c>
+      <c r="I64" s="83">
+        <v>355584.77617477</v>
+      </c>
+      <c r="J64" s="83">
+        <v>7.9601219359946</v>
+      </c>
       <c r="K64" s="20"/>
       <c r="L64" s="20"/>
       <c r="M64" s="20"/>
@@ -7804,22 +9046,22 @@
         <v>80</v>
       </c>
       <c r="U64" s="83">
-        <v>121.65769493468</v>
+        <v>0.098917931658162</v>
       </c>
       <c r="V64" s="83">
-        <v>10.366452185384</v>
+        <v>0.0020324797606224</v>
       </c>
       <c r="W64" s="83">
-        <v>224.96419132505</v>
+        <v>0.071634879234061</v>
       </c>
       <c r="X64" s="83">
-        <v>19.169198742808</v>
+        <v>0.00057559773829557</v>
       </c>
       <c r="Y64" s="83">
-        <v>346.62188625973</v>
+        <v>0.080801984848559</v>
       </c>
       <c r="Z64" s="83">
-        <v>29.535650928192</v>
+        <v>0.001304038749459</v>
       </c>
       <c r="AA64" s="20"/>
       <c r="AB64" s="20"/>
@@ -7836,12 +9078,24 @@
       <c r="AK64" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL64" s="4"/>
-      <c r="AM64" s="4"/>
-      <c r="AN64" s="22"/>
-      <c r="AO64" s="22"/>
-      <c r="AP64" s="22"/>
-      <c r="AQ64" s="22"/>
+      <c r="AL64" s="83">
+        <v>11.754316381549</v>
+      </c>
+      <c r="AM64" s="83">
+        <v>1.0015852988718</v>
+      </c>
+      <c r="AN64" s="83">
+        <v>15.551093822437</v>
+      </c>
+      <c r="AO64" s="83">
+        <v>1.3251087046099</v>
+      </c>
+      <c r="AP64" s="83">
+        <v>27.58615957971</v>
+      </c>
+      <c r="AQ64" s="83">
+        <v>2.3506166577871</v>
+      </c>
       <c r="AR64" s="22"/>
       <c r="AS64" s="22"/>
       <c r="AT64" s="22"/>
@@ -7855,22 +9109,22 @@
         <v>80</v>
       </c>
       <c r="BB64" s="83">
-        <v>5.5263482280431</v>
+        <v>0.53509561397843</v>
       </c>
       <c r="BC64" s="83">
-        <v>0.0098569086019223</v>
+        <v>0.011928573081481</v>
       </c>
       <c r="BD64" s="83">
-        <v>5.2644590949955</v>
+        <v>0.37622931747298</v>
       </c>
       <c r="BE64" s="83">
-        <v>0.0075845348797458</v>
+        <v>0.0030160085670244</v>
       </c>
       <c r="BF64" s="83">
-        <v>5.3954036615193</v>
+        <v>0.42960839309881</v>
       </c>
       <c r="BG64" s="83">
-        <v>0.008720721740834</v>
+        <v>0.0074722908242527</v>
       </c>
       <c r="BH64" s="20"/>
       <c r="BI64" s="20"/>
@@ -7889,12 +9143,24 @@
       <c r="D65" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
+      <c r="E65" s="83">
+        <v>138170.02980225</v>
+      </c>
+      <c r="F65" s="83">
+        <v>9.7731341644597</v>
+      </c>
+      <c r="G65" s="83">
+        <v>253667.1464747</v>
+      </c>
+      <c r="H65" s="83">
+        <v>8.3079585116414</v>
+      </c>
+      <c r="I65" s="83">
+        <v>393114.28010755</v>
+      </c>
+      <c r="J65" s="83">
+        <v>8.8002575309883</v>
+      </c>
       <c r="K65" s="20"/>
       <c r="L65" s="20"/>
       <c r="M65" s="20"/>
@@ -7908,22 +9174,22 @@
         <v>81</v>
       </c>
       <c r="U65" s="83">
-        <v>371.2304116892</v>
+        <v>0.11083399651185</v>
       </c>
       <c r="V65" s="83">
-        <v>31.632543380037</v>
+        <v>0.0025266939900201</v>
       </c>
       <c r="W65" s="83">
-        <v>393.7768546525</v>
+        <v>0.083079585116414</v>
       </c>
       <c r="X65" s="83">
-        <v>33.55372578494</v>
+        <v>0.00039965650203784</v>
       </c>
       <c r="Y65" s="83">
-        <v>765.0072663417</v>
+        <v>0.092405067345282</v>
       </c>
       <c r="Z65" s="83">
-        <v>65.186269164976</v>
+        <v>0.001463175246029</v>
       </c>
       <c r="AA65" s="20"/>
       <c r="AB65" s="20"/>
@@ -7940,12 +9206,24 @@
       <c r="AK65" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL65" s="4"/>
-      <c r="AM65" s="4"/>
-      <c r="AN65" s="22"/>
-      <c r="AO65" s="22"/>
-      <c r="AP65" s="22"/>
-      <c r="AQ65" s="22"/>
+      <c r="AL65" s="83">
+        <v>37.450302121459</v>
+      </c>
+      <c r="AM65" s="83">
+        <v>3.1911402437695</v>
+      </c>
+      <c r="AN65" s="83">
+        <v>32.942951199665</v>
+      </c>
+      <c r="AO65" s="83">
+        <v>2.8070688717235</v>
+      </c>
+      <c r="AP65" s="83">
+        <v>71.761753365513</v>
+      </c>
+      <c r="AQ65" s="83">
+        <v>6.1148190042754</v>
+      </c>
       <c r="AR65" s="22"/>
       <c r="AS65" s="22"/>
       <c r="AT65" s="22"/>
@@ -7959,22 +9237,22 @@
         <v>81</v>
       </c>
       <c r="BB65" s="83">
-        <v>4.1504378947368</v>
+        <v>0.40747050061366</v>
       </c>
       <c r="BC65" s="83">
-        <v>0.017086510434402</v>
+        <v>0.0070543842152023</v>
       </c>
       <c r="BD65" s="83">
-        <v>4.9182449494949</v>
+        <v>0.40847619351563</v>
       </c>
       <c r="BE65" s="83">
-        <v>0.011806954298332</v>
+        <v>0.0031218766860404</v>
       </c>
       <c r="BF65" s="83">
-        <v>4.5343414221159</v>
+        <v>0.40813828070057</v>
       </c>
       <c r="BG65" s="83">
-        <v>0.014446732366367</v>
+        <v>0.0050881304506214</v>
       </c>
       <c r="BH65" s="20"/>
       <c r="BI65" s="20"/>
@@ -7993,12 +9271,24 @@
       <c r="D66" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
+      <c r="E66" s="83">
+        <v>116284.24938445</v>
+      </c>
+      <c r="F66" s="83">
+        <v>8.2250946321297</v>
+      </c>
+      <c r="G66" s="83">
+        <v>141523.94034784</v>
+      </c>
+      <c r="H66" s="83">
+        <v>4.6351095959962</v>
+      </c>
+      <c r="I66" s="83">
+        <v>260937.359694</v>
+      </c>
+      <c r="J66" s="83">
+        <v>5.8413445681371</v>
+      </c>
       <c r="K66" s="20"/>
       <c r="L66" s="20"/>
       <c r="M66" s="20"/>
@@ -8012,22 +9302,22 @@
         <v>82</v>
       </c>
       <c r="U66" s="83">
-        <v>333.36582971797</v>
+        <v>0.087017828305665</v>
       </c>
       <c r="V66" s="83">
-        <v>28.406102350268</v>
+        <v>0.0012195123642184</v>
       </c>
       <c r="W66" s="83">
-        <v>322.65575789293</v>
+        <v>0.047555175165011</v>
       </c>
       <c r="X66" s="83">
-        <v>27.493497130057</v>
+        <v>0.00093640788949883</v>
       </c>
       <c r="Y66" s="83">
-        <v>656.02158761091</v>
+        <v>0.06081462662027</v>
       </c>
       <c r="Z66" s="83">
-        <v>55.899599480325</v>
+        <v>0.0010779601268586</v>
       </c>
       <c r="AA66" s="20"/>
       <c r="AB66" s="20"/>
@@ -8044,12 +9334,24 @@
       <c r="AK66" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL66" s="4"/>
-      <c r="AM66" s="4"/>
-      <c r="AN66" s="22"/>
-      <c r="AO66" s="22"/>
-      <c r="AP66" s="22"/>
-      <c r="AQ66" s="22"/>
+      <c r="AL66" s="83">
+        <v>26.378328636692</v>
+      </c>
+      <c r="AM66" s="83">
+        <v>2.2476973831325</v>
+      </c>
+      <c r="AN66" s="83">
+        <v>15.416046697006</v>
+      </c>
+      <c r="AO66" s="83">
+        <v>1.3136013390518</v>
+      </c>
+      <c r="AP66" s="83">
+        <v>42.980598976963</v>
+      </c>
+      <c r="AQ66" s="83">
+        <v>3.6623768388271</v>
+      </c>
       <c r="AR66" s="22"/>
       <c r="AS66" s="22"/>
       <c r="AT66" s="22"/>
@@ -8063,22 +9365,22 @@
         <v>82</v>
       </c>
       <c r="BB66" s="83">
-        <v>3.999253968254</v>
+        <v>0.33116906207609</v>
       </c>
       <c r="BC66" s="83">
-        <v>0.01943150500622</v>
+        <v>0.0034091961298848</v>
       </c>
       <c r="BD66" s="83">
-        <v>4.2059985632184</v>
+        <v>0.19533600058026</v>
       </c>
       <c r="BE66" s="83">
-        <v>0.053286862643037</v>
+        <v>0.0028106760751754</v>
       </c>
       <c r="BF66" s="83">
-        <v>4.1026262657362</v>
+        <v>0.24097590924286</v>
       </c>
       <c r="BG66" s="83">
-        <v>0.036359183824628</v>
+        <v>0.0031099361025301</v>
       </c>
       <c r="BH66" s="20"/>
       <c r="BI66" s="20"/>
@@ -8099,12 +9401,24 @@
       <c r="D67" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
+      <c r="E67" s="83">
+        <v>106189.8153542</v>
+      </c>
+      <c r="F67" s="83">
+        <v>7.5110884309799</v>
+      </c>
+      <c r="G67" s="83">
+        <v>246364.05850474</v>
+      </c>
+      <c r="H67" s="83">
+        <v>8.068772031624</v>
+      </c>
+      <c r="I67" s="83">
+        <v>352067.77523911</v>
+      </c>
+      <c r="J67" s="83">
+        <v>7.8813903418076</v>
+      </c>
       <c r="K67" s="20"/>
       <c r="L67" s="20"/>
       <c r="M67" s="20"/>
@@ -8120,22 +9434,22 @@
         <v>79</v>
       </c>
       <c r="U67" s="83">
-        <v>81.38045070144</v>
+        <v>0.076302034752277</v>
       </c>
       <c r="V67" s="83">
-        <v>6.9344282042697</v>
+        <v>0.00086981243508969</v>
       </c>
       <c r="W67" s="83">
-        <v>168.92604945453</v>
+        <v>0.081289446580112</v>
       </c>
       <c r="X67" s="83">
-        <v>14.39418867402</v>
+        <v>0.0011117425798292</v>
       </c>
       <c r="Y67" s="83">
-        <v>250.30650015597</v>
+        <v>0.079613676205959</v>
       </c>
       <c r="Z67" s="83">
-        <v>21.32861687829</v>
+        <v>0.00099077750745942</v>
       </c>
       <c r="AA67" s="20"/>
       <c r="AB67" s="20"/>
@@ -8154,12 +9468,24 @@
       <c r="AK67" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL67" s="4"/>
-      <c r="AM67" s="4"/>
-      <c r="AN67" s="22"/>
-      <c r="AO67" s="22"/>
-      <c r="AP67" s="22"/>
-      <c r="AQ67" s="22"/>
+      <c r="AL67" s="83">
+        <v>5.9474611449397</v>
+      </c>
+      <c r="AM67" s="83">
+        <v>0.50678316416031</v>
+      </c>
+      <c r="AN67" s="83">
+        <v>13.739475029183</v>
+      </c>
+      <c r="AO67" s="83">
+        <v>1.1707406672367</v>
+      </c>
+      <c r="AP67" s="83">
+        <v>19.661390612103</v>
+      </c>
+      <c r="AQ67" s="83">
+        <v>1.6753470940573</v>
+      </c>
       <c r="AR67" s="22"/>
       <c r="AS67" s="22"/>
       <c r="AT67" s="22"/>
@@ -8175,22 +9501,22 @@
         <v>79</v>
       </c>
       <c r="BB67" s="83">
-        <v>5.8571333333333</v>
+        <v>0.44842971061301</v>
       </c>
       <c r="BC67" s="83">
-        <v>0.025526612219404</v>
+        <v>0.0065895773432667</v>
       </c>
       <c r="BD67" s="83">
-        <v>6.2170454545455</v>
+        <v>0.47897780808008</v>
       </c>
       <c r="BE67" s="83">
-        <v>0.015570663224444</v>
+        <v>0.008141426247212</v>
       </c>
       <c r="BF67" s="83">
-        <v>6.0370893939394</v>
+        <v>0.46871364733114</v>
       </c>
       <c r="BG67" s="83">
-        <v>0.020548637721924</v>
+        <v>0.0073655017952393</v>
       </c>
       <c r="BH67" s="20"/>
       <c r="BI67" s="20"/>
@@ -8209,12 +9535,24 @@
       <c r="D68" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
+      <c r="E68" s="83">
+        <v>212344.16992136</v>
+      </c>
+      <c r="F68" s="83">
+        <v>15.019668626058</v>
+      </c>
+      <c r="G68" s="83">
+        <v>479813.77256342</v>
+      </c>
+      <c r="H68" s="83">
+        <v>15.714580982085</v>
+      </c>
+      <c r="I68" s="83">
+        <v>691552.22996826</v>
+      </c>
+      <c r="J68" s="83">
+        <v>15.48109043046</v>
+      </c>
       <c r="K68" s="20"/>
       <c r="L68" s="20"/>
       <c r="M68" s="20"/>
@@ -8228,22 +9566,22 @@
         <v>80</v>
       </c>
       <c r="U68" s="83">
-        <v>95.738919196706</v>
+        <v>0.15377241780247</v>
       </c>
       <c r="V68" s="83">
-        <v>8.1579133047513</v>
+        <v>0.0013489527165435</v>
       </c>
       <c r="W68" s="83">
-        <v>225.10275109903</v>
+        <v>0.15834926234859</v>
       </c>
       <c r="X68" s="83">
-        <v>19.181005421148</v>
+        <v>0.00022235810978811</v>
       </c>
       <c r="Y68" s="83">
-        <v>320.84167029573</v>
+        <v>0.15681144258109</v>
       </c>
       <c r="Z68" s="83">
-        <v>27.338918725899</v>
+        <v>0.00078565541316579</v>
       </c>
       <c r="AA68" s="20"/>
       <c r="AB68" s="20"/>
@@ -8260,12 +9598,24 @@
       <c r="AK68" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL68" s="4"/>
-      <c r="AM68" s="4"/>
-      <c r="AN68" s="22"/>
-      <c r="AO68" s="22"/>
-      <c r="AP68" s="22"/>
-      <c r="AQ68" s="22"/>
+      <c r="AL68" s="83">
+        <v>14.377717292974</v>
+      </c>
+      <c r="AM68" s="83">
+        <v>1.2251252905343</v>
+      </c>
+      <c r="AN68" s="83">
+        <v>34.787852017323</v>
+      </c>
+      <c r="AO68" s="83">
+        <v>2.9642728703961</v>
+      </c>
+      <c r="AP68" s="83">
+        <v>49.058900589124</v>
+      </c>
+      <c r="AQ68" s="83">
+        <v>4.1803089191993</v>
+      </c>
       <c r="AR68" s="22"/>
       <c r="AS68" s="22"/>
       <c r="AT68" s="22"/>
@@ -8313,12 +9663,24 @@
       <c r="D69" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
+      <c r="E69" s="83">
+        <v>185361.20501579</v>
+      </c>
+      <c r="F69" s="83">
+        <v>13.111091660745</v>
+      </c>
+      <c r="G69" s="83">
+        <v>441235.29469498</v>
+      </c>
+      <c r="H69" s="83">
+        <v>14.451081163415</v>
+      </c>
+      <c r="I69" s="83">
+        <v>625428.51297585</v>
+      </c>
+      <c r="J69" s="83">
+        <v>14.000844690518</v>
+      </c>
       <c r="K69" s="20"/>
       <c r="L69" s="20"/>
       <c r="M69" s="20"/>
@@ -8332,22 +9694,22 @@
         <v>81</v>
       </c>
       <c r="U69" s="83">
-        <v>133.74036430965</v>
+        <v>0.13587779859182</v>
       </c>
       <c r="V69" s="83">
-        <v>11.396016442826</v>
+        <v>0.0015166365097786</v>
       </c>
       <c r="W69" s="83">
-        <v>215.01270459999</v>
+        <v>0.14571426416189</v>
       </c>
       <c r="X69" s="83">
-        <v>18.321232558965</v>
+        <v>0.00040948060764573</v>
       </c>
       <c r="Y69" s="83">
-        <v>348.75306890964</v>
+        <v>0.14240921173035</v>
       </c>
       <c r="Z69" s="83">
-        <v>29.71724900179</v>
+        <v>0.00096305855871217</v>
       </c>
       <c r="AA69" s="20"/>
       <c r="AB69" s="20"/>
@@ -8364,12 +9726,24 @@
       <c r="AK69" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL69" s="4"/>
-      <c r="AM69" s="4"/>
-      <c r="AN69" s="22"/>
-      <c r="AO69" s="22"/>
-      <c r="AP69" s="22"/>
-      <c r="AQ69" s="22"/>
+      <c r="AL69" s="83">
+        <v>17.518220113669</v>
+      </c>
+      <c r="AM69" s="83">
+        <v>1.4927275358858</v>
+      </c>
+      <c r="AN69" s="83">
+        <v>31.250128856217</v>
+      </c>
+      <c r="AO69" s="83">
+        <v>2.6628234798382</v>
+      </c>
+      <c r="AP69" s="83">
+        <v>48.956295508575</v>
+      </c>
+      <c r="AQ69" s="83">
+        <v>4.1715659402857</v>
+      </c>
       <c r="AR69" s="22"/>
       <c r="AS69" s="22"/>
       <c r="AT69" s="22"/>
@@ -8417,12 +9791,24 @@
       <c r="D70" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
+      <c r="E70" s="83">
+        <v>138176.47721807</v>
+      </c>
+      <c r="F70" s="83">
+        <v>9.7735902073509</v>
+      </c>
+      <c r="G70" s="83">
+        <v>398898.12044267</v>
+      </c>
+      <c r="H70" s="83">
+        <v>13.06447871183</v>
+      </c>
+      <c r="I70" s="83">
+        <v>534206.13181703</v>
+      </c>
+      <c r="J70" s="83">
+        <v>11.958740174325</v>
+      </c>
       <c r="K70" s="20"/>
       <c r="L70" s="20"/>
       <c r="M70" s="20"/>
@@ -8436,22 +9822,22 @@
         <v>82</v>
       </c>
       <c r="U70" s="83">
-        <v>325.80683095435</v>
+        <v>0.10846081648472</v>
       </c>
       <c r="V70" s="83">
-        <v>27.76200006562</v>
+        <v>0.0019604039167814</v>
       </c>
       <c r="W70" s="83">
-        <v>328.10319276645</v>
+        <v>0.1306447871183</v>
       </c>
       <c r="X70" s="83">
-        <v>27.957673055629</v>
+        <v>0.00010730411937898</v>
       </c>
       <c r="Y70" s="83">
-        <v>653.9100237208</v>
+        <v>0.12319097298542</v>
       </c>
       <c r="Z70" s="83">
-        <v>55.71967312125</v>
+        <v>0.0010338540180802</v>
       </c>
       <c r="AA70" s="20"/>
       <c r="AB70" s="20"/>
@@ -8468,12 +9854,24 @@
       <c r="AK70" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL70" s="4"/>
-      <c r="AM70" s="4"/>
-      <c r="AN70" s="22"/>
-      <c r="AO70" s="22"/>
-      <c r="AP70" s="22"/>
-      <c r="AQ70" s="22"/>
+      <c r="AL70" s="83">
+        <v>31.713969814954</v>
+      </c>
+      <c r="AM70" s="83">
+        <v>2.7023473679322</v>
+      </c>
+      <c r="AN70" s="83">
+        <v>42.60900184315</v>
+      </c>
+      <c r="AO70" s="83">
+        <v>3.6307130470548</v>
+      </c>
+      <c r="AP70" s="83">
+        <v>75.06186708025</v>
+      </c>
+      <c r="AQ70" s="83">
+        <v>6.3960216939081</v>
+      </c>
       <c r="AR70" s="22"/>
       <c r="AS70" s="22"/>
       <c r="AT70" s="22"/>
@@ -8525,12 +9923,24 @@
       <c r="D71" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
+      <c r="E71" s="83">
+        <v>222422.48541204</v>
+      </c>
+      <c r="F71" s="83">
+        <v>15.732534719979</v>
+      </c>
+      <c r="G71" s="83">
+        <v>262817.0542298</v>
+      </c>
+      <c r="H71" s="83">
+        <v>8.6076309566983</v>
+      </c>
+      <c r="I71" s="83">
+        <v>491449.88163819</v>
+      </c>
+      <c r="J71" s="83">
+        <v>11.001598621161</v>
+      </c>
       <c r="K71" s="20"/>
       <c r="L71" s="20"/>
       <c r="M71" s="20"/>
@@ -8548,22 +9958,22 @@
         <v>41</v>
       </c>
       <c r="U71" s="83">
-        <v>17276.370209286</v>
+        <v>0.17400373360894</v>
       </c>
       <c r="V71" s="83">
-        <v>1472.1195055333</v>
+        <v>0.001546880387453</v>
       </c>
       <c r="W71" s="83">
-        <v>10068.322050611</v>
+        <v>0.089687293827519</v>
       </c>
       <c r="X71" s="83">
-        <v>857.92172193255</v>
+        <v>0.00038630532024372</v>
       </c>
       <c r="Y71" s="83">
-        <v>27344.692259897</v>
+        <v>0.11801761759408</v>
       </c>
       <c r="Z71" s="83">
-        <v>2330.0412274658</v>
+        <v>0.00096659285384836</v>
       </c>
       <c r="AA71" s="20"/>
       <c r="AB71" s="20"/>
@@ -8584,12 +9994,24 @@
       <c r="AK71" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL71" s="4"/>
-      <c r="AM71" s="4"/>
-      <c r="AN71" s="22"/>
-      <c r="AO71" s="22"/>
-      <c r="AP71" s="22"/>
-      <c r="AQ71" s="22"/>
+      <c r="AL71" s="83">
+        <v>2659.7552456018</v>
+      </c>
+      <c r="AM71" s="83">
+        <v>226.63774447773</v>
+      </c>
+      <c r="AN71" s="83">
+        <v>903.05005780845</v>
+      </c>
+      <c r="AO71" s="83">
+        <v>76.948895425858</v>
+      </c>
+      <c r="AP71" s="83">
+        <v>3701.0083315444</v>
+      </c>
+      <c r="AQ71" s="83">
+        <v>315.3629199309</v>
+      </c>
       <c r="AR71" s="22"/>
       <c r="AS71" s="22"/>
       <c r="AT71" s="22"/>
@@ -8607,22 +10029,22 @@
         <v>41</v>
       </c>
       <c r="BB71" s="83">
-        <v>3.1631868131868</v>
+        <v>0.49877692655513</v>
       </c>
       <c r="BC71" s="83">
-        <v>0.0044663146709398</v>
+        <v>0.0045535746967786</v>
       </c>
       <c r="BD71" s="83">
-        <v>3.1616578014184</v>
+        <v>0.28517799318198</v>
       </c>
       <c r="BE71" s="83">
-        <v>0.011287204717138</v>
+        <v>0.0012363338105046</v>
       </c>
       <c r="BF71" s="83">
-        <v>3.1624223073026</v>
+        <v>0.35694723479536</v>
       </c>
       <c r="BG71" s="83">
-        <v>0.0078767596940391</v>
+        <v>0.0028949542536416</v>
       </c>
       <c r="BH71" s="20"/>
       <c r="BI71" s="20"/>
@@ -8645,12 +10067,24 @@
       <c r="D72" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
+      <c r="E72" s="83">
+        <v>96050.249413177</v>
+      </c>
+      <c r="F72" s="83">
+        <v>6.7938899295911</v>
+      </c>
+      <c r="G72" s="83">
+        <v>139701.99522674</v>
+      </c>
+      <c r="H72" s="83">
+        <v>4.5754383114528</v>
+      </c>
+      <c r="I72" s="83">
+        <v>237685.93296873</v>
+      </c>
+      <c r="J72" s="83">
+        <v>5.3208380551473</v>
+      </c>
       <c r="K72" s="20"/>
       <c r="L72" s="20"/>
       <c r="M72" s="20"/>
@@ -8668,22 +10102,22 @@
         <v>41</v>
       </c>
       <c r="U72" s="83">
-        <v>343.10457371437</v>
+        <v>0.073899211937213</v>
       </c>
       <c r="V72" s="83">
-        <v>29.235940726201</v>
+        <v>0.0018612950671323</v>
       </c>
       <c r="W72" s="83">
-        <v>503.62474161863</v>
+        <v>0.047560188583448</v>
       </c>
       <c r="X72" s="83">
-        <v>42.913864233324</v>
+        <v>0.00040016751439615</v>
       </c>
       <c r="Y72" s="83">
-        <v>846.729315333</v>
+        <v>0.056410100430313</v>
       </c>
       <c r="Z72" s="83">
-        <v>72.149804959525</v>
+        <v>0.0011307312907642</v>
       </c>
       <c r="AA72" s="20"/>
       <c r="AB72" s="20"/>
@@ -8704,12 +10138,24 @@
       <c r="AK72" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL72" s="15"/>
-      <c r="AM72" s="15"/>
-      <c r="AN72" s="15"/>
-      <c r="AO72" s="15"/>
-      <c r="AP72" s="15"/>
-      <c r="AQ72" s="15"/>
+      <c r="AL72" s="83">
+        <v>23.23956980551</v>
+      </c>
+      <c r="AM72" s="83">
+        <v>1.9802437431275</v>
+      </c>
+      <c r="AN72" s="83">
+        <v>23.066521658481</v>
+      </c>
+      <c r="AO72" s="83">
+        <v>1.9654983105192</v>
+      </c>
+      <c r="AP72" s="83">
+        <v>47.08039898602</v>
+      </c>
+      <c r="AQ72" s="83">
+        <v>4.0117207975988</v>
+      </c>
       <c r="AR72" s="15"/>
       <c r="AS72" s="15"/>
       <c r="AT72" s="15"/>
@@ -8727,22 +10173,22 @@
         <v>41</v>
       </c>
       <c r="BB72" s="83">
-        <v>3.3747368421053</v>
+        <v>0.22887418125444</v>
       </c>
       <c r="BC72" s="83">
-        <v>0.20815668657326</v>
+        <v>0.021872846371774</v>
       </c>
       <c r="BD72" s="83">
-        <v>2.2807345807346</v>
+        <v>0.10462752680061</v>
       </c>
       <c r="BE72" s="83">
-        <v>0.012759683229479</v>
+        <v>0.001128370506375</v>
       </c>
       <c r="BF72" s="83">
-        <v>2.8277357114199</v>
+        <v>0.1463744026971</v>
       </c>
       <c r="BG72" s="83">
-        <v>0.11045818490137</v>
+        <v>0.011500608439075</v>
       </c>
       <c r="BH72" s="20"/>
       <c r="BI72" s="20"/>
@@ -8765,12 +10211,24 @@
       <c r="D73" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
+      <c r="E73" s="83">
+        <v>21901.898957367</v>
+      </c>
+      <c r="F73" s="83">
+        <v>1.5491796395582</v>
+      </c>
+      <c r="G73" s="83">
+        <v>29401.782013619</v>
+      </c>
+      <c r="H73" s="83">
+        <v>0.96295002538623</v>
+      </c>
+      <c r="I73" s="83">
+        <v>51814.661401509</v>
+      </c>
+      <c r="J73" s="83">
+        <v>1.159923175748</v>
+      </c>
       <c r="K73" s="20"/>
       <c r="L73" s="20"/>
       <c r="M73" s="20"/>
@@ -8788,22 +10246,22 @@
         <v>41</v>
       </c>
       <c r="U73" s="83">
-        <v>31.842067048308</v>
+        <v>0.021447548607971</v>
       </c>
       <c r="V73" s="83">
-        <v>2.7132625331863</v>
+        <v>0.0030484887636246</v>
       </c>
       <c r="W73" s="83">
-        <v>138.01347627642</v>
+        <v>0.016852722129542</v>
       </c>
       <c r="X73" s="83">
-        <v>11.760128313513</v>
+        <v>0.0025998073720057</v>
       </c>
       <c r="Y73" s="83">
-        <v>169.85554332472</v>
+        <v>0.018396583826294</v>
       </c>
       <c r="Z73" s="83">
-        <v>14.4733908467</v>
+        <v>0.0028241480678151</v>
       </c>
       <c r="AA73" s="20"/>
       <c r="AB73" s="20"/>
@@ -8824,12 +10282,24 @@
       <c r="AK73" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL73" s="16"/>
-      <c r="AM73" s="16"/>
-      <c r="AN73" s="16"/>
-      <c r="AO73" s="16"/>
-      <c r="AP73" s="16"/>
-      <c r="AQ73" s="16"/>
+      <c r="AL73" s="84">
+        <v>0.49805756301787</v>
+      </c>
+      <c r="AM73" s="84">
+        <v>0.042439484944753</v>
+      </c>
+      <c r="AN73" s="84">
+        <v>1.2111369021324</v>
+      </c>
+      <c r="AO73" s="84">
+        <v>0.1032009754307</v>
+      </c>
+      <c r="AP73" s="84">
+        <v>1.7053265578547</v>
+      </c>
+      <c r="AQ73" s="84">
+        <v>0.1453108759948</v>
+      </c>
       <c r="AR73" s="16"/>
       <c r="AS73" s="16"/>
       <c r="AT73" s="16"/>
@@ -8847,22 +10317,22 @@
         <v>41</v>
       </c>
       <c r="BB73" s="83">
-        <v>8.366</v>
+        <v>0.13820765454428</v>
       </c>
       <c r="BC73" s="83">
-        <v>0.83409185991066</v>
+        <v>0.026286319286003</v>
       </c>
       <c r="BD73" s="83">
-        <v>5.9679487179487</v>
+        <v>0.053265307898745</v>
       </c>
       <c r="BE73" s="83">
-        <v>0.53149356479902</v>
+        <v>0.0079722753839933</v>
       </c>
       <c r="BF73" s="83">
-        <v>7.1669743589744</v>
+        <v>0.081805936371645</v>
       </c>
       <c r="BG73" s="83">
-        <v>0.68279271235484</v>
+        <v>0.017129297334998</v>
       </c>
       <c r="BH73" s="20"/>
       <c r="BI73" s="20"/>
@@ -8885,12 +10355,24 @@
       <c r="D74" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
+      <c r="E74" s="83">
+        <v>5055.2762849041</v>
+      </c>
+      <c r="F74" s="83">
+        <v>0.35757315418901</v>
+      </c>
+      <c r="G74" s="83">
+        <v>11033.082818423</v>
+      </c>
+      <c r="H74" s="83">
+        <v>0.36134909697541</v>
+      </c>
+      <c r="I74" s="83">
+        <v>16085.06784539</v>
+      </c>
+      <c r="J74" s="83">
+        <v>0.36008038019918</v>
+      </c>
       <c r="K74" s="20"/>
       <c r="L74" s="20"/>
       <c r="M74" s="20"/>
@@ -8908,22 +10390,22 @@
         <v>41</v>
       </c>
       <c r="U74" s="83">
-        <v>102.68384766948</v>
+        <v>0.0035757315418901</v>
       </c>
       <c r="V74" s="83">
-        <v>8.7496906599164</v>
+        <v>0.0012006421786307</v>
       </c>
       <c r="W74" s="83">
-        <v>490.3335927336</v>
+        <v>0.0036134909697541</v>
       </c>
       <c r="X74" s="83">
-        <v>41.78132543683</v>
+        <v>0.00047504492201662</v>
       </c>
       <c r="Y74" s="83">
-        <v>593.01744040308</v>
+        <v>0.0036008038019918</v>
       </c>
       <c r="Z74" s="83">
-        <v>50.531016096746</v>
+        <v>0.00083784355032367</v>
       </c>
       <c r="AA74" s="20"/>
       <c r="AB74" s="20"/>
@@ -8944,12 +10426,24 @@
       <c r="AK74" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL74" s="4"/>
-      <c r="AM74" s="4"/>
-      <c r="AN74" s="22"/>
-      <c r="AO74" s="22"/>
-      <c r="AP74" s="22"/>
-      <c r="AQ74" s="22"/>
+      <c r="AL74" s="83">
+        <v>0.36889728880145</v>
+      </c>
+      <c r="AM74" s="83">
+        <v>0.031433737978772</v>
+      </c>
+      <c r="AN74" s="83">
+        <v>1.3420986248201</v>
+      </c>
+      <c r="AO74" s="83">
+        <v>0.11436022382092</v>
+      </c>
+      <c r="AP74" s="83">
+        <v>1.6954262284794</v>
+      </c>
+      <c r="AQ74" s="83">
+        <v>0.14446726892873</v>
+      </c>
       <c r="AR74" s="22"/>
       <c r="AS74" s="22"/>
       <c r="AT74" s="22"/>
@@ -8967,22 +10461,22 @@
         <v>41</v>
       </c>
       <c r="BB74" s="83">
-        <v>2.34</v>
+        <v>0.0083448937407144</v>
       </c>
       <c r="BC74" s="83">
-        <v>0.66332495807108</v>
+        <v>0.0024012843572614</v>
       </c>
       <c r="BD74" s="83">
-        <v>3.7</v>
+        <v>0.010236866613476</v>
       </c>
       <c r="BE74" s="83">
-        <v>0.16431676725155</v>
+        <v>0.0014844325514946</v>
       </c>
       <c r="BF74" s="83">
-        <v>3.02</v>
+        <v>0.0096011637282284</v>
       </c>
       <c r="BG74" s="83">
-        <v>0.41382086266131</v>
+        <v>0.001942858454378</v>
       </c>
       <c r="BH74" s="20"/>
       <c r="BI74" s="20"/>
@@ -9005,12 +10499,24 @@
       <c r="D75" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
+      <c r="E75" s="83">
+        <v>310033.30494942</v>
+      </c>
+      <c r="F75" s="83">
+        <v>21.929481299658</v>
+      </c>
+      <c r="G75" s="83">
+        <v>542247.832783</v>
+      </c>
+      <c r="H75" s="83">
+        <v>17.759384927831</v>
+      </c>
+      <c r="I75" s="83">
+        <v>855915.95519624</v>
+      </c>
+      <c r="J75" s="83">
+        <v>19.160537308764</v>
+      </c>
       <c r="K75" s="20"/>
       <c r="L75" s="20"/>
       <c r="M75" s="20"/>
@@ -9028,22 +10534,22 @@
         <v>41</v>
       </c>
       <c r="U75" s="83">
-        <v>1497.2393397875</v>
+        <v>0.2478847038305</v>
       </c>
       <c r="V75" s="83">
-        <v>127.57976414329</v>
+        <v>0.0012502418316963</v>
       </c>
       <c r="W75" s="83">
-        <v>2865.7414456113</v>
+        <v>0.18361612533546</v>
       </c>
       <c r="X75" s="83">
-        <v>244.18982858054</v>
+        <v>0.00065490311243242</v>
       </c>
       <c r="Y75" s="83">
-        <v>4362.9807853988</v>
+        <v>0.20521036770979</v>
       </c>
       <c r="Z75" s="83">
-        <v>371.76959272384</v>
+        <v>0.00095257247206437</v>
       </c>
       <c r="AA75" s="20"/>
       <c r="AB75" s="20"/>
@@ -9064,12 +10570,24 @@
       <c r="AK75" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL75" s="10"/>
-      <c r="AM75" s="10"/>
-      <c r="AN75" s="10"/>
-      <c r="AO75" s="10"/>
-      <c r="AP75" s="10"/>
-      <c r="AQ75" s="10"/>
+      <c r="AL75" s="85">
+        <v>331.06314695006</v>
+      </c>
+      <c r="AM75" s="85">
+        <v>28.209890751615</v>
+      </c>
+      <c r="AN75" s="85">
+        <v>516.23766607452</v>
+      </c>
+      <c r="AO75" s="85">
+        <v>43.988611526209</v>
+      </c>
+      <c r="AP75" s="85">
+        <v>852.97471295072</v>
+      </c>
+      <c r="AQ75" s="85">
+        <v>72.681975290531</v>
+      </c>
       <c r="AR75" s="10"/>
       <c r="AS75" s="10"/>
       <c r="AT75" s="10"/>
@@ -9087,22 +10605,22 @@
         <v>41</v>
       </c>
       <c r="BB75" s="83">
-        <v>6.4654586894587</v>
+        <v>1.4229883793037</v>
       </c>
       <c r="BC75" s="83">
-        <v>0.011192822323747</v>
+        <v>0.0095166112127452</v>
       </c>
       <c r="BD75" s="83">
-        <v>6.1345717592593</v>
+        <v>1.0917965434105</v>
       </c>
       <c r="BE75" s="83">
-        <v>0.0058687628161867</v>
+        <v>0.0048576577089448</v>
       </c>
       <c r="BF75" s="83">
-        <v>6.300015224359</v>
+        <v>1.2030770002706</v>
       </c>
       <c r="BG75" s="83">
-        <v>0.0085307925699666</v>
+        <v>0.007187134460845</v>
       </c>
       <c r="BH75" s="20"/>
       <c r="BI75" s="20"/>
@@ -9125,12 +10643,24 @@
       <c r="D76" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="20"/>
+      <c r="E76" s="83">
+        <v>0</v>
+      </c>
+      <c r="F76" s="83">
+        <v>0</v>
+      </c>
+      <c r="G76" s="83">
+        <v>0</v>
+      </c>
+      <c r="H76" s="83">
+        <v>0</v>
+      </c>
+      <c r="I76" s="83">
+        <v>0</v>
+      </c>
+      <c r="J76" s="83">
+        <v>0</v>
+      </c>
       <c r="K76" s="20"/>
       <c r="L76" s="20"/>
       <c r="M76" s="20"/>
@@ -9148,22 +10678,22 @@
         <v>41</v>
       </c>
       <c r="U76" s="83">
-        <v>45.980920270588</v>
+        <v>0.042885976358116</v>
       </c>
       <c r="V76" s="83">
-        <v>0.00046348767632753</v>
+        <v>0.00025229444712257</v>
       </c>
       <c r="W76" s="83">
-        <v>155.61194243023</v>
+        <v>0.028884114020454</v>
       </c>
       <c r="X76" s="83">
-        <v>0.0015685683796967</v>
+        <v>0.004785298484267</v>
       </c>
       <c r="Y76" s="83">
-        <v>155.63125441675</v>
+        <v>0.033588739765909</v>
       </c>
       <c r="Z76" s="83">
-        <v>0.0015687630445208</v>
+        <v>0.0025187964656948</v>
       </c>
       <c r="AA76" s="20"/>
       <c r="AB76" s="20"/>
@@ -9184,12 +10714,24 @@
       <c r="AK76" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AL76" s="16"/>
-      <c r="AM76" s="16"/>
-      <c r="AN76" s="16"/>
-      <c r="AO76" s="16"/>
-      <c r="AP76" s="16"/>
-      <c r="AQ76" s="16"/>
+      <c r="AL76" s="84">
+        <v>1.9872373915206</v>
+      </c>
+      <c r="AM76" s="84">
+        <v>2.0031352906527E-5</v>
+      </c>
+      <c r="AN76" s="84">
+        <v>4.6631193249116</v>
+      </c>
+      <c r="AO76" s="84">
+        <v>4.7004242795109E-5</v>
+      </c>
+      <c r="AP76" s="84">
+        <v>6.6397565671555</v>
+      </c>
+      <c r="AQ76" s="84">
+        <v>6.6928746196928E-5</v>
+      </c>
       <c r="AR76" s="16"/>
       <c r="AS76" s="16"/>
       <c r="AT76" s="16"/>
@@ -9207,22 +10749,22 @@
         <v>41</v>
       </c>
       <c r="BB76" s="83">
-        <v>9.2332352941176</v>
+        <v>0.36987501453394</v>
       </c>
       <c r="BC76" s="83">
-        <v>0.036233232137953</v>
+        <v>0.0022298376870686</v>
       </c>
       <c r="BD76" s="83">
-        <v>5.5755813953488</v>
+        <v>0.15284536447378</v>
       </c>
       <c r="BE76" s="83">
-        <v>3.8017325964738</v>
+        <v>0.026317286986625</v>
       </c>
       <c r="BF76" s="83">
-        <v>7.4044083447332</v>
+        <v>0.225767326894</v>
       </c>
       <c r="BG76" s="83">
-        <v>1.9189829143059</v>
+        <v>0.014273562336847</v>
       </c>
       <c r="BH76" s="20"/>
       <c r="BI76" s="20"/>
@@ -9268,11 +10810,11 @@
       <c r="AE77" s="3"/>
       <c r="AF77" s="3"/>
       <c r="AG77" s="3"/>
-      <c r="AH77" s="57" t="s">
+      <c r="AH77" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="AI77" s="57"/>
-      <c r="AJ77" s="57"/>
+      <c r="AI77" s="65"/>
+      <c r="AJ77" s="65"/>
       <c r="AK77" s="8" t="s">
         <v>26</v>
       </c>
@@ -9354,11 +10896,11 @@
       <c r="AE78" s="3"/>
       <c r="AF78" s="3"/>
       <c r="AG78" s="3"/>
-      <c r="AH78" s="58" t="s">
+      <c r="AH78" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="AI78" s="59"/>
-      <c r="AJ78" s="60"/>
+      <c r="AI78" s="54"/>
+      <c r="AJ78" s="55"/>
       <c r="AK78" s="5" t="s">
         <v>30</v>
       </c>
@@ -9428,11 +10970,11 @@
       <c r="AE79" s="3"/>
       <c r="AF79" s="3"/>
       <c r="AG79" s="3"/>
-      <c r="AH79" s="57" t="s">
+      <c r="AH79" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="AI79" s="57"/>
-      <c r="AJ79" s="57"/>
+      <c r="AI79" s="65"/>
+      <c r="AJ79" s="65"/>
       <c r="AK79" s="17" t="s">
         <v>26</v>
       </c>
@@ -9503,11 +11045,11 @@
       <c r="AW80" s="26"/>
     </row>
     <row r="81" spans="1:68">
-      <c r="AH81" s="61" t="s">
+      <c r="AH81" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="AI81" s="62"/>
-      <c r="AJ81" s="63"/>
+      <c r="AI81" s="57"/>
+      <c r="AJ81" s="58"/>
       <c r="AK81" s="19" t="s">
         <v>26</v>
       </c>
@@ -9539,6 +11081,112 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="AY37:AY41"/>
+    <mergeCell ref="AY42:AY45"/>
+    <mergeCell ref="AH78:AJ78"/>
+    <mergeCell ref="AH79:AJ79"/>
+    <mergeCell ref="AH77:AJ77"/>
+    <mergeCell ref="AZ46:AZ51"/>
+    <mergeCell ref="AH29:AH31"/>
+    <mergeCell ref="AH34:AH36"/>
+    <mergeCell ref="AH37:AH41"/>
+    <mergeCell ref="AH42:AH45"/>
+    <mergeCell ref="AZ42:AZ43"/>
+    <mergeCell ref="AZ44:AZ45"/>
+    <mergeCell ref="AY46:AY58"/>
+    <mergeCell ref="AI29:AI31"/>
+    <mergeCell ref="AI42:AI43"/>
+    <mergeCell ref="AI44:AI45"/>
+    <mergeCell ref="AH46:AH58"/>
+    <mergeCell ref="AI46:AI51"/>
+    <mergeCell ref="AI52:AI58"/>
+    <mergeCell ref="AH59:AH70"/>
+    <mergeCell ref="AI59:AI62"/>
+    <mergeCell ref="AY13:AY28"/>
+    <mergeCell ref="AZ13:AZ15"/>
+    <mergeCell ref="AZ16:AZ18"/>
+    <mergeCell ref="AZ19:AZ21"/>
+    <mergeCell ref="AZ22:AZ23"/>
+    <mergeCell ref="AZ24:AZ26"/>
+    <mergeCell ref="AY29:AY31"/>
+    <mergeCell ref="AZ29:AZ31"/>
+    <mergeCell ref="AY34:AY36"/>
+    <mergeCell ref="S63:S66"/>
+    <mergeCell ref="S67:S70"/>
+    <mergeCell ref="S52:S58"/>
+    <mergeCell ref="B13:B28"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="R42:R45"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="R46:R58"/>
+    <mergeCell ref="S46:S51"/>
+    <mergeCell ref="B46:B58"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="S13:S15"/>
+    <mergeCell ref="S16:S18"/>
+    <mergeCell ref="S19:S21"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="S24:S26"/>
+    <mergeCell ref="R29:R31"/>
+    <mergeCell ref="S29:S31"/>
+    <mergeCell ref="R34:R36"/>
+    <mergeCell ref="S59:S62"/>
+    <mergeCell ref="R37:R41"/>
+    <mergeCell ref="B9:P9"/>
+    <mergeCell ref="R9:AF9"/>
+    <mergeCell ref="AH9:AW9"/>
+    <mergeCell ref="AY9:BM9"/>
+    <mergeCell ref="B8:P8"/>
+    <mergeCell ref="R8:AF8"/>
+    <mergeCell ref="AH8:AW8"/>
+    <mergeCell ref="AY8:BM8"/>
+    <mergeCell ref="B59:B70"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="C52:C58"/>
+    <mergeCell ref="R59:R70"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="B10:D11"/>
+    <mergeCell ref="R13:R28"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="R10:T11"/>
+    <mergeCell ref="AL10:AQ10"/>
+    <mergeCell ref="AR10:AW10"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AN11:AO11"/>
+    <mergeCell ref="AP11:AQ11"/>
+    <mergeCell ref="AR11:AS11"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AH10:AJ11"/>
+    <mergeCell ref="AK10:AK12"/>
+    <mergeCell ref="U10:Z10"/>
+    <mergeCell ref="AA10:AF10"/>
+    <mergeCell ref="U11:V11"/>
     <mergeCell ref="AH81:AJ81"/>
     <mergeCell ref="AH80:AJ80"/>
     <mergeCell ref="AY10:BA11"/>
@@ -9563,112 +11211,6 @@
     <mergeCell ref="AZ67:AZ70"/>
     <mergeCell ref="AI63:AI66"/>
     <mergeCell ref="AI67:AI70"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="R10:T11"/>
-    <mergeCell ref="AL10:AQ10"/>
-    <mergeCell ref="AR10:AW10"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AN11:AO11"/>
-    <mergeCell ref="AP11:AQ11"/>
-    <mergeCell ref="AR11:AS11"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AH10:AJ11"/>
-    <mergeCell ref="AK10:AK12"/>
-    <mergeCell ref="U10:Z10"/>
-    <mergeCell ref="AA10:AF10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="B9:P9"/>
-    <mergeCell ref="R9:AF9"/>
-    <mergeCell ref="AH9:AW9"/>
-    <mergeCell ref="AY9:BM9"/>
-    <mergeCell ref="B8:P8"/>
-    <mergeCell ref="R8:AF8"/>
-    <mergeCell ref="AH8:AW8"/>
-    <mergeCell ref="AY8:BM8"/>
-    <mergeCell ref="B59:B70"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="C52:C58"/>
-    <mergeCell ref="R59:R70"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="B10:D11"/>
-    <mergeCell ref="R13:R28"/>
-    <mergeCell ref="S16:S18"/>
-    <mergeCell ref="S19:S21"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="S24:S26"/>
-    <mergeCell ref="R29:R31"/>
-    <mergeCell ref="S29:S31"/>
-    <mergeCell ref="R34:R36"/>
-    <mergeCell ref="S59:S62"/>
-    <mergeCell ref="R37:R41"/>
-    <mergeCell ref="S63:S66"/>
-    <mergeCell ref="S67:S70"/>
-    <mergeCell ref="S52:S58"/>
-    <mergeCell ref="B13:B28"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="R42:R45"/>
-    <mergeCell ref="S42:S43"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="R46:R58"/>
-    <mergeCell ref="S46:S51"/>
-    <mergeCell ref="B46:B58"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="AY13:AY28"/>
-    <mergeCell ref="AZ13:AZ15"/>
-    <mergeCell ref="AZ16:AZ18"/>
-    <mergeCell ref="AZ19:AZ21"/>
-    <mergeCell ref="AZ22:AZ23"/>
-    <mergeCell ref="AZ24:AZ26"/>
-    <mergeCell ref="AY29:AY31"/>
-    <mergeCell ref="AZ29:AZ31"/>
-    <mergeCell ref="AY34:AY36"/>
-    <mergeCell ref="AY37:AY41"/>
-    <mergeCell ref="AY42:AY45"/>
-    <mergeCell ref="AH78:AJ78"/>
-    <mergeCell ref="AH79:AJ79"/>
-    <mergeCell ref="AH77:AJ77"/>
-    <mergeCell ref="AZ46:AZ51"/>
-    <mergeCell ref="AH29:AH31"/>
-    <mergeCell ref="AH34:AH36"/>
-    <mergeCell ref="AH37:AH41"/>
-    <mergeCell ref="AH42:AH45"/>
-    <mergeCell ref="AZ42:AZ43"/>
-    <mergeCell ref="AZ44:AZ45"/>
-    <mergeCell ref="AY46:AY58"/>
-    <mergeCell ref="AI29:AI31"/>
-    <mergeCell ref="AI42:AI43"/>
-    <mergeCell ref="AI44:AI45"/>
-    <mergeCell ref="AH46:AH58"/>
-    <mergeCell ref="AI46:AI51"/>
-    <mergeCell ref="AI52:AI58"/>
-    <mergeCell ref="AH59:AH70"/>
-    <mergeCell ref="AI59:AI62"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/storage/excel/sum914.xlsx
+++ b/storage/excel/sum914.xlsx
@@ -543,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -807,6 +807,15 @@
     </xf>
     <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="4" fillId="5" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1107,10 +1116,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="AQ76" sqref="AQ76"/>
+      <selection activeCell="BG134" sqref="BG134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2230,12 +2239,24 @@
       <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
+      <c r="E13" s="85">
+        <v>106144.68344342</v>
+      </c>
+      <c r="F13" s="85">
+        <v>7.5078961307409</v>
+      </c>
+      <c r="G13" s="85">
+        <v>227941.7831101</v>
+      </c>
+      <c r="H13" s="85">
+        <v>7.46541640676</v>
+      </c>
+      <c r="I13" s="85">
+        <v>334123.49352575</v>
+      </c>
+      <c r="J13" s="85">
+        <v>7.4796895940176</v>
+      </c>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
@@ -2252,12 +2273,24 @@
       <c r="T13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
+      <c r="U13" s="85">
+        <v>0.11441656869711</v>
+      </c>
+      <c r="V13" s="85">
+        <v>0.0034252373897269</v>
+      </c>
+      <c r="W13" s="85">
+        <v>0.10475739754842</v>
+      </c>
+      <c r="X13" s="85">
+        <v>0.00039639119866738</v>
+      </c>
+      <c r="Y13" s="85">
+        <v>0.10800287905438</v>
+      </c>
+      <c r="Z13" s="85">
+        <v>0.0019108142941971</v>
+      </c>
       <c r="AA13" s="21"/>
       <c r="AB13" s="21"/>
       <c r="AC13" s="21"/>
@@ -2278,22 +2311,22 @@
         <v>30</v>
       </c>
       <c r="AL13" s="85">
-        <v>15.337322691208</v>
+        <v>10.736125883846</v>
       </c>
       <c r="AM13" s="85">
-        <v>1.3068932665179</v>
+        <v>0.91482528656251</v>
       </c>
       <c r="AN13" s="85">
-        <v>23.650482950069</v>
+        <v>16.555338065048</v>
       </c>
       <c r="AO13" s="85">
-        <v>2.0152576521754</v>
+        <v>1.4106803565228</v>
       </c>
       <c r="AP13" s="85">
-        <v>39.258242752337</v>
+        <v>27.480769926636</v>
       </c>
       <c r="AQ13" s="85">
-        <v>3.3451948649266</v>
+        <v>2.3416364054487</v>
       </c>
       <c r="AR13" s="21"/>
       <c r="AS13" s="21"/>
@@ -2334,12 +2367,24 @@
       <c r="D14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
+      <c r="E14" s="85">
+        <v>803750.24480479</v>
+      </c>
+      <c r="F14" s="85">
+        <v>56.851395258704</v>
+      </c>
+      <c r="G14" s="85">
+        <v>1810675.4100698</v>
+      </c>
+      <c r="H14" s="85">
+        <v>59.3021855371</v>
+      </c>
+      <c r="I14" s="85">
+        <v>2612289.4511734</v>
+      </c>
+      <c r="J14" s="85">
+        <v>58.478720003559</v>
+      </c>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
@@ -2352,12 +2397,24 @@
       <c r="T14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
+      <c r="U14" s="85">
+        <v>1.001109062722</v>
+      </c>
+      <c r="V14" s="85">
+        <v>0.00094855505576533</v>
+      </c>
+      <c r="W14" s="85">
+        <v>1.0457926104301</v>
+      </c>
+      <c r="X14" s="85">
+        <v>0.0003550191709701</v>
+      </c>
+      <c r="Y14" s="85">
+        <v>1.0307789384002</v>
+      </c>
+      <c r="Z14" s="85">
+        <v>0.00065178711336772</v>
+      </c>
       <c r="AA14" s="21"/>
       <c r="AB14" s="21"/>
       <c r="AC14" s="21"/>
@@ -2374,22 +2431,22 @@
         <v>30</v>
       </c>
       <c r="AL14" s="85">
-        <v>171.1590701642</v>
+        <v>119.81134911494</v>
       </c>
       <c r="AM14" s="85">
-        <v>14.584464368692</v>
+        <v>10.209125058084</v>
       </c>
       <c r="AN14" s="85">
-        <v>332.30202015549</v>
+        <v>232.61141410884</v>
       </c>
       <c r="AO14" s="85">
-        <v>28.315455137449</v>
+        <v>19.820818596214</v>
       </c>
       <c r="AP14" s="85">
-        <v>504.52725682401</v>
+        <v>353.16907977681</v>
       </c>
       <c r="AQ14" s="85">
-        <v>42.990767553974</v>
+        <v>30.093537287782</v>
       </c>
       <c r="AR14" s="21"/>
       <c r="AS14" s="21"/>
@@ -2426,12 +2483,24 @@
       <c r="D15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
+      <c r="E15" s="85">
+        <v>33699.692760752</v>
+      </c>
+      <c r="F15" s="85">
+        <v>2.3836690136296</v>
+      </c>
+      <c r="G15" s="85">
+        <v>45950.449523406</v>
+      </c>
+      <c r="H15" s="85">
+        <v>1.5049423369841</v>
+      </c>
+      <c r="I15" s="85">
+        <v>80416.074479819</v>
+      </c>
+      <c r="J15" s="85">
+        <v>1.800194500337</v>
+      </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
@@ -2444,12 +2513,24 @@
       <c r="T15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
+      <c r="U15" s="85">
+        <v>0.038146456947226</v>
+      </c>
+      <c r="V15" s="85">
+        <v>0.0023869818542216</v>
+      </c>
+      <c r="W15" s="85">
+        <v>0.02166966562704</v>
+      </c>
+      <c r="X15" s="85">
+        <v>0.0017212625730969</v>
+      </c>
+      <c r="Y15" s="85">
+        <v>0.027205867510622</v>
+      </c>
+      <c r="Z15" s="85">
+        <v>0.0020541222136592</v>
+      </c>
       <c r="AA15" s="21"/>
       <c r="AB15" s="21"/>
       <c r="AC15" s="21"/>
@@ -2466,22 +2547,22 @@
         <v>30</v>
       </c>
       <c r="AL15" s="85">
-        <v>21.170219006944</v>
+        <v>14.819153304861</v>
       </c>
       <c r="AM15" s="85">
-        <v>1.8039143615817</v>
+        <v>1.2627400531072</v>
       </c>
       <c r="AN15" s="85">
-        <v>10.789244030435</v>
+        <v>7.5524708213042</v>
       </c>
       <c r="AO15" s="85">
-        <v>0.91935148383333</v>
+        <v>0.64354603868333</v>
       </c>
       <c r="AP15" s="85">
-        <v>32.9566725914</v>
+        <v>23.06967081398</v>
       </c>
       <c r="AQ15" s="85">
-        <v>2.8082380715132</v>
+        <v>1.9657666500592</v>
       </c>
       <c r="AR15" s="21"/>
       <c r="AS15" s="21"/>
@@ -2520,12 +2601,24 @@
       <c r="D16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
+      <c r="E16" s="85">
+        <v>25269.934008695</v>
+      </c>
+      <c r="F16" s="85">
+        <v>1.7874097280537</v>
+      </c>
+      <c r="G16" s="85">
+        <v>55150.10660656</v>
+      </c>
+      <c r="H16" s="85">
+        <v>1.8062441430333</v>
+      </c>
+      <c r="I16" s="85">
+        <v>80403.62380989</v>
+      </c>
+      <c r="J16" s="85">
+        <v>1.7999157796002</v>
+      </c>
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
@@ -2540,12 +2633,24 @@
       <c r="T16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
+      <c r="U16" s="85">
+        <v>0.023829849492927</v>
+      </c>
+      <c r="V16" s="85">
+        <v>0.0030180327055444</v>
+      </c>
+      <c r="W16" s="85">
+        <v>0.022276405309349</v>
+      </c>
+      <c r="X16" s="85">
+        <v>0.00069414558063338</v>
+      </c>
+      <c r="Y16" s="85">
+        <v>0.022798362555031</v>
+      </c>
+      <c r="Z16" s="85">
+        <v>0.0018560891430889</v>
+      </c>
       <c r="AA16" s="21"/>
       <c r="AB16" s="21"/>
       <c r="AC16" s="21"/>
@@ -2564,22 +2669,22 @@
         <v>30</v>
       </c>
       <c r="AL16" s="85">
-        <v>2.4838221280761</v>
+        <v>1.7386754896533</v>
       </c>
       <c r="AM16" s="85">
-        <v>0.21164648353336</v>
+        <v>0.14815253847335</v>
       </c>
       <c r="AN16" s="85">
-        <v>5.0659836500124</v>
+        <v>3.5461885550087</v>
       </c>
       <c r="AO16" s="85">
-        <v>0.43167246681755</v>
+        <v>0.30217072677229</v>
       </c>
       <c r="AP16" s="85">
-        <v>7.5583210000597</v>
+        <v>5.2908247000418</v>
       </c>
       <c r="AQ16" s="85">
-        <v>0.64404453241508</v>
+        <v>0.45083117269056</v>
       </c>
       <c r="AR16" s="21"/>
       <c r="AS16" s="21"/>
@@ -2618,12 +2723,24 @@
       <c r="D17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
+      <c r="E17" s="85">
+        <v>773495.95608528</v>
+      </c>
+      <c r="F17" s="85">
+        <v>54.711428848266</v>
+      </c>
+      <c r="G17" s="85">
+        <v>1511076.9484287</v>
+      </c>
+      <c r="H17" s="85">
+        <v>49.489911365779</v>
+      </c>
+      <c r="I17" s="85">
+        <v>2289124.1813289</v>
+      </c>
+      <c r="J17" s="85">
+        <v>51.244341239895</v>
+      </c>
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
@@ -2636,12 +2753,24 @@
       <c r="T17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
+      <c r="U17" s="85">
+        <v>1.0012777985918</v>
+      </c>
+      <c r="V17" s="85">
+        <v>0.00033161079243349</v>
+      </c>
+      <c r="W17" s="85">
+        <v>0.83930900703561</v>
+      </c>
+      <c r="X17" s="85">
+        <v>0.00046012184453137</v>
+      </c>
+      <c r="Y17" s="85">
+        <v>0.8937305209985</v>
+      </c>
+      <c r="Z17" s="85">
+        <v>0.00039586631848243</v>
+      </c>
       <c r="AA17" s="21"/>
       <c r="AB17" s="21"/>
       <c r="AC17" s="21"/>
@@ -2658,22 +2787,22 @@
         <v>30</v>
       </c>
       <c r="AL17" s="85">
-        <v>234.87758381828</v>
+        <v>164.4143086728</v>
       </c>
       <c r="AM17" s="85">
-        <v>20.013918917156</v>
+        <v>14.009743242009</v>
       </c>
       <c r="AN17" s="85">
-        <v>271.98605156082</v>
+        <v>190.39023609257</v>
       </c>
       <c r="AO17" s="85">
-        <v>23.175931453497</v>
+        <v>16.223152017448</v>
       </c>
       <c r="AP17" s="85">
-        <v>513.58012457728</v>
+        <v>359.50608720409</v>
       </c>
       <c r="AQ17" s="85">
-        <v>43.76216241523</v>
+        <v>30.633513690661</v>
       </c>
       <c r="AR17" s="21"/>
       <c r="AS17" s="21"/>
@@ -2710,12 +2839,24 @@
       <c r="D18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
+      <c r="E18" s="85">
+        <v>62369.898899903</v>
+      </c>
+      <c r="F18" s="85">
+        <v>4.4115890446354</v>
+      </c>
+      <c r="G18" s="85">
+        <v>132362.55197858</v>
+      </c>
+      <c r="H18" s="85">
+        <v>4.3350611445565</v>
+      </c>
+      <c r="I18" s="85">
+        <v>194799.15555935</v>
+      </c>
+      <c r="J18" s="85">
+        <v>4.360774518983</v>
+      </c>
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
@@ -2728,12 +2869,24 @@
       <c r="T18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
+      <c r="U18" s="85">
+        <v>0.073924294296234</v>
+      </c>
+      <c r="V18" s="85">
+        <v>0.0046642107633363</v>
+      </c>
+      <c r="W18" s="85">
+        <v>0.064427324290999</v>
+      </c>
+      <c r="X18" s="85">
+        <v>0.00050463175214068</v>
+      </c>
+      <c r="Y18" s="85">
+        <v>0.067618306212758</v>
+      </c>
+      <c r="Z18" s="85">
+        <v>0.0025844212577385</v>
+      </c>
       <c r="AA18" s="21"/>
       <c r="AB18" s="21"/>
       <c r="AC18" s="21"/>
@@ -2750,22 +2903,22 @@
         <v>30</v>
       </c>
       <c r="AL18" s="85">
-        <v>16.119787146412</v>
+        <v>11.283851002489</v>
       </c>
       <c r="AM18" s="85">
-        <v>1.3735670627458</v>
+        <v>0.96149694392207</v>
       </c>
       <c r="AN18" s="85">
-        <v>30.759725652306</v>
+        <v>21.531807956614</v>
       </c>
       <c r="AO18" s="85">
-        <v>2.621036222833</v>
+        <v>1.8347253559831</v>
       </c>
       <c r="AP18" s="85">
-        <v>46.995241029149</v>
+        <v>32.896668720404</v>
       </c>
       <c r="AQ18" s="85">
-        <v>4.0044644880938</v>
+        <v>2.8031251416656</v>
       </c>
       <c r="AR18" s="21"/>
       <c r="AS18" s="21"/>
@@ -2804,12 +2957,24 @@
       <c r="D19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
+      <c r="E19" s="85">
+        <v>20217.881431703</v>
+      </c>
+      <c r="F19" s="85">
+        <v>1.4300645953104</v>
+      </c>
+      <c r="G19" s="85">
+        <v>18378.266373668</v>
+      </c>
+      <c r="H19" s="85">
+        <v>0.60191426706318</v>
+      </c>
+      <c r="I19" s="85">
+        <v>39317.995697452</v>
+      </c>
+      <c r="J19" s="85">
+        <v>0.88017277735424</v>
+      </c>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
@@ -2824,12 +2989,24 @@
       <c r="T19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
+      <c r="U19" s="85">
+        <v>0.026214430592339</v>
+      </c>
+      <c r="V19" s="85">
+        <v>0.0038790637785998</v>
+      </c>
+      <c r="W19" s="85">
+        <v>0.010234359904258</v>
+      </c>
+      <c r="X19" s="85">
+        <v>0.00473599860547</v>
+      </c>
+      <c r="Y19" s="85">
+        <v>0.015603663655453</v>
+      </c>
+      <c r="Z19" s="85">
+        <v>0.0043075311920349</v>
+      </c>
       <c r="AA19" s="21"/>
       <c r="AB19" s="21"/>
       <c r="AC19" s="21"/>
@@ -2848,22 +3025,22 @@
         <v>30</v>
       </c>
       <c r="AL19" s="85">
-        <v>2.5020890161821</v>
+        <v>1.7514623113275</v>
       </c>
       <c r="AM19" s="85">
-        <v>0.21320300506888</v>
+        <v>0.14924210354822</v>
       </c>
       <c r="AN19" s="85">
-        <v>1.9586790291233</v>
+        <v>1.3710753203863</v>
       </c>
       <c r="AO19" s="85">
-        <v>0.1668990400716</v>
+        <v>0.11682932805012</v>
       </c>
       <c r="AP19" s="85">
-        <v>4.5591149597668</v>
+        <v>3.1913804718367</v>
       </c>
       <c r="AQ19" s="85">
-        <v>0.38848218572173</v>
+        <v>0.27193753000521</v>
       </c>
       <c r="AR19" s="21"/>
       <c r="AS19" s="21"/>
@@ -2902,12 +3079,24 @@
       <c r="D20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="E20" s="85">
+        <v>239291.67403989</v>
+      </c>
+      <c r="F20" s="85">
+        <v>16.925737355468</v>
+      </c>
+      <c r="G20" s="85">
+        <v>255508.22595275</v>
+      </c>
+      <c r="H20" s="85">
+        <v>8.3682564734895</v>
+      </c>
+      <c r="I20" s="85">
+        <v>502258.93167504</v>
+      </c>
+      <c r="J20" s="85">
+        <v>11.243570049834</v>
+      </c>
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
@@ -2920,12 +3109,24 @@
       <c r="T20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
+      <c r="U20" s="85">
+        <v>0.88027341902978</v>
+      </c>
+      <c r="V20" s="85">
+        <v>0.0085090301482461</v>
+      </c>
+      <c r="W20" s="85">
+        <v>0.38921875970117</v>
+      </c>
+      <c r="X20" s="85">
+        <v>0.0026653860165211</v>
+      </c>
+      <c r="Y20" s="85">
+        <v>0.55421312523558</v>
+      </c>
+      <c r="Z20" s="85">
+        <v>0.0055872080823836</v>
+      </c>
       <c r="AA20" s="21"/>
       <c r="AB20" s="21"/>
       <c r="AC20" s="21"/>
@@ -2942,22 +3143,22 @@
         <v>30</v>
       </c>
       <c r="AL20" s="85">
-        <v>41.791690800597</v>
+        <v>29.254183560418</v>
       </c>
       <c r="AM20" s="85">
-        <v>3.5610699731189</v>
+        <v>2.4927489811832</v>
       </c>
       <c r="AN20" s="85">
-        <v>30.853219697256</v>
+        <v>21.597253788079</v>
       </c>
       <c r="AO20" s="85">
-        <v>2.6290028504032</v>
+        <v>1.8403019952822</v>
       </c>
       <c r="AP20" s="85">
-        <v>74.340728009917</v>
+        <v>52.038509606942</v>
       </c>
       <c r="AQ20" s="85">
-        <v>6.334573433725</v>
+        <v>4.4342014036075</v>
       </c>
       <c r="AR20" s="21"/>
       <c r="AS20" s="21"/>
@@ -2994,12 +3195,24 @@
       <c r="D21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="E21" s="85">
+        <v>1684.0175256637</v>
+      </c>
+      <c r="F21" s="85">
+        <v>0.11911504424779</v>
+      </c>
+      <c r="G21" s="85">
+        <v>11031.169382729</v>
+      </c>
+      <c r="H21" s="85">
+        <v>0.36128642924494</v>
+      </c>
+      <c r="I21" s="85">
+        <v>12504.100952353</v>
+      </c>
+      <c r="J21" s="85">
+        <v>0.2799168438859</v>
+      </c>
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
@@ -3012,12 +3225,24 @@
       <c r="T21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
+      <c r="U21" s="85">
+        <v>0.0083380530973451</v>
+      </c>
+      <c r="V21" s="85">
+        <v>0</v>
+      </c>
+      <c r="W21" s="85">
+        <v>0.022278285341264</v>
+      </c>
+      <c r="X21" s="85">
+        <v>0.0086868247477181</v>
+      </c>
+      <c r="Y21" s="85">
+        <v>0.017594367307307</v>
+      </c>
+      <c r="Z21" s="85">
+        <v>0.004343412373859</v>
+      </c>
       <c r="AA21" s="21"/>
       <c r="AB21" s="21"/>
       <c r="AC21" s="21"/>
@@ -3034,22 +3259,22 @@
         <v>30</v>
       </c>
       <c r="AL21" s="85">
-        <v>0.28764811132984</v>
+        <v>0.20135367793089</v>
       </c>
       <c r="AM21" s="85">
-        <v>0.024510495566415</v>
+        <v>0.017157346896491</v>
       </c>
       <c r="AN21" s="85">
-        <v>1.3011481268325</v>
+        <v>0.91080368878276</v>
       </c>
       <c r="AO21" s="85">
-        <v>0.1108708318874</v>
+        <v>0.077609582321179</v>
       </c>
       <c r="AP21" s="85">
-        <v>1.5693863012194</v>
+        <v>1.0985704108536</v>
       </c>
       <c r="AQ21" s="85">
-        <v>0.13372740672691</v>
+        <v>0.093609184708834</v>
       </c>
       <c r="AR21" s="21"/>
       <c r="AS21" s="21"/>
@@ -3088,12 +3313,24 @@
       <c r="D22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="E22" s="85">
+        <v>107870.60917195</v>
+      </c>
+      <c r="F22" s="85">
+        <v>7.6299754537821</v>
+      </c>
+      <c r="G22" s="85">
+        <v>147037.61160351</v>
+      </c>
+      <c r="H22" s="85">
+        <v>4.8156901428882</v>
+      </c>
+      <c r="I22" s="85">
+        <v>257361.26082157</v>
+      </c>
+      <c r="J22" s="85">
+        <v>5.7612900073486</v>
+      </c>
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
@@ -3108,12 +3345,24 @@
       <c r="T22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
+      <c r="U22" s="85">
+        <v>0.12159767456883</v>
+      </c>
+      <c r="V22" s="85">
+        <v>0.0031693306753485</v>
+      </c>
+      <c r="W22" s="85">
+        <v>0.081265632842533</v>
+      </c>
+      <c r="X22" s="85">
+        <v>0.001870223494642</v>
+      </c>
+      <c r="Y22" s="85">
+        <v>0.094817198862567</v>
+      </c>
+      <c r="Z22" s="85">
+        <v>0.0025197770849953</v>
+      </c>
       <c r="AA22" s="21"/>
       <c r="AB22" s="21"/>
       <c r="AC22" s="21"/>
@@ -3132,22 +3381,22 @@
         <v>30</v>
       </c>
       <c r="AL22" s="85">
-        <v>14.103222634805</v>
+        <v>9.8722558443632</v>
       </c>
       <c r="AM22" s="85">
-        <v>1.2017356007117</v>
+        <v>0.84121492049819</v>
       </c>
       <c r="AN22" s="85">
-        <v>16.837796246139</v>
+        <v>11.786457372297</v>
       </c>
       <c r="AO22" s="85">
-        <v>1.4347486181335</v>
+        <v>1.0043240326934</v>
       </c>
       <c r="AP22" s="85">
-        <v>31.329854131148</v>
+        <v>21.930897891804</v>
       </c>
       <c r="AQ22" s="85">
-        <v>2.6696168705152</v>
+        <v>1.8687318093606</v>
       </c>
       <c r="AR22" s="21"/>
       <c r="AS22" s="21"/>
@@ -3186,12 +3435,24 @@
       <c r="D23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="E23" s="85">
+        <v>70822.223607351</v>
+      </c>
+      <c r="F23" s="85">
+        <v>5.0094444803307</v>
+      </c>
+      <c r="G23" s="85">
+        <v>112147.03299825</v>
+      </c>
+      <c r="H23" s="85">
+        <v>3.6729742511061</v>
+      </c>
+      <c r="I23" s="85">
+        <v>184134.17580552</v>
+      </c>
+      <c r="J23" s="85">
+        <v>4.1220282481256</v>
+      </c>
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
@@ -3204,12 +3465,24 @@
       <c r="T23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
+      <c r="U23" s="85">
+        <v>0.084656049350817</v>
+      </c>
+      <c r="V23" s="85">
+        <v>0.0022254940651604</v>
+      </c>
+      <c r="W23" s="85">
+        <v>0.046363629506056</v>
+      </c>
+      <c r="X23" s="85">
+        <v>0.0020520246965818</v>
+      </c>
+      <c r="Y23" s="85">
+        <v>0.059229882573896</v>
+      </c>
+      <c r="Z23" s="85">
+        <v>0.0021387593808711</v>
+      </c>
       <c r="AA23" s="21"/>
       <c r="AB23" s="21"/>
       <c r="AC23" s="21"/>
@@ -3226,22 +3499,22 @@
         <v>30</v>
       </c>
       <c r="AL23" s="85">
-        <v>27.845350384248</v>
+        <v>19.491745268974</v>
       </c>
       <c r="AM23" s="85">
-        <v>2.3727023062418</v>
+        <v>1.6608916143693</v>
       </c>
       <c r="AN23" s="85">
-        <v>19.670402445902</v>
+        <v>13.769281712132</v>
       </c>
       <c r="AO23" s="85">
-        <v>1.6761149924154</v>
+        <v>1.1732804946907</v>
       </c>
       <c r="AP23" s="85">
-        <v>48.670972437104</v>
+        <v>34.069680705973</v>
       </c>
       <c r="AQ23" s="85">
-        <v>4.1472535613657</v>
+        <v>2.903077492956</v>
       </c>
       <c r="AR23" s="21"/>
       <c r="AS23" s="21"/>
@@ -3280,12 +3553,24 @@
       <c r="D24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
+      <c r="E24" s="85">
+        <v>37083.846351644</v>
+      </c>
+      <c r="F24" s="85">
+        <v>2.6230392093534</v>
+      </c>
+      <c r="G24" s="85">
+        <v>27574.096585433</v>
+      </c>
+      <c r="H24" s="85">
+        <v>0.90309073765141</v>
+      </c>
+      <c r="I24" s="85">
+        <v>66157.116621417</v>
+      </c>
+      <c r="J24" s="85">
+        <v>1.4809934241433</v>
+      </c>
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
@@ -3300,12 +3585,24 @@
       <c r="T24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
+      <c r="U24" s="85">
+        <v>0.028617253407403</v>
+      </c>
+      <c r="V24" s="85">
+        <v>0.0021965977427272</v>
+      </c>
+      <c r="W24" s="85">
+        <v>0.011439065786611</v>
+      </c>
+      <c r="X24" s="85">
+        <v>0.00055935973826301</v>
+      </c>
+      <c r="Y24" s="85">
+        <v>0.017210936827197</v>
+      </c>
+      <c r="Z24" s="85">
+        <v>0.0013779787404951</v>
+      </c>
       <c r="AA24" s="21"/>
       <c r="AB24" s="21"/>
       <c r="AC24" s="21"/>
@@ -3324,22 +3621,22 @@
         <v>30</v>
       </c>
       <c r="AL24" s="85">
-        <v>11.039748792845</v>
+        <v>7.7278241549918</v>
       </c>
       <c r="AM24" s="85">
-        <v>0.94069699463836</v>
+        <v>0.65848789624685</v>
       </c>
       <c r="AN24" s="85">
-        <v>7.0342355370255</v>
+        <v>4.9239648759178</v>
       </c>
       <c r="AO24" s="85">
-        <v>0.59938721010994</v>
+        <v>0.41957104707696</v>
       </c>
       <c r="AP24" s="85">
-        <v>18.553812423677</v>
+        <v>12.987668696574</v>
       </c>
       <c r="AQ24" s="85">
-        <v>1.5809703566215</v>
+        <v>1.1066792496351</v>
       </c>
       <c r="AR24" s="21"/>
       <c r="AS24" s="21"/>
@@ -3378,12 +3675,24 @@
       <c r="D25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="E25" s="85">
+        <v>15178.723686364</v>
+      </c>
+      <c r="F25" s="85">
+        <v>1.0736315483496</v>
+      </c>
+      <c r="G25" s="85">
+        <v>18391.660423529</v>
+      </c>
+      <c r="H25" s="85">
+        <v>0.60235294117647</v>
+      </c>
+      <c r="I25" s="85">
+        <v>33981.168791813</v>
+      </c>
+      <c r="J25" s="85">
+        <v>0.76070255318664</v>
+      </c>
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
       <c r="M25" s="21"/>
@@ -3396,12 +3705,24 @@
       <c r="T25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
+      <c r="U25" s="85">
+        <v>0.013123176797365</v>
+      </c>
+      <c r="V25" s="85">
+        <v>0.005034569253219</v>
+      </c>
+      <c r="W25" s="85">
+        <v>0.0090352941176471</v>
+      </c>
+      <c r="X25" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="85">
+        <v>0.010408822698032</v>
+      </c>
+      <c r="Z25" s="85">
+        <v>0.0025172846266095</v>
+      </c>
       <c r="AA25" s="21"/>
       <c r="AB25" s="21"/>
       <c r="AC25" s="21"/>
@@ -3418,22 +3739,22 @@
         <v>30</v>
       </c>
       <c r="AL25" s="85">
-        <v>10.183950918024</v>
+        <v>7.1287656426171</v>
       </c>
       <c r="AM25" s="85">
-        <v>0.86777445772487</v>
+        <v>0.60744212040741</v>
       </c>
       <c r="AN25" s="85">
-        <v>10.951108212594</v>
+        <v>7.6657757488157</v>
       </c>
       <c r="AO25" s="85">
-        <v>0.93314393079512</v>
+        <v>0.65320075155659</v>
       </c>
       <c r="AP25" s="85">
-        <v>21.450307893664</v>
+        <v>15.015215525565</v>
       </c>
       <c r="AQ25" s="85">
-        <v>1.8277807356191</v>
+        <v>1.2794465149334</v>
       </c>
       <c r="AR25" s="21"/>
       <c r="AS25" s="21"/>
@@ -3470,12 +3791,24 @@
       <c r="D26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="E26" s="85">
+        <v>3374.4824671533</v>
+      </c>
+      <c r="F26" s="85">
+        <v>0.23868613138686</v>
+      </c>
+      <c r="G26" s="85">
+        <v>1837.2526066584</v>
+      </c>
+      <c r="H26" s="85">
+        <v>0.060172626387176</v>
+      </c>
+      <c r="I26" s="85">
+        <v>5367.3343568124</v>
+      </c>
+      <c r="J26" s="85">
+        <v>0.12015316406707</v>
+      </c>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
@@ -3488,12 +3821,24 @@
       <c r="T26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
+      <c r="U26" s="85">
+        <v>0.0035802919708029</v>
+      </c>
+      <c r="V26" s="85">
+        <v>0</v>
+      </c>
+      <c r="W26" s="85">
+        <v>0.00060172626387176</v>
+      </c>
+      <c r="X26" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="85">
+        <v>0.0016025243414006</v>
+      </c>
+      <c r="Z26" s="85">
+        <v>0</v>
+      </c>
       <c r="AA26" s="21"/>
       <c r="AB26" s="21"/>
       <c r="AC26" s="21"/>
@@ -3510,22 +3855,22 @@
         <v>30</v>
       </c>
       <c r="AL26" s="85">
-        <v>0.87093030339499</v>
+        <v>0.60965121237649</v>
       </c>
       <c r="AM26" s="85">
-        <v>0.074211971152287</v>
+        <v>0.051948379806601</v>
       </c>
       <c r="AN26" s="85">
-        <v>0.60350441074038</v>
+        <v>0.42245308751827</v>
       </c>
       <c r="AO26" s="85">
-        <v>0.051424610839188</v>
+        <v>0.035997227587431</v>
       </c>
       <c r="AP26" s="85">
-        <v>1.5109019819301</v>
+        <v>1.0576313873511</v>
       </c>
       <c r="AQ26" s="85">
-        <v>0.12874395788027</v>
+        <v>0.090120770516186</v>
       </c>
       <c r="AR26" s="21"/>
       <c r="AS26" s="21"/>
@@ -3564,12 +3909,24 @@
       <c r="D27" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="E27" s="85">
+        <v>5052.0525769912</v>
+      </c>
+      <c r="F27" s="85">
+        <v>0.35734513274336</v>
+      </c>
+      <c r="G27" s="85">
+        <v>3676.4186490114</v>
+      </c>
+      <c r="H27" s="85">
+        <v>0.12040792050482</v>
+      </c>
+      <c r="I27" s="85">
+        <v>8934.9948743985</v>
+      </c>
+      <c r="J27" s="85">
+        <v>0.20001882381697</v>
+      </c>
       <c r="K27" s="21"/>
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
@@ -3584,12 +3941,24 @@
       <c r="T27" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
+      <c r="U27" s="85">
+        <v>0.0047646017699115</v>
+      </c>
+      <c r="V27" s="85">
+        <v>0</v>
+      </c>
+      <c r="W27" s="85">
+        <v>0.0012040792050482</v>
+      </c>
+      <c r="X27" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="85">
+        <v>0.0024004147868423</v>
+      </c>
+      <c r="Z27" s="85">
+        <v>0</v>
+      </c>
       <c r="AA27" s="21"/>
       <c r="AB27" s="21"/>
       <c r="AC27" s="21"/>
@@ -3608,22 +3977,22 @@
         <v>30</v>
       </c>
       <c r="AL27" s="85">
-        <v>1.0510219452436</v>
+        <v>0.73571536167054</v>
       </c>
       <c r="AM27" s="85">
-        <v>0.08955757995421</v>
+        <v>0.062690305967947</v>
       </c>
       <c r="AN27" s="85">
-        <v>0.30194076412533</v>
+        <v>0.21135853488773</v>
       </c>
       <c r="AO27" s="85">
-        <v>0.025728372511119</v>
+        <v>0.018009860757784</v>
       </c>
       <c r="AP27" s="85">
-        <v>1.4091420852377</v>
+        <v>0.98639945966642</v>
       </c>
       <c r="AQ27" s="85">
-        <v>0.12007299708311</v>
+        <v>0.084051097958176</v>
       </c>
       <c r="AR27" s="21"/>
       <c r="AS27" s="21"/>
@@ -3664,12 +4033,24 @@
       <c r="D28" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="E28" s="85">
+        <v>82571.661792042</v>
+      </c>
+      <c r="F28" s="85">
+        <v>5.8405135327175</v>
+      </c>
+      <c r="G28" s="85">
+        <v>53305.200257123</v>
+      </c>
+      <c r="H28" s="85">
+        <v>1.7458208457242</v>
+      </c>
+      <c r="I28" s="85">
+        <v>139445.95474165</v>
+      </c>
+      <c r="J28" s="85">
+        <v>3.121637588554</v>
+      </c>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
@@ -3684,12 +4065,24 @@
       <c r="T28" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="21"/>
+      <c r="U28" s="85">
+        <v>0.061983147083522</v>
+      </c>
+      <c r="V28" s="85">
+        <v>0.0019104480218723</v>
+      </c>
+      <c r="W28" s="85">
+        <v>0.018662287662291</v>
+      </c>
+      <c r="X28" s="85">
+        <v>0.00078394026575791</v>
+      </c>
+      <c r="Y28" s="85">
+        <v>0.033218096427824</v>
+      </c>
+      <c r="Z28" s="85">
+        <v>0.0013471941438151</v>
+      </c>
       <c r="AA28" s="21"/>
       <c r="AB28" s="21"/>
       <c r="AC28" s="21"/>
@@ -3708,22 +4101,22 @@
         <v>30</v>
       </c>
       <c r="AL28" s="85">
-        <v>17.047623916873</v>
+        <v>11.933336741811</v>
       </c>
       <c r="AM28" s="85">
-        <v>1.4526280339567</v>
+        <v>1.0168396237697</v>
       </c>
       <c r="AN28" s="85">
-        <v>8.5874039428145</v>
+        <v>6.0111827599701</v>
       </c>
       <c r="AO28" s="85">
-        <v>0.73173268996722</v>
+        <v>0.51221288297705</v>
       </c>
       <c r="AP28" s="85">
-        <v>26.440922523701</v>
+        <v>18.508645766591</v>
       </c>
       <c r="AQ28" s="85">
-        <v>2.2530310082445</v>
+        <v>1.5771217057712</v>
       </c>
       <c r="AR28" s="21"/>
       <c r="AS28" s="21"/>
@@ -3766,12 +4159,24 @@
       <c r="D29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="E29" s="85">
+        <v>77500.266967573</v>
+      </c>
+      <c r="F29" s="85">
+        <v>5.4818002713003</v>
+      </c>
+      <c r="G29" s="85">
+        <v>29405.608885008</v>
+      </c>
+      <c r="H29" s="85">
+        <v>0.96307536084717</v>
+      </c>
+      <c r="I29" s="85">
+        <v>110844.57144956</v>
+      </c>
+      <c r="J29" s="85">
+        <v>2.4813669307594</v>
+      </c>
       <c r="K29" s="21"/>
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
@@ -3788,12 +4193,24 @@
       <c r="T29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
+      <c r="U29" s="85">
+        <v>0.085794754860797</v>
+      </c>
+      <c r="V29" s="85">
+        <v>0.0039215224200137</v>
+      </c>
+      <c r="W29" s="85">
+        <v>0.015648642924494</v>
+      </c>
+      <c r="X29" s="85">
+        <v>0.00096019392715506</v>
+      </c>
+      <c r="Y29" s="85">
+        <v>0.039217736535092</v>
+      </c>
+      <c r="Z29" s="85">
+        <v>0.0024408581735844</v>
+      </c>
       <c r="AA29" s="21"/>
       <c r="AB29" s="21"/>
       <c r="AC29" s="21"/>
@@ -3870,12 +4287,24 @@
       <c r="D30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="E30" s="85">
+        <v>6739.2938105678</v>
+      </c>
+      <c r="F30" s="85">
+        <v>0.47668819843679</v>
+      </c>
+      <c r="G30" s="85">
+        <v>12866.508553693</v>
+      </c>
+      <c r="H30" s="85">
+        <v>0.42139638790165</v>
+      </c>
+      <c r="I30" s="85">
+        <v>19653.996847222</v>
+      </c>
+      <c r="J30" s="85">
+        <v>0.43997443624146</v>
+      </c>
       <c r="K30" s="21"/>
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
@@ -3888,12 +4317,24 @@
       <c r="T30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="21"/>
+      <c r="U30" s="85">
+        <v>0.013111775725082</v>
+      </c>
+      <c r="V30" s="85">
+        <v>0.0021011238126037</v>
+      </c>
+      <c r="W30" s="85">
+        <v>0.0060203960252412</v>
+      </c>
+      <c r="X30" s="85">
+        <v>0.0017977426522005</v>
+      </c>
+      <c r="Y30" s="85">
+        <v>0.0084030996043878</v>
+      </c>
+      <c r="Z30" s="85">
+        <v>0.0019494332324021</v>
+      </c>
       <c r="AA30" s="21"/>
       <c r="AB30" s="21"/>
       <c r="AC30" s="21"/>
@@ -3962,12 +4403,24 @@
       <c r="D31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
+      <c r="E31" s="85">
+        <v>3374.4824671533</v>
+      </c>
+      <c r="F31" s="85">
+        <v>0.23868613138686</v>
+      </c>
+      <c r="G31" s="85">
+        <v>0</v>
+      </c>
+      <c r="H31" s="85">
+        <v>0</v>
+      </c>
+      <c r="I31" s="85">
+        <v>3582.5305411971</v>
+      </c>
+      <c r="J31" s="85">
+        <v>0.080198540145985</v>
+      </c>
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
@@ -3980,12 +4433,24 @@
       <c r="T31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
+      <c r="U31" s="85">
+        <v>0.0023868613138686</v>
+      </c>
+      <c r="V31" s="85">
+        <v>0</v>
+      </c>
+      <c r="W31" s="85">
+        <v>0</v>
+      </c>
+      <c r="X31" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="85">
+        <v>0.00080198540145985</v>
+      </c>
+      <c r="Z31" s="85">
+        <v>0</v>
+      </c>
       <c r="AA31" s="21"/>
       <c r="AB31" s="21"/>
       <c r="AC31" s="21"/>
@@ -4058,12 +4523,24 @@
       <c r="D32" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
+      <c r="E32" s="85">
+        <v>3368.0350513274</v>
+      </c>
+      <c r="F32" s="85">
+        <v>0.23823008849558</v>
+      </c>
+      <c r="G32" s="85">
+        <v>3676.4186490114</v>
+      </c>
+      <c r="H32" s="85">
+        <v>0.12040792050482</v>
+      </c>
+      <c r="I32" s="85">
+        <v>7147.1520640339</v>
+      </c>
+      <c r="J32" s="85">
+        <v>0.15999616894972</v>
+      </c>
       <c r="K32" s="21"/>
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
@@ -4080,12 +4557,24 @@
       <c r="T32" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
+      <c r="U32" s="85">
+        <v>0.0023823008849558</v>
+      </c>
+      <c r="V32" s="85">
+        <v>0</v>
+      </c>
+      <c r="W32" s="85">
+        <v>0.0012040792050482</v>
+      </c>
+      <c r="X32" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="85">
+        <v>0.0015999616894972</v>
+      </c>
+      <c r="Z32" s="85">
+        <v>0</v>
+      </c>
       <c r="AA32" s="21"/>
       <c r="AB32" s="21"/>
       <c r="AC32" s="21"/>
@@ -4166,12 +4655,24 @@
       <c r="D33" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
+      <c r="E33" s="85">
+        <v>441470.48835693</v>
+      </c>
+      <c r="F33" s="85">
+        <v>31.226383308572</v>
+      </c>
+      <c r="G33" s="85">
+        <v>406214.60246249</v>
+      </c>
+      <c r="H33" s="85">
+        <v>13.304103865961</v>
+      </c>
+      <c r="I33" s="85">
+        <v>863306.84353226</v>
+      </c>
+      <c r="J33" s="85">
+        <v>19.325989758678</v>
+      </c>
       <c r="K33" s="21"/>
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
@@ -4188,12 +4689,24 @@
       <c r="T33" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="21"/>
+      <c r="U33" s="85">
+        <v>0.39090028421937</v>
+      </c>
+      <c r="V33" s="85">
+        <v>0.0011258534838333</v>
+      </c>
+      <c r="W33" s="85">
+        <v>0.14146708638573</v>
+      </c>
+      <c r="X33" s="85">
+        <v>0.00055349547077112</v>
+      </c>
+      <c r="Y33" s="85">
+        <v>0.22527664085783</v>
+      </c>
+      <c r="Z33" s="85">
+        <v>0.0008396744773022</v>
+      </c>
       <c r="AA33" s="21"/>
       <c r="AB33" s="21"/>
       <c r="AC33" s="21"/>
@@ -4214,22 +4727,22 @@
         <v>30</v>
       </c>
       <c r="AL33" s="85">
-        <v>767.96935772747</v>
+        <v>460.78161463649</v>
       </c>
       <c r="AM33" s="85">
-        <v>65.438668971958</v>
+        <v>39.263201383175</v>
       </c>
       <c r="AN33" s="85">
-        <v>562.70173941738</v>
+        <v>337.62104365043</v>
       </c>
       <c r="AO33" s="85">
-        <v>47.947815215755</v>
+        <v>28.768689129453</v>
       </c>
       <c r="AP33" s="85">
-        <v>1361.9552903075</v>
+        <v>817.17317418449</v>
       </c>
       <c r="AQ33" s="85">
-        <v>116.0522102871</v>
+        <v>69.631326172261</v>
       </c>
       <c r="AR33" s="23"/>
       <c r="AS33" s="23"/>
@@ -4274,12 +4787,24 @@
       <c r="D34" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
+      <c r="E34" s="85">
+        <v>117945.70095472</v>
+      </c>
+      <c r="F34" s="85">
+        <v>8.342613526258</v>
+      </c>
+      <c r="G34" s="85">
+        <v>84549.975184484</v>
+      </c>
+      <c r="H34" s="85">
+        <v>2.7691315006891</v>
+      </c>
+      <c r="I34" s="85">
+        <v>207353.73887791</v>
+      </c>
+      <c r="J34" s="85">
+        <v>4.6418214612802</v>
+      </c>
       <c r="K34" s="21"/>
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
@@ -4296,12 +4821,24 @@
       <c r="T34" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="21"/>
+      <c r="U34" s="85">
+        <v>0.09057759834636</v>
+      </c>
+      <c r="V34" s="85">
+        <v>0.001173189108412</v>
+      </c>
+      <c r="W34" s="85">
+        <v>0.027691315006891</v>
+      </c>
+      <c r="X34" s="85">
+        <v>0.00040866981784853</v>
+      </c>
+      <c r="Y34" s="85">
+        <v>0.048821106208952</v>
+      </c>
+      <c r="Z34" s="85">
+        <v>0.00079092946313025</v>
+      </c>
       <c r="AA34" s="21"/>
       <c r="AB34" s="21"/>
       <c r="AC34" s="21"/>
@@ -4328,16 +4865,16 @@
         <v>2.0369871310936</v>
       </c>
       <c r="AN34" s="85">
-        <v>333.44576544539</v>
+        <v>14.795436574466</v>
       </c>
       <c r="AO34" s="85">
-        <v>28.412913673601</v>
+        <v>1.2607191505103</v>
       </c>
       <c r="AP34" s="85">
-        <v>349.30610181828</v>
+        <v>39.752412382899</v>
       </c>
       <c r="AQ34" s="85">
-        <v>29.764372935935</v>
+        <v>3.3873030591468</v>
       </c>
       <c r="AR34" s="23"/>
       <c r="AS34" s="23"/>
@@ -4380,12 +4917,24 @@
       <c r="D35" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
+      <c r="E35" s="85">
+        <v>1684.0175256637</v>
+      </c>
+      <c r="F35" s="85">
+        <v>0.11911504424779</v>
+      </c>
+      <c r="G35" s="85">
+        <v>3676.4186490114</v>
+      </c>
+      <c r="H35" s="85">
+        <v>0.12040792050482</v>
+      </c>
+      <c r="I35" s="85">
+        <v>5359.3092536693</v>
+      </c>
+      <c r="J35" s="85">
+        <v>0.11997351408246</v>
+      </c>
       <c r="K35" s="21"/>
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
@@ -4400,12 +4949,24 @@
       <c r="T35" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="21"/>
+      <c r="U35" s="85">
+        <v>0.0011911504424779</v>
+      </c>
+      <c r="V35" s="85">
+        <v>0</v>
+      </c>
+      <c r="W35" s="85">
+        <v>0.0012040792050482</v>
+      </c>
+      <c r="X35" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="85">
+        <v>0.0011997351408246</v>
+      </c>
+      <c r="Z35" s="85">
+        <v>0</v>
+      </c>
       <c r="AA35" s="21"/>
       <c r="AB35" s="21"/>
       <c r="AC35" s="21"/>
@@ -4480,12 +5041,24 @@
       <c r="D36" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
+      <c r="E36" s="85">
+        <v>3368.0350513274</v>
+      </c>
+      <c r="F36" s="85">
+        <v>0.23823008849558</v>
+      </c>
+      <c r="G36" s="85">
+        <v>1839.1660423529</v>
+      </c>
+      <c r="H36" s="85">
+        <v>0.060235294117647</v>
+      </c>
+      <c r="I36" s="85">
+        <v>5362.3482484186</v>
+      </c>
+      <c r="J36" s="85">
+        <v>0.12004154502863</v>
+      </c>
       <c r="K36" s="21"/>
       <c r="L36" s="21"/>
       <c r="M36" s="21"/>
@@ -4500,12 +5073,24 @@
       <c r="T36" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="21"/>
-      <c r="Z36" s="21"/>
+      <c r="U36" s="85">
+        <v>0.0023823008849558</v>
+      </c>
+      <c r="V36" s="85">
+        <v>0</v>
+      </c>
+      <c r="W36" s="85">
+        <v>0.00060235294117647</v>
+      </c>
+      <c r="X36" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="85">
+        <v>0.0012004154502863</v>
+      </c>
+      <c r="Z36" s="85">
+        <v>0</v>
+      </c>
       <c r="AA36" s="21"/>
       <c r="AB36" s="21"/>
       <c r="AC36" s="21"/>
@@ -4582,12 +5167,24 @@
       <c r="D37" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
+      <c r="E37" s="85">
+        <v>594890.16341962</v>
+      </c>
+      <c r="F37" s="85">
+        <v>42.078165493185</v>
+      </c>
+      <c r="G37" s="85">
+        <v>1126892.1563248</v>
+      </c>
+      <c r="H37" s="85">
+        <v>36.907315006891</v>
+      </c>
+      <c r="I37" s="85">
+        <v>1726289.4332436</v>
+      </c>
+      <c r="J37" s="85">
+        <v>38.644720770286</v>
+      </c>
       <c r="K37" s="21"/>
       <c r="L37" s="21"/>
       <c r="M37" s="21"/>
@@ -4604,12 +5201,24 @@
       <c r="T37" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="21"/>
+      <c r="U37" s="85">
+        <v>0.45177208836638</v>
+      </c>
+      <c r="V37" s="85">
+        <v>0.00030293301267637</v>
+      </c>
+      <c r="W37" s="85">
+        <v>0.37870766374121</v>
+      </c>
+      <c r="X37" s="85">
+        <v>0.00018249304549426</v>
+      </c>
+      <c r="Y37" s="85">
+        <v>0.40325731041527</v>
+      </c>
+      <c r="Z37" s="85">
+        <v>0.00024271302908532</v>
+      </c>
       <c r="AA37" s="21"/>
       <c r="AB37" s="21"/>
       <c r="AC37" s="21"/>
@@ -4688,12 +5297,24 @@
       <c r="D38" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
+      <c r="E38" s="85">
+        <v>200507.69162302</v>
+      </c>
+      <c r="F38" s="85">
+        <v>14.182442994639</v>
+      </c>
+      <c r="G38" s="85">
+        <v>251833.72073943</v>
+      </c>
+      <c r="H38" s="85">
+        <v>8.2479112207152</v>
+      </c>
+      <c r="I38" s="85">
+        <v>457514.18004168</v>
+      </c>
+      <c r="J38" s="85">
+        <v>10.241913896753</v>
+      </c>
       <c r="K38" s="21"/>
       <c r="L38" s="21"/>
       <c r="M38" s="21"/>
@@ -4708,12 +5329,24 @@
       <c r="T38" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
+      <c r="U38" s="85">
+        <v>0.15731394612751</v>
+      </c>
+      <c r="V38" s="85">
+        <v>0.0010856304185637</v>
+      </c>
+      <c r="W38" s="85">
+        <v>0.085489623558425</v>
+      </c>
+      <c r="X38" s="85">
+        <v>0.00011582257626844</v>
+      </c>
+      <c r="Y38" s="85">
+        <v>0.10962259594164</v>
+      </c>
+      <c r="Z38" s="85">
+        <v>0.00060072649741609</v>
+      </c>
       <c r="AA38" s="21"/>
       <c r="AB38" s="21"/>
       <c r="AC38" s="21"/>
@@ -4788,12 +5421,24 @@
       <c r="D39" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
+      <c r="E39" s="85">
+        <v>0</v>
+      </c>
+      <c r="F39" s="85">
+        <v>0</v>
+      </c>
+      <c r="G39" s="85">
+        <v>7352.8372980228</v>
+      </c>
+      <c r="H39" s="85">
+        <v>0.24081584100965</v>
+      </c>
+      <c r="I39" s="85">
+        <v>7142.9328866094</v>
+      </c>
+      <c r="J39" s="85">
+        <v>0.15990171843041</v>
+      </c>
       <c r="K39" s="21"/>
       <c r="L39" s="21"/>
       <c r="M39" s="21"/>
@@ -4808,12 +5453,24 @@
       <c r="T39" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
+      <c r="U39" s="85">
+        <v>0</v>
+      </c>
+      <c r="V39" s="85">
+        <v>0</v>
+      </c>
+      <c r="W39" s="85">
+        <v>0.0024081584100965</v>
+      </c>
+      <c r="X39" s="85">
+        <v>0.0037754345526031</v>
+      </c>
+      <c r="Y39" s="85">
+        <v>0.0015990171843041</v>
+      </c>
+      <c r="Z39" s="85">
+        <v>0.0018877172763016</v>
+      </c>
       <c r="AA39" s="21"/>
       <c r="AB39" s="21"/>
       <c r="AC39" s="21"/>
@@ -4888,12 +5545,24 @@
       <c r="D40" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
+      <c r="E40" s="85">
+        <v>0</v>
+      </c>
+      <c r="F40" s="85">
+        <v>0</v>
+      </c>
+      <c r="G40" s="85">
+        <v>0</v>
+      </c>
+      <c r="H40" s="85">
+        <v>0</v>
+      </c>
+      <c r="I40" s="85">
+        <v>0</v>
+      </c>
+      <c r="J40" s="85">
+        <v>0</v>
+      </c>
       <c r="K40" s="21"/>
       <c r="L40" s="21"/>
       <c r="M40" s="21"/>
@@ -4908,12 +5577,24 @@
       <c r="T40" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="21"/>
-      <c r="Z40" s="21"/>
+      <c r="U40" s="85">
+        <v>0</v>
+      </c>
+      <c r="V40" s="85">
+        <v>0</v>
+      </c>
+      <c r="W40" s="85">
+        <v>0</v>
+      </c>
+      <c r="X40" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="85">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="85">
+        <v>0</v>
+      </c>
       <c r="AA40" s="21"/>
       <c r="AB40" s="21"/>
       <c r="AC40" s="21"/>
@@ -4988,12 +5669,24 @@
       <c r="D41" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
+      <c r="E41" s="85">
+        <v>5058.499992817</v>
+      </c>
+      <c r="F41" s="85">
+        <v>0.35780117563465</v>
+      </c>
+      <c r="G41" s="85">
+        <v>0</v>
+      </c>
+      <c r="H41" s="85">
+        <v>0</v>
+      </c>
+      <c r="I41" s="85">
+        <v>5370.3733515617</v>
+      </c>
+      <c r="J41" s="85">
+        <v>0.12022119501324</v>
+      </c>
       <c r="K41" s="21"/>
       <c r="L41" s="21"/>
       <c r="M41" s="21"/>
@@ -5008,12 +5701,24 @@
       <c r="T41" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="21"/>
-      <c r="X41" s="21"/>
-      <c r="Y41" s="21"/>
-      <c r="Z41" s="21"/>
+      <c r="U41" s="85">
+        <v>0.0035780117563465</v>
+      </c>
+      <c r="V41" s="85">
+        <v>0.0017586884821336</v>
+      </c>
+      <c r="W41" s="85">
+        <v>0</v>
+      </c>
+      <c r="X41" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="85">
+        <v>0.0012022119501324</v>
+      </c>
+      <c r="Z41" s="85">
+        <v>0.00087934424106681</v>
+      </c>
       <c r="AA41" s="21"/>
       <c r="AB41" s="21"/>
       <c r="AC41" s="21"/>
@@ -5090,12 +5795,24 @@
       <c r="D42" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
+      <c r="E42" s="85">
+        <v>192148.85444505</v>
+      </c>
+      <c r="F42" s="85">
+        <v>13.591200180867</v>
+      </c>
+      <c r="G42" s="85">
+        <v>619544.46932557</v>
+      </c>
+      <c r="H42" s="85">
+        <v>20.290959309494</v>
+      </c>
+      <c r="I42" s="85">
+        <v>805853.55429944</v>
+      </c>
+      <c r="J42" s="85">
+        <v>18.039840242276</v>
+      </c>
       <c r="K42" s="21"/>
       <c r="L42" s="21"/>
       <c r="M42" s="21"/>
@@ -5112,12 +5829,24 @@
       <c r="T42" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="21"/>
-      <c r="Y42" s="21"/>
-      <c r="Z42" s="21"/>
+      <c r="U42" s="85">
+        <v>0.15617752083199</v>
+      </c>
+      <c r="V42" s="85">
+        <v>0.0017240339118688</v>
+      </c>
+      <c r="W42" s="85">
+        <v>0.217961523174</v>
+      </c>
+      <c r="X42" s="85">
+        <v>0.00013541714055491</v>
+      </c>
+      <c r="Y42" s="85">
+        <v>0.19720209838709</v>
+      </c>
+      <c r="Z42" s="85">
+        <v>0.00092972552621185</v>
+      </c>
       <c r="AA42" s="21"/>
       <c r="AB42" s="21"/>
       <c r="AC42" s="21"/>
@@ -5138,22 +5867,22 @@
         <v>30</v>
       </c>
       <c r="AL42" s="85">
-        <v>116.15660681487</v>
+        <v>52.27047306669</v>
       </c>
       <c r="AM42" s="85">
-        <v>9.8977044666947</v>
+        <v>4.4539670100126</v>
       </c>
       <c r="AN42" s="85">
-        <v>347.37042719466</v>
+        <v>156.31669223759</v>
       </c>
       <c r="AO42" s="85">
-        <v>29.599434101257</v>
+        <v>13.319745345565</v>
       </c>
       <c r="AP42" s="85">
-        <v>460.77195171345</v>
+        <v>207.34737827105</v>
       </c>
       <c r="AQ42" s="85">
-        <v>39.262378005503</v>
+        <v>17.668070102476</v>
       </c>
       <c r="AR42" s="23"/>
       <c r="AS42" s="23"/>
@@ -5194,12 +5923,24 @@
       <c r="D43" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
+      <c r="E43" s="85">
+        <v>759972.23655336</v>
+      </c>
+      <c r="F43" s="85">
+        <v>53.754860151153</v>
+      </c>
+      <c r="G43" s="85">
+        <v>1685658.0416465</v>
+      </c>
+      <c r="H43" s="85">
+        <v>55.207689562631</v>
+      </c>
+      <c r="I43" s="85">
+        <v>2444363.9358313</v>
+      </c>
+      <c r="J43" s="85">
+        <v>54.719538880375</v>
+      </c>
       <c r="K43" s="21"/>
       <c r="L43" s="21"/>
       <c r="M43" s="21"/>
@@ -5212,12 +5953,24 @@
       <c r="T43" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="21"/>
-      <c r="X43" s="21"/>
-      <c r="Y43" s="21"/>
-      <c r="Z43" s="21"/>
+      <c r="U43" s="85">
+        <v>0.64718688715199</v>
+      </c>
+      <c r="V43" s="85">
+        <v>0.00044014888980785</v>
+      </c>
+      <c r="W43" s="85">
+        <v>0.62793701893088</v>
+      </c>
+      <c r="X43" s="85">
+        <v>4.4910735340094E-5</v>
+      </c>
+      <c r="Y43" s="85">
+        <v>0.63440497465317</v>
+      </c>
+      <c r="Z43" s="85">
+        <v>0.00024252981257397</v>
+      </c>
       <c r="AA43" s="21"/>
       <c r="AB43" s="21"/>
       <c r="AC43" s="21"/>
@@ -5234,22 +5987,22 @@
         <v>30</v>
       </c>
       <c r="AL43" s="85">
-        <v>616.93115111723</v>
+        <v>277.61901800275</v>
       </c>
       <c r="AM43" s="85">
-        <v>52.568703386699</v>
+        <v>23.655916524014</v>
       </c>
       <c r="AN43" s="85">
-        <v>1244.4456744067</v>
+        <v>560.00055348302</v>
       </c>
       <c r="AO43" s="85">
-        <v>106.03921591619</v>
+        <v>47.717647162288</v>
       </c>
       <c r="AP43" s="85">
-        <v>1863.8869915802</v>
+        <v>838.74914621109</v>
       </c>
       <c r="AQ43" s="85">
-        <v>158.82181055255</v>
+        <v>71.469814748647</v>
       </c>
       <c r="AR43" s="23"/>
       <c r="AS43" s="23"/>
@@ -5288,12 +6041,24 @@
       <c r="D44" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
+      <c r="E44" s="85">
+        <v>299951.76575083</v>
+      </c>
+      <c r="F44" s="85">
+        <v>21.21638718429</v>
+      </c>
+      <c r="G44" s="85">
+        <v>459542.76394795</v>
+      </c>
+      <c r="H44" s="85">
+        <v>15.050676724451</v>
+      </c>
+      <c r="I44" s="85">
+        <v>764868.80167189</v>
+      </c>
+      <c r="J44" s="85">
+        <v>17.122355438957</v>
+      </c>
       <c r="K44" s="21"/>
       <c r="L44" s="21"/>
       <c r="M44" s="21"/>
@@ -5308,12 +6073,24 @@
       <c r="T44" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="21"/>
-      <c r="X44" s="21"/>
-      <c r="Y44" s="21"/>
-      <c r="Z44" s="21"/>
+      <c r="U44" s="85">
+        <v>0.25150375944706</v>
+      </c>
+      <c r="V44" s="85">
+        <v>0.00088591539051646</v>
+      </c>
+      <c r="W44" s="85">
+        <v>0.16013877420759</v>
+      </c>
+      <c r="X44" s="85">
+        <v>0.00037876020014774</v>
+      </c>
+      <c r="Y44" s="85">
+        <v>0.19083740924805</v>
+      </c>
+      <c r="Z44" s="85">
+        <v>0.0006323377953321</v>
+      </c>
       <c r="AA44" s="21"/>
       <c r="AB44" s="21"/>
       <c r="AC44" s="21"/>
@@ -5332,22 +6109,22 @@
         <v>30</v>
       </c>
       <c r="AL44" s="85">
-        <v>277.88166872634</v>
+        <v>125.04675092685</v>
       </c>
       <c r="AM44" s="85">
-        <v>23.678296992172</v>
+        <v>10.655233646477</v>
       </c>
       <c r="AN44" s="85">
-        <v>381.43116792309</v>
+        <v>171.64402556539</v>
       </c>
       <c r="AO44" s="85">
-        <v>32.501749818727</v>
+        <v>14.625787418427</v>
       </c>
       <c r="AP44" s="85">
-        <v>665.55629692448</v>
+        <v>299.50033361601</v>
       </c>
       <c r="AQ44" s="85">
-        <v>56.712052060935</v>
+        <v>25.520423427421</v>
       </c>
       <c r="AR44" s="23"/>
       <c r="AS44" s="23"/>
@@ -5386,12 +6163,24 @@
       <c r="D45" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
+      <c r="E45" s="85">
+        <v>180322.04727045</v>
+      </c>
+      <c r="F45" s="85">
+        <v>12.754658613785</v>
+      </c>
+      <c r="G45" s="85">
+        <v>185635.22382889</v>
+      </c>
+      <c r="H45" s="85">
+        <v>6.0798166388627</v>
+      </c>
+      <c r="I45" s="85">
+        <v>371775.32181456</v>
+      </c>
+      <c r="J45" s="85">
+        <v>8.3225635424365</v>
+      </c>
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
@@ -5404,12 +6193,24 @@
       <c r="T45" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="21"/>
-      <c r="X45" s="21"/>
-      <c r="Y45" s="21"/>
-      <c r="Z45" s="21"/>
+      <c r="U45" s="85">
+        <v>0.14304750339125</v>
+      </c>
+      <c r="V45" s="85">
+        <v>0.00023417739760334</v>
+      </c>
+      <c r="W45" s="85">
+        <v>0.07403802422572</v>
+      </c>
+      <c r="X45" s="85">
+        <v>0.00044703674123123</v>
+      </c>
+      <c r="Y45" s="85">
+        <v>0.097225209225339</v>
+      </c>
+      <c r="Z45" s="85">
+        <v>0.00034060706941729</v>
+      </c>
       <c r="AA45" s="21"/>
       <c r="AB45" s="21"/>
       <c r="AC45" s="21"/>
@@ -5426,22 +6227,22 @@
         <v>30</v>
       </c>
       <c r="AL45" s="85">
-        <v>445.32117847623</v>
+        <v>200.3945303143</v>
       </c>
       <c r="AM45" s="85">
-        <v>37.94581761796</v>
+        <v>17.075617928082</v>
       </c>
       <c r="AN45" s="85">
-        <v>495.04541478402</v>
+        <v>222.77043665281</v>
       </c>
       <c r="AO45" s="85">
-        <v>42.182819793746</v>
+        <v>18.982268907186</v>
       </c>
       <c r="AP45" s="85">
-        <v>953.68986481287</v>
+        <v>429.16043916579</v>
       </c>
       <c r="AQ45" s="85">
-        <v>81.263913380704</v>
+        <v>36.568761021317</v>
       </c>
       <c r="AR45" s="23"/>
       <c r="AS45" s="23"/>
@@ -5482,12 +6283,24 @@
       <c r="D46" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
+      <c r="E46" s="85">
+        <v>220767.48125759</v>
+      </c>
+      <c r="F46" s="85">
+        <v>15.615471868742</v>
+      </c>
+      <c r="G46" s="85">
+        <v>150735.07804516</v>
+      </c>
+      <c r="H46" s="85">
+        <v>4.9367874084282</v>
+      </c>
+      <c r="I46" s="85">
+        <v>380810.51415703</v>
+      </c>
+      <c r="J46" s="85">
+        <v>8.5248253870938</v>
+      </c>
       <c r="K46" s="21"/>
       <c r="L46" s="21"/>
       <c r="M46" s="21"/>
@@ -5504,12 +6317,24 @@
       <c r="T46" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="21"/>
-      <c r="X46" s="21"/>
-      <c r="Y46" s="21"/>
-      <c r="Z46" s="21"/>
+      <c r="U46" s="85">
+        <v>0.20740611071636</v>
+      </c>
+      <c r="V46" s="85">
+        <v>0.00060958372690234</v>
+      </c>
+      <c r="W46" s="85">
+        <v>0.057193448901139</v>
+      </c>
+      <c r="X46" s="85">
+        <v>0.00046355237638354</v>
+      </c>
+      <c r="Y46" s="85">
+        <v>0.10766490327105</v>
+      </c>
+      <c r="Z46" s="85">
+        <v>0.00053656805164294</v>
+      </c>
       <c r="AA46" s="21"/>
       <c r="AB46" s="21"/>
       <c r="AC46" s="21"/>
@@ -5530,22 +6355,22 @@
         <v>30</v>
       </c>
       <c r="AL46" s="85">
-        <v>345.26434844346</v>
+        <v>258.94826133259</v>
       </c>
       <c r="AM46" s="85">
-        <v>29.419975130867</v>
+        <v>22.06498134815</v>
       </c>
       <c r="AN46" s="85">
-        <v>188.34646081688</v>
+        <v>141.25984561266</v>
       </c>
       <c r="AO46" s="85">
-        <v>16.049001926206</v>
+        <v>12.036751444655</v>
       </c>
       <c r="AP46" s="85">
-        <v>549.52070297892</v>
+        <v>412.14052723419</v>
       </c>
       <c r="AQ46" s="85">
-        <v>46.824659100834</v>
+        <v>35.118494325625</v>
       </c>
       <c r="AR46" s="23"/>
       <c r="AS46" s="23"/>
@@ -5586,12 +6411,24 @@
       <c r="D47" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
+      <c r="E47" s="85">
+        <v>254509.08222121</v>
+      </c>
+      <c r="F47" s="85">
+        <v>18.002105161165</v>
+      </c>
+      <c r="G47" s="85">
+        <v>205890.9249588</v>
+      </c>
+      <c r="H47" s="85">
+        <v>6.7432195546529</v>
+      </c>
+      <c r="I47" s="85">
+        <v>470213.6878187</v>
+      </c>
+      <c r="J47" s="85">
+        <v>10.526205118441</v>
+      </c>
       <c r="K47" s="21"/>
       <c r="L47" s="21"/>
       <c r="M47" s="21"/>
@@ -5604,12 +6441,24 @@
       <c r="T47" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="21"/>
-      <c r="X47" s="21"/>
-      <c r="Y47" s="21"/>
-      <c r="Z47" s="21"/>
+      <c r="U47" s="85">
+        <v>0.26465429881791</v>
+      </c>
+      <c r="V47" s="85">
+        <v>0.0003046680682475</v>
+      </c>
+      <c r="W47" s="85">
+        <v>0.097534175672735</v>
+      </c>
+      <c r="X47" s="85">
+        <v>0.0011582195943201</v>
+      </c>
+      <c r="Y47" s="85">
+        <v>0.15368653704951</v>
+      </c>
+      <c r="Z47" s="85">
+        <v>0.0007314438312838</v>
+      </c>
       <c r="AA47" s="21"/>
       <c r="AB47" s="21"/>
       <c r="AC47" s="21"/>
@@ -5626,22 +6475,22 @@
         <v>30</v>
       </c>
       <c r="AL47" s="85">
-        <v>649.18046418601</v>
+        <v>486.8853481395</v>
       </c>
       <c r="AM47" s="85">
-        <v>55.316667353289</v>
+        <v>41.487500514967</v>
       </c>
       <c r="AN47" s="85">
-        <v>628.43014204735</v>
+        <v>471.32260653551</v>
       </c>
       <c r="AO47" s="85">
-        <v>53.548532403855</v>
+        <v>40.161399302891</v>
       </c>
       <c r="AP47" s="85">
-        <v>1299.6946935763</v>
+        <v>974.77102018223</v>
       </c>
       <c r="AQ47" s="85">
-        <v>110.74698483964</v>
+        <v>83.060238629728</v>
       </c>
       <c r="AR47" s="23"/>
       <c r="AS47" s="23"/>
@@ -5678,12 +6527,24 @@
       <c r="D48" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
+      <c r="E48" s="85">
+        <v>55627.381381422</v>
+      </c>
+      <c r="F48" s="85">
+        <v>3.9346728247529</v>
+      </c>
+      <c r="G48" s="85">
+        <v>25738.757414469</v>
+      </c>
+      <c r="H48" s="85">
+        <v>0.84298077899471</v>
+      </c>
+      <c r="I48" s="85">
+        <v>84060.97729329</v>
+      </c>
+      <c r="J48" s="85">
+        <v>1.8817893063695</v>
+      </c>
       <c r="K48" s="21"/>
       <c r="L48" s="21"/>
       <c r="M48" s="21"/>
@@ -5696,12 +6557,24 @@
       <c r="T48" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="21"/>
-      <c r="X48" s="21"/>
-      <c r="Y48" s="21"/>
-      <c r="Z48" s="21"/>
+      <c r="U48" s="85">
+        <v>0.052460784187068</v>
+      </c>
+      <c r="V48" s="85">
+        <v>0.0025011038599756</v>
+      </c>
+      <c r="W48" s="85">
+        <v>0.010236866613476</v>
+      </c>
+      <c r="X48" s="85">
+        <v>0.0009907193191868</v>
+      </c>
+      <c r="Y48" s="85">
+        <v>0.024424102918203</v>
+      </c>
+      <c r="Z48" s="85">
+        <v>0.0017459115895812</v>
+      </c>
       <c r="AA48" s="21"/>
       <c r="AB48" s="21"/>
       <c r="AC48" s="21"/>
@@ -5718,22 +6591,22 @@
         <v>30</v>
       </c>
       <c r="AL48" s="85">
-        <v>187.83372977532</v>
+        <v>140.87529733149</v>
       </c>
       <c r="AM48" s="85">
-        <v>16.005312114155</v>
+        <v>12.003984085616</v>
       </c>
       <c r="AN48" s="85">
-        <v>71.538162626652</v>
+        <v>53.653621969989</v>
       </c>
       <c r="AO48" s="85">
-        <v>6.095766837417</v>
+        <v>4.5718251280628</v>
       </c>
       <c r="AP48" s="85">
-        <v>268.91023815808</v>
+        <v>201.68267861856</v>
       </c>
       <c r="AQ48" s="85">
-        <v>22.91384139345</v>
+        <v>17.185381045088</v>
       </c>
       <c r="AR48" s="23"/>
       <c r="AS48" s="23"/>
@@ -5770,12 +6643,24 @@
       <c r="D49" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
+      <c r="E49" s="85">
+        <v>6742.5175184807</v>
+      </c>
+      <c r="F49" s="85">
+        <v>0.47691621988244</v>
+      </c>
+      <c r="G49" s="85">
+        <v>5515.5846913643</v>
+      </c>
+      <c r="H49" s="85">
+        <v>0.18064321462247</v>
+      </c>
+      <c r="I49" s="85">
+        <v>12516.34523292</v>
+      </c>
+      <c r="J49" s="85">
+        <v>0.28019094438982</v>
+      </c>
       <c r="K49" s="21"/>
       <c r="L49" s="21"/>
       <c r="M49" s="21"/>
@@ -5788,12 +6673,24 @@
       <c r="T49" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="21"/>
-      <c r="X49" s="21"/>
-      <c r="Y49" s="21"/>
-      <c r="Z49" s="21"/>
+      <c r="U49" s="85">
+        <v>0.0083448937407144</v>
+      </c>
+      <c r="V49" s="85">
+        <v>0.0054604570276967</v>
+      </c>
+      <c r="W49" s="85">
+        <v>0.0018064321462247</v>
+      </c>
+      <c r="X49" s="85">
+        <v>0.001631469422356</v>
+      </c>
+      <c r="Y49" s="85">
+        <v>0.0040033552419733</v>
+      </c>
+      <c r="Z49" s="85">
+        <v>0.0035459632250263</v>
+      </c>
       <c r="AA49" s="21"/>
       <c r="AB49" s="21"/>
       <c r="AC49" s="21"/>
@@ -5810,22 +6707,22 @@
         <v>30</v>
       </c>
       <c r="AL49" s="85">
-        <v>40.618092974592</v>
+        <v>30.463569730944</v>
       </c>
       <c r="AM49" s="85">
-        <v>3.461067702365</v>
+        <v>2.5958007767737</v>
       </c>
       <c r="AN49" s="85">
-        <v>11.506974840875</v>
+        <v>8.6302311306563</v>
       </c>
       <c r="AO49" s="85">
-        <v>0.98050932619097</v>
+        <v>0.73538199464323</v>
       </c>
       <c r="AP49" s="85">
-        <v>54.30081416932</v>
+        <v>40.72561062699</v>
       </c>
       <c r="AQ49" s="85">
-        <v>4.6269723753678</v>
+        <v>3.4702292815258</v>
       </c>
       <c r="AR49" s="23"/>
       <c r="AS49" s="23"/>
@@ -5862,12 +6759,24 @@
       <c r="D50" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
+      <c r="E50" s="85">
+        <v>10107.328861895</v>
+      </c>
+      <c r="F50" s="85">
+        <v>0.71491828693237</v>
+      </c>
+      <c r="G50" s="85">
+        <v>3678.3320847059</v>
+      </c>
+      <c r="H50" s="85">
+        <v>0.12047058823529</v>
+      </c>
+      <c r="I50" s="85">
+        <v>14303.8045778</v>
+      </c>
+      <c r="J50" s="85">
+        <v>0.32020501499751</v>
+      </c>
       <c r="K50" s="21"/>
       <c r="L50" s="21"/>
       <c r="M50" s="21"/>
@@ -5880,12 +6789,24 @@
       <c r="T50" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="21"/>
-      <c r="Y50" s="21"/>
-      <c r="Z50" s="21"/>
+      <c r="U50" s="85">
+        <v>0.016685227052516</v>
+      </c>
+      <c r="V50" s="85">
+        <v>0.00635227812928</v>
+      </c>
+      <c r="W50" s="85">
+        <v>0.0024094117647059</v>
+      </c>
+      <c r="X50" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="85">
+        <v>0.0072060857014101</v>
+      </c>
+      <c r="Z50" s="85">
+        <v>0.00317613906464</v>
+      </c>
       <c r="AA50" s="21"/>
       <c r="AB50" s="21"/>
       <c r="AC50" s="21"/>
@@ -5902,22 +6823,22 @@
         <v>30</v>
       </c>
       <c r="AL50" s="85">
-        <v>153.72406810837</v>
+        <v>115.29305108128</v>
       </c>
       <c r="AM50" s="85">
-        <v>13.098827843514</v>
+        <v>9.8241208826359</v>
       </c>
       <c r="AN50" s="85">
-        <v>71.153435146625</v>
+        <v>53.365076359969</v>
       </c>
       <c r="AO50" s="85">
-        <v>6.062984208844</v>
+        <v>4.547238156633</v>
       </c>
       <c r="AP50" s="85">
-        <v>232.32385782628</v>
+        <v>174.24289336971</v>
       </c>
       <c r="AQ50" s="85">
-        <v>19.796315925377</v>
+        <v>14.847236944033</v>
       </c>
       <c r="AR50" s="23"/>
       <c r="AS50" s="23"/>
@@ -5954,12 +6875,24 @@
       <c r="D51" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
+      <c r="E51" s="85">
+        <v>3374.4824671533</v>
+      </c>
+      <c r="F51" s="85">
+        <v>0.23868613138686</v>
+      </c>
+      <c r="G51" s="85">
+        <v>0</v>
+      </c>
+      <c r="H51" s="85">
+        <v>0</v>
+      </c>
+      <c r="I51" s="85">
+        <v>3582.5305411971</v>
+      </c>
+      <c r="J51" s="85">
+        <v>0.080198540145985</v>
+      </c>
       <c r="K51" s="21"/>
       <c r="L51" s="21"/>
       <c r="M51" s="21"/>
@@ -5972,12 +6905,24 @@
       <c r="T51" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="21"/>
-      <c r="X51" s="21"/>
-      <c r="Y51" s="21"/>
-      <c r="Z51" s="21"/>
+      <c r="U51" s="85">
+        <v>0.0023868613138686</v>
+      </c>
+      <c r="V51" s="85">
+        <v>0</v>
+      </c>
+      <c r="W51" s="85">
+        <v>0</v>
+      </c>
+      <c r="X51" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="85">
+        <v>0.00080198540145985</v>
+      </c>
+      <c r="Z51" s="85">
+        <v>0</v>
+      </c>
       <c r="AA51" s="21"/>
       <c r="AB51" s="21"/>
       <c r="AC51" s="21"/>
@@ -5994,10 +6939,10 @@
         <v>30</v>
       </c>
       <c r="AL51" s="85">
-        <v>7.0818070124542</v>
+        <v>5.3113552593407</v>
       </c>
       <c r="AM51" s="85">
-        <v>0.60344077553123</v>
+        <v>0.45258058164842</v>
       </c>
       <c r="AN51" s="85">
         <v>0</v>
@@ -6006,10 +6951,10 @@
         <v>0</v>
       </c>
       <c r="AP51" s="85">
-        <v>7.5184239823251</v>
+        <v>5.6388179867439</v>
       </c>
       <c r="AQ51" s="85">
-        <v>0.64064490753392</v>
+        <v>0.48048368065044</v>
       </c>
       <c r="AR51" s="23"/>
       <c r="AS51" s="23"/>
@@ -6048,12 +6993,24 @@
       <c r="D52" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
+      <c r="E52" s="85">
+        <v>11794.570095472</v>
+      </c>
+      <c r="F52" s="85">
+        <v>0.8342613526258</v>
+      </c>
+      <c r="G52" s="85">
+        <v>0</v>
+      </c>
+      <c r="H52" s="85">
+        <v>0</v>
+      </c>
+      <c r="I52" s="85">
+        <v>12521.74459302</v>
+      </c>
+      <c r="J52" s="85">
+        <v>0.28031181448227</v>
+      </c>
       <c r="K52" s="21"/>
       <c r="L52" s="21"/>
       <c r="M52" s="21"/>
@@ -6068,12 +7025,24 @@
       <c r="T52" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="21"/>
-      <c r="X52" s="21"/>
-      <c r="Y52" s="21"/>
-      <c r="Z52" s="21"/>
+      <c r="U52" s="85">
+        <v>0.013111775725082</v>
+      </c>
+      <c r="V52" s="85">
+        <v>0.010859017248463</v>
+      </c>
+      <c r="W52" s="85">
+        <v>0</v>
+      </c>
+      <c r="X52" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="85">
+        <v>0.0044055566436277</v>
+      </c>
+      <c r="Z52" s="85">
+        <v>0.0054295086242313</v>
+      </c>
       <c r="AA52" s="21"/>
       <c r="AB52" s="21"/>
       <c r="AC52" s="21"/>
@@ -6092,10 +7061,10 @@
         <v>30</v>
       </c>
       <c r="AL52" s="85">
-        <v>39.350861812355</v>
+        <v>29.513146359266</v>
       </c>
       <c r="AM52" s="85">
-        <v>3.3530869350308</v>
+        <v>2.5148152012731</v>
       </c>
       <c r="AN52" s="85">
         <v>0</v>
@@ -6104,10 +7073,10 @@
         <v>0</v>
       </c>
       <c r="AP52" s="85">
-        <v>41.776973398862</v>
+        <v>31.332730049146</v>
       </c>
       <c r="AQ52" s="85">
-        <v>3.559815903317</v>
+        <v>2.6698619274877</v>
       </c>
       <c r="AR52" s="23"/>
       <c r="AS52" s="23"/>
@@ -6146,12 +7115,24 @@
       <c r="D53" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
+      <c r="E53" s="85">
+        <v>1687.2412335766</v>
+      </c>
+      <c r="F53" s="85">
+        <v>0.11934306569343</v>
+      </c>
+      <c r="G53" s="85">
+        <v>3674.5052133169</v>
+      </c>
+      <c r="H53" s="85">
+        <v>0.12034525277435</v>
+      </c>
+      <c r="I53" s="85">
+        <v>5360.8729018291</v>
+      </c>
+      <c r="J53" s="85">
+        <v>0.12000851791516</v>
+      </c>
       <c r="K53" s="21"/>
       <c r="L53" s="21"/>
       <c r="M53" s="21"/>
@@ -6164,12 +7145,24 @@
       <c r="T53" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="21"/>
-      <c r="X53" s="21"/>
-      <c r="Y53" s="21"/>
-      <c r="Z53" s="21"/>
+      <c r="U53" s="85">
+        <v>0.0011934306569343</v>
+      </c>
+      <c r="V53" s="85">
+        <v>0</v>
+      </c>
+      <c r="W53" s="85">
+        <v>0.0012034525277435</v>
+      </c>
+      <c r="X53" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="85">
+        <v>0.0012000851791516</v>
+      </c>
+      <c r="Z53" s="85">
+        <v>0</v>
+      </c>
       <c r="AA53" s="21"/>
       <c r="AB53" s="21"/>
       <c r="AC53" s="21"/>
@@ -6186,22 +7179,22 @@
         <v>30</v>
       </c>
       <c r="AL53" s="85">
-        <v>8.6213302760312</v>
+        <v>6.4659977070234</v>
       </c>
       <c r="AM53" s="85">
-        <v>0.73462355282062</v>
+        <v>0.55096766461547</v>
       </c>
       <c r="AN53" s="85">
-        <v>5.196843536931</v>
+        <v>3.8976326526983</v>
       </c>
       <c r="AO53" s="85">
-        <v>0.44282303778189</v>
+        <v>0.33211727833642</v>
       </c>
       <c r="AP53" s="85">
-        <v>14.201351127313</v>
+        <v>10.651013345485</v>
       </c>
       <c r="AQ53" s="85">
-        <v>1.2100971295583</v>
+        <v>0.90757284716876</v>
       </c>
       <c r="AR53" s="23"/>
       <c r="AS53" s="23"/>
@@ -6238,12 +7231,24 @@
       <c r="D54" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
+      <c r="E54" s="85">
+        <v>3374.4824671533</v>
+      </c>
+      <c r="F54" s="85">
+        <v>0.23868613138686</v>
+      </c>
+      <c r="G54" s="85">
+        <v>0</v>
+      </c>
+      <c r="H54" s="85">
+        <v>0</v>
+      </c>
+      <c r="I54" s="85">
+        <v>3582.5305411971</v>
+      </c>
+      <c r="J54" s="85">
+        <v>0.080198540145985</v>
+      </c>
       <c r="K54" s="21"/>
       <c r="L54" s="21"/>
       <c r="M54" s="21"/>
@@ -6256,12 +7261,24 @@
       <c r="T54" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="21"/>
-      <c r="X54" s="21"/>
-      <c r="Y54" s="21"/>
-      <c r="Z54" s="21"/>
+      <c r="U54" s="85">
+        <v>0.0059671532846715</v>
+      </c>
+      <c r="V54" s="85">
+        <v>0</v>
+      </c>
+      <c r="W54" s="85">
+        <v>0</v>
+      </c>
+      <c r="X54" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="85">
+        <v>0.0020049635036496</v>
+      </c>
+      <c r="Z54" s="85">
+        <v>0</v>
+      </c>
       <c r="AA54" s="21"/>
       <c r="AB54" s="21"/>
       <c r="AC54" s="21"/>
@@ -6278,10 +7295,10 @@
         <v>30</v>
       </c>
       <c r="AL54" s="85">
-        <v>42.367680213639</v>
+        <v>31.775760160229</v>
       </c>
       <c r="AM54" s="85">
-        <v>3.6101500310042</v>
+        <v>2.7076125232531</v>
       </c>
       <c r="AN54" s="85">
         <v>0</v>
@@ -6290,10 +7307,10 @@
         <v>0</v>
       </c>
       <c r="AP54" s="85">
-        <v>44.979788694258</v>
+        <v>33.734841520694</v>
       </c>
       <c r="AQ54" s="85">
-        <v>3.8327277946377</v>
+        <v>2.8745458459783</v>
       </c>
       <c r="AR54" s="23"/>
       <c r="AS54" s="23"/>
@@ -6330,12 +7347,24 @@
       <c r="D55" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
+      <c r="E55" s="85">
+        <v>1684.0175256637</v>
+      </c>
+      <c r="F55" s="85">
+        <v>0.11911504424779</v>
+      </c>
+      <c r="G55" s="85">
+        <v>0</v>
+      </c>
+      <c r="H55" s="85">
+        <v>0</v>
+      </c>
+      <c r="I55" s="85">
+        <v>1787.8428103646</v>
+      </c>
+      <c r="J55" s="85">
+        <v>0.040022654867257</v>
+      </c>
       <c r="K55" s="21"/>
       <c r="L55" s="21"/>
       <c r="M55" s="21"/>
@@ -6348,12 +7377,24 @@
       <c r="T55" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="21"/>
-      <c r="X55" s="21"/>
-      <c r="Y55" s="21"/>
-      <c r="Z55" s="21"/>
+      <c r="U55" s="85">
+        <v>0.0011911504424779</v>
+      </c>
+      <c r="V55" s="85">
+        <v>0</v>
+      </c>
+      <c r="W55" s="85">
+        <v>0</v>
+      </c>
+      <c r="X55" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="85">
+        <v>0.00040022654867257</v>
+      </c>
+      <c r="Z55" s="85">
+        <v>0</v>
+      </c>
       <c r="AA55" s="21"/>
       <c r="AB55" s="21"/>
       <c r="AC55" s="21"/>
@@ -6370,10 +7411,10 @@
         <v>30</v>
       </c>
       <c r="AL55" s="85">
-        <v>1.2117044982759</v>
+        <v>0.9087783737069</v>
       </c>
       <c r="AM55" s="85">
-        <v>0.10324934029809</v>
+        <v>0.077437005223565</v>
       </c>
       <c r="AN55" s="85">
         <v>0</v>
@@ -6382,10 +7423,10 @@
         <v>0</v>
       </c>
       <c r="AP55" s="85">
-        <v>1.2864101130273</v>
+        <v>0.96480758477045</v>
       </c>
       <c r="AQ55" s="85">
-        <v>0.10961500573105</v>
+        <v>0.08221125429829</v>
       </c>
       <c r="AR55" s="23"/>
       <c r="AS55" s="23"/>
@@ -6422,12 +7463,24 @@
       <c r="D56" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
+      <c r="E56" s="85">
+        <v>6736.0701026549</v>
+      </c>
+      <c r="F56" s="85">
+        <v>0.47646017699115</v>
+      </c>
+      <c r="G56" s="85">
+        <v>0</v>
+      </c>
+      <c r="H56" s="85">
+        <v>0</v>
+      </c>
+      <c r="I56" s="85">
+        <v>7151.3712414584</v>
+      </c>
+      <c r="J56" s="85">
+        <v>0.16009061946903</v>
+      </c>
       <c r="K56" s="21"/>
       <c r="L56" s="21"/>
       <c r="M56" s="21"/>
@@ -6440,12 +7493,24 @@
       <c r="T56" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U56" s="2"/>
-      <c r="V56" s="2"/>
-      <c r="W56" s="21"/>
-      <c r="X56" s="21"/>
-      <c r="Y56" s="21"/>
-      <c r="Z56" s="21"/>
+      <c r="U56" s="85">
+        <v>0.0071469026548673</v>
+      </c>
+      <c r="V56" s="85">
+        <v>0</v>
+      </c>
+      <c r="W56" s="85">
+        <v>0</v>
+      </c>
+      <c r="X56" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="85">
+        <v>0.0024013592920354</v>
+      </c>
+      <c r="Z56" s="85">
+        <v>0</v>
+      </c>
       <c r="AA56" s="21"/>
       <c r="AB56" s="21"/>
       <c r="AC56" s="21"/>
@@ -6462,10 +7527,10 @@
         <v>30</v>
       </c>
       <c r="AL56" s="85">
-        <v>43.990141567841</v>
+        <v>32.992606175881</v>
       </c>
       <c r="AM56" s="85">
-        <v>3.7483999629957</v>
+        <v>2.8112999722468</v>
       </c>
       <c r="AN56" s="85">
         <v>0</v>
@@ -6474,10 +7539,10 @@
         <v>0</v>
       </c>
       <c r="AP56" s="85">
-        <v>46.702280190338</v>
+        <v>35.026710142753</v>
       </c>
       <c r="AQ56" s="85">
-        <v>3.9795012950187</v>
+        <v>2.984625971264</v>
       </c>
       <c r="AR56" s="23"/>
       <c r="AS56" s="23"/>
@@ -6514,12 +7579,24 @@
       <c r="D57" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
+      <c r="E57" s="85">
+        <v>0</v>
+      </c>
+      <c r="F57" s="85">
+        <v>0</v>
+      </c>
+      <c r="G57" s="85">
+        <v>0</v>
+      </c>
+      <c r="H57" s="85">
+        <v>0</v>
+      </c>
+      <c r="I57" s="85">
+        <v>0</v>
+      </c>
+      <c r="J57" s="85">
+        <v>0</v>
+      </c>
       <c r="K57" s="21"/>
       <c r="L57" s="21"/>
       <c r="M57" s="21"/>
@@ -6532,12 +7609,24 @@
       <c r="T57" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="U57" s="2"/>
-      <c r="V57" s="2"/>
-      <c r="W57" s="21"/>
-      <c r="X57" s="21"/>
-      <c r="Y57" s="21"/>
-      <c r="Z57" s="21"/>
+      <c r="U57" s="85">
+        <v>0</v>
+      </c>
+      <c r="V57" s="85">
+        <v>0</v>
+      </c>
+      <c r="W57" s="85">
+        <v>0</v>
+      </c>
+      <c r="X57" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="85">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="85">
+        <v>0</v>
+      </c>
       <c r="AA57" s="21"/>
       <c r="AB57" s="21"/>
       <c r="AC57" s="21"/>
@@ -6606,12 +7695,24 @@
       <c r="D58" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
+      <c r="E58" s="85">
+        <v>1687.2412335766</v>
+      </c>
+      <c r="F58" s="85">
+        <v>0.11934306569343</v>
+      </c>
+      <c r="G58" s="85">
+        <v>0</v>
+      </c>
+      <c r="H58" s="85">
+        <v>0</v>
+      </c>
+      <c r="I58" s="85">
+        <v>1791.2652705985</v>
+      </c>
+      <c r="J58" s="85">
+        <v>0.040099270072993</v>
+      </c>
       <c r="K58" s="21"/>
       <c r="L58" s="21"/>
       <c r="M58" s="21"/>
@@ -6624,12 +7725,24 @@
       <c r="T58" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="U58" s="2"/>
-      <c r="V58" s="2"/>
-      <c r="W58" s="21"/>
-      <c r="X58" s="21"/>
-      <c r="Y58" s="21"/>
-      <c r="Z58" s="21"/>
+      <c r="U58" s="85">
+        <v>0.0035802919708029</v>
+      </c>
+      <c r="V58" s="85">
+        <v>0</v>
+      </c>
+      <c r="W58" s="85">
+        <v>0</v>
+      </c>
+      <c r="X58" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="85">
+        <v>0.0012029781021898</v>
+      </c>
+      <c r="Z58" s="85">
+        <v>0</v>
+      </c>
       <c r="AA58" s="21"/>
       <c r="AB58" s="21"/>
       <c r="AC58" s="21"/>
@@ -6646,10 +7759,10 @@
         <v>30</v>
       </c>
       <c r="AL58" s="86">
-        <v>117.4964154762</v>
+        <v>88.122311607148</v>
       </c>
       <c r="AM58" s="86">
-        <v>10.011869562727</v>
+        <v>7.5089021720451</v>
       </c>
       <c r="AN58" s="86">
         <v>0</v>
@@ -6658,10 +7771,10 @@
         <v>0</v>
       </c>
       <c r="AP58" s="86">
-        <v>124.74046050675</v>
+        <v>93.555345380063</v>
       </c>
       <c r="AQ58" s="86">
-        <v>10.62913463978</v>
+        <v>7.9718509798352</v>
       </c>
       <c r="AR58" s="17"/>
       <c r="AS58" s="17"/>
@@ -6702,12 +7815,24 @@
       <c r="D59" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
+      <c r="E59" s="85">
+        <v>5055.2762849041</v>
+      </c>
+      <c r="F59" s="85">
+        <v>0.35757315418901</v>
+      </c>
+      <c r="G59" s="85">
+        <v>1837.2526066584</v>
+      </c>
+      <c r="H59" s="85">
+        <v>0.060172626387176</v>
+      </c>
+      <c r="I59" s="85">
+        <v>7151.754706943</v>
+      </c>
+      <c r="J59" s="85">
+        <v>0.16009920372859</v>
+      </c>
       <c r="K59" s="21"/>
       <c r="L59" s="21"/>
       <c r="M59" s="21"/>
@@ -6724,12 +7849,24 @@
       <c r="T59" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="U59" s="2"/>
-      <c r="V59" s="2"/>
-      <c r="W59" s="21"/>
-      <c r="X59" s="21"/>
-      <c r="Y59" s="21"/>
-      <c r="Z59" s="21"/>
+      <c r="U59" s="85">
+        <v>0.0035757315418901</v>
+      </c>
+      <c r="V59" s="85">
+        <v>0.0031478375067946</v>
+      </c>
+      <c r="W59" s="85">
+        <v>0.00060172626387176</v>
+      </c>
+      <c r="X59" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="85">
+        <v>0.0016009920372859</v>
+      </c>
+      <c r="Z59" s="85">
+        <v>0.0015739187533973</v>
+      </c>
       <c r="AA59" s="21"/>
       <c r="AB59" s="21"/>
       <c r="AC59" s="21"/>
@@ -6750,22 +7887,22 @@
         <v>30</v>
       </c>
       <c r="AL59" s="86">
-        <v>0.87871907440338</v>
+        <v>0.48329549092186</v>
       </c>
       <c r="AM59" s="86">
-        <v>0.074875652329912</v>
+        <v>0.041181608781452</v>
       </c>
       <c r="AN59" s="86">
-        <v>0.38317740364469</v>
+        <v>0.21074757200458</v>
       </c>
       <c r="AO59" s="86">
-        <v>0.032650546564564</v>
+        <v>0.01795780061051</v>
       </c>
       <c r="AP59" s="86">
-        <v>1.3051337134152</v>
+        <v>0.71782354237837</v>
       </c>
       <c r="AQ59" s="86">
-        <v>0.11121044372011</v>
+        <v>0.061165744046061</v>
       </c>
       <c r="AR59" s="17"/>
       <c r="AS59" s="17"/>
@@ -6806,12 +7943,24 @@
       <c r="D60" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
+      <c r="E60" s="85">
+        <v>15156.157730973</v>
+      </c>
+      <c r="F60" s="85">
+        <v>1.0720353982301</v>
+      </c>
+      <c r="G60" s="85">
+        <v>20217.432416021</v>
+      </c>
+      <c r="H60" s="85">
+        <v>0.66214956118082</v>
+      </c>
+      <c r="I60" s="85">
+        <v>35730.862513346</v>
+      </c>
+      <c r="J60" s="85">
+        <v>0.79987120242938</v>
+      </c>
       <c r="K60" s="21"/>
       <c r="L60" s="21"/>
       <c r="M60" s="21"/>
@@ -6824,12 +7973,24 @@
       <c r="T60" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="U60" s="2"/>
-      <c r="V60" s="2"/>
-      <c r="W60" s="21"/>
-      <c r="X60" s="21"/>
-      <c r="Y60" s="21"/>
-      <c r="Z60" s="21"/>
+      <c r="U60" s="85">
+        <v>0.011911504424779</v>
+      </c>
+      <c r="V60" s="85">
+        <v>0</v>
+      </c>
+      <c r="W60" s="85">
+        <v>0.0066214956118082</v>
+      </c>
+      <c r="X60" s="85">
+        <v>0.0011505180760626</v>
+      </c>
+      <c r="Y60" s="85">
+        <v>0.0083989385729663</v>
+      </c>
+      <c r="Z60" s="85">
+        <v>0.00057525903803132</v>
+      </c>
       <c r="AA60" s="21"/>
       <c r="AB60" s="21"/>
       <c r="AC60" s="21"/>
@@ -6846,22 +8007,22 @@
         <v>30</v>
       </c>
       <c r="AL60" s="85">
-        <v>10.044854681359</v>
+        <v>5.5246700747476</v>
       </c>
       <c r="AM60" s="85">
-        <v>0.85592206739863</v>
+        <v>0.47075713706925</v>
       </c>
       <c r="AN60" s="85">
-        <v>7.8002940007491</v>
+        <v>4.290161700412</v>
       </c>
       <c r="AO60" s="85">
-        <v>0.66466305180383</v>
+        <v>0.36556467849211</v>
       </c>
       <c r="AP60" s="85">
-        <v>18.241769263152</v>
+        <v>10.032973094733</v>
       </c>
       <c r="AQ60" s="85">
-        <v>1.5543811589132</v>
+        <v>0.85490963740223</v>
       </c>
       <c r="AR60" s="23"/>
       <c r="AS60" s="23"/>
@@ -6898,12 +8059,24 @@
       <c r="D61" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
+      <c r="E61" s="85">
+        <v>11791.346387559</v>
+      </c>
+      <c r="F61" s="85">
+        <v>0.83403333118016</v>
+      </c>
+      <c r="G61" s="85">
+        <v>16541.01376701</v>
+      </c>
+      <c r="H61" s="85">
+        <v>0.541741640676</v>
+      </c>
+      <c r="I61" s="85">
+        <v>28587.132909546</v>
+      </c>
+      <c r="J61" s="85">
+        <v>0.6399516486854</v>
+      </c>
       <c r="K61" s="21"/>
       <c r="L61" s="21"/>
       <c r="M61" s="21"/>
@@ -6916,12 +8089,24 @@
       <c r="T61" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="U61" s="2"/>
-      <c r="V61" s="2"/>
-      <c r="W61" s="21"/>
-      <c r="X61" s="21"/>
-      <c r="Y61" s="21"/>
-      <c r="Z61" s="21"/>
+      <c r="U61" s="85">
+        <v>0.0083403333118016</v>
+      </c>
+      <c r="V61" s="85">
+        <v>0.00060883670740576</v>
+      </c>
+      <c r="W61" s="85">
+        <v>0.00541741640676</v>
+      </c>
+      <c r="X61" s="85">
+        <v>0.0020202701911874</v>
+      </c>
+      <c r="Y61" s="85">
+        <v>0.006399516486854</v>
+      </c>
+      <c r="Z61" s="85">
+        <v>0.0013145534492966</v>
+      </c>
       <c r="AA61" s="21"/>
       <c r="AB61" s="21"/>
       <c r="AC61" s="21"/>
@@ -6938,22 +8123,22 @@
         <v>30</v>
       </c>
       <c r="AL61" s="86">
-        <v>5.3144014747041</v>
+        <v>2.9229208110872</v>
       </c>
       <c r="AM61" s="86">
-        <v>0.45284014965953</v>
+        <v>0.24906208231274</v>
       </c>
       <c r="AN61" s="86">
-        <v>9.2748685456362</v>
+        <v>5.1011777000999</v>
       </c>
       <c r="AO61" s="86">
-        <v>0.79031154877366</v>
+        <v>0.43467135182551</v>
       </c>
       <c r="AP61" s="86">
-        <v>14.652147144551</v>
+        <v>8.058680929503</v>
       </c>
       <c r="AQ61" s="86">
-        <v>1.2485094581872</v>
+        <v>0.68668020200295</v>
       </c>
       <c r="AR61" s="17"/>
       <c r="AS61" s="17"/>
@@ -6990,12 +8175,24 @@
       <c r="D62" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
+      <c r="E62" s="85">
+        <v>5061.7237007299</v>
+      </c>
+      <c r="F62" s="85">
+        <v>0.35802919708029</v>
+      </c>
+      <c r="G62" s="85">
+        <v>18376.352937973</v>
+      </c>
+      <c r="H62" s="85">
+        <v>0.6018515993327</v>
+      </c>
+      <c r="I62" s="85">
+        <v>23225.551592097</v>
+      </c>
+      <c r="J62" s="85">
+        <v>0.51992727217589</v>
+      </c>
       <c r="K62" s="21"/>
       <c r="L62" s="21"/>
       <c r="M62" s="21"/>
@@ -7008,12 +8205,24 @@
       <c r="T62" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="U62" s="2"/>
-      <c r="V62" s="2"/>
-      <c r="W62" s="21"/>
-      <c r="X62" s="21"/>
-      <c r="Y62" s="21"/>
-      <c r="Z62" s="21"/>
+      <c r="U62" s="85">
+        <v>0.0035802919708029</v>
+      </c>
+      <c r="V62" s="85">
+        <v>0</v>
+      </c>
+      <c r="W62" s="85">
+        <v>0.006018515993327</v>
+      </c>
+      <c r="X62" s="85">
+        <v>0.0043783362422242</v>
+      </c>
+      <c r="Y62" s="85">
+        <v>0.0051992727217589</v>
+      </c>
+      <c r="Z62" s="85">
+        <v>0.0021891681211121</v>
+      </c>
       <c r="AA62" s="21"/>
       <c r="AB62" s="21"/>
       <c r="AC62" s="21"/>
@@ -7030,22 +8239,22 @@
         <v>30</v>
       </c>
       <c r="AL62" s="85">
-        <v>1.6186987457038</v>
+        <v>0.8902843101371</v>
       </c>
       <c r="AM62" s="85">
-        <v>0.13792932012142</v>
+        <v>0.075861126066783</v>
       </c>
       <c r="AN62" s="85">
-        <v>46.380900160962</v>
+        <v>25.509495088529</v>
       </c>
       <c r="AO62" s="85">
-        <v>3.9521165027156</v>
+        <v>2.1736640764936</v>
       </c>
       <c r="AP62" s="85">
-        <v>46.775342810993</v>
+        <v>25.726438546046</v>
       </c>
       <c r="AQ62" s="85">
-        <v>3.9857269609247</v>
+        <v>2.1921498285086</v>
       </c>
       <c r="AR62" s="23"/>
       <c r="AS62" s="23"/>
@@ -7084,12 +8293,24 @@
       <c r="D63" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
+      <c r="E63" s="85">
+        <v>57295.280367521</v>
+      </c>
+      <c r="F63" s="85">
+        <v>4.0526477617725</v>
+      </c>
+      <c r="G63" s="85">
+        <v>113967.06468366</v>
+      </c>
+      <c r="H63" s="85">
+        <v>3.7325828679191</v>
+      </c>
+      <c r="I63" s="85">
+        <v>171541.32600558</v>
+      </c>
+      <c r="J63" s="85">
+        <v>3.8401246722538</v>
+      </c>
       <c r="K63" s="21"/>
       <c r="L63" s="21"/>
       <c r="M63" s="21"/>
@@ -7104,12 +8325,24 @@
       <c r="T63" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="U63" s="2"/>
-      <c r="V63" s="2"/>
-      <c r="W63" s="21"/>
-      <c r="X63" s="21"/>
-      <c r="Y63" s="21"/>
-      <c r="Z63" s="21"/>
+      <c r="U63" s="85">
+        <v>0.040526477617725</v>
+      </c>
+      <c r="V63" s="85">
+        <v>0.0014164756372469</v>
+      </c>
+      <c r="W63" s="85">
+        <v>0.037325828679191</v>
+      </c>
+      <c r="X63" s="85">
+        <v>0.00069489839091023</v>
+      </c>
+      <c r="Y63" s="85">
+        <v>0.038401246722538</v>
+      </c>
+      <c r="Z63" s="85">
+        <v>0.0010556870140786</v>
+      </c>
       <c r="AA63" s="21"/>
       <c r="AB63" s="21"/>
       <c r="AC63" s="21"/>
@@ -7128,22 +8361,22 @@
         <v>30</v>
       </c>
       <c r="AL63" s="85">
-        <v>2.7788299913842</v>
+        <v>1.5283564952613</v>
       </c>
       <c r="AM63" s="85">
-        <v>0.23678410356585</v>
+        <v>0.13023125696122</v>
       </c>
       <c r="AN63" s="85">
-        <v>9.3770010276994</v>
+        <v>5.1573505652347</v>
       </c>
       <c r="AO63" s="85">
-        <v>0.79901425757027</v>
+        <v>0.43945784166365</v>
       </c>
       <c r="AP63" s="85">
-        <v>12.059466106066</v>
+        <v>6.6327063583361</v>
       </c>
       <c r="AQ63" s="85">
-        <v>1.0275871068979</v>
+        <v>0.56517290879382</v>
       </c>
       <c r="AR63" s="23"/>
       <c r="AS63" s="23"/>
@@ -7182,12 +8415,24 @@
       <c r="D64" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
+      <c r="E64" s="85">
+        <v>136476.34115285</v>
+      </c>
+      <c r="F64" s="85">
+        <v>9.6533350558749</v>
+      </c>
+      <c r="G64" s="85">
+        <v>216885.73906334</v>
+      </c>
+      <c r="H64" s="85">
+        <v>7.1033152970189</v>
+      </c>
+      <c r="I64" s="85">
+        <v>355584.77617477</v>
+      </c>
+      <c r="J64" s="85">
+        <v>7.9601219359946</v>
+      </c>
       <c r="K64" s="21"/>
       <c r="L64" s="21"/>
       <c r="M64" s="21"/>
@@ -7200,12 +8445,24 @@
       <c r="T64" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="U64" s="2"/>
-      <c r="V64" s="2"/>
-      <c r="W64" s="21"/>
-      <c r="X64" s="21"/>
-      <c r="Y64" s="21"/>
-      <c r="Z64" s="21"/>
+      <c r="U64" s="85">
+        <v>0.098917931658162</v>
+      </c>
+      <c r="V64" s="85">
+        <v>0.0020324797606224</v>
+      </c>
+      <c r="W64" s="85">
+        <v>0.071634879234061</v>
+      </c>
+      <c r="X64" s="85">
+        <v>0.00057559773829557</v>
+      </c>
+      <c r="Y64" s="85">
+        <v>0.080801984848559</v>
+      </c>
+      <c r="Z64" s="85">
+        <v>0.001304038749459</v>
+      </c>
       <c r="AA64" s="21"/>
       <c r="AB64" s="21"/>
       <c r="AC64" s="21"/>
@@ -7222,22 +8479,22 @@
         <v>30</v>
       </c>
       <c r="AL64" s="85">
-        <v>11.754316381549</v>
+        <v>6.4648740098522</v>
       </c>
       <c r="AM64" s="85">
-        <v>1.0015852988718</v>
+        <v>0.55087191437951</v>
       </c>
       <c r="AN64" s="85">
-        <v>15.551093822437</v>
+        <v>8.5531016023406</v>
       </c>
       <c r="AO64" s="85">
-        <v>1.3251087046099</v>
+        <v>0.72880978753544</v>
       </c>
       <c r="AP64" s="85">
-        <v>27.58615957971</v>
+        <v>15.17238776884</v>
       </c>
       <c r="AQ64" s="85">
-        <v>2.3506166577871</v>
+        <v>1.2928391617829</v>
       </c>
       <c r="AR64" s="23"/>
       <c r="AS64" s="23"/>
@@ -7274,12 +8531,24 @@
       <c r="D65" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
+      <c r="E65" s="85">
+        <v>138170.02980225</v>
+      </c>
+      <c r="F65" s="85">
+        <v>9.7731341644597</v>
+      </c>
+      <c r="G65" s="85">
+        <v>253667.1464747</v>
+      </c>
+      <c r="H65" s="85">
+        <v>8.3079585116414</v>
+      </c>
+      <c r="I65" s="85">
+        <v>393114.28010755</v>
+      </c>
+      <c r="J65" s="85">
+        <v>8.8002575309883</v>
+      </c>
       <c r="K65" s="21"/>
       <c r="L65" s="21"/>
       <c r="M65" s="21"/>
@@ -7292,12 +8561,24 @@
       <c r="T65" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="U65" s="2"/>
-      <c r="V65" s="2"/>
-      <c r="W65" s="21"/>
-      <c r="X65" s="21"/>
-      <c r="Y65" s="21"/>
-      <c r="Z65" s="21"/>
+      <c r="U65" s="85">
+        <v>0.11083399651185</v>
+      </c>
+      <c r="V65" s="85">
+        <v>0.0025266939900201</v>
+      </c>
+      <c r="W65" s="85">
+        <v>0.083079585116414</v>
+      </c>
+      <c r="X65" s="85">
+        <v>0.00039965650203784</v>
+      </c>
+      <c r="Y65" s="85">
+        <v>0.092405067345282</v>
+      </c>
+      <c r="Z65" s="85">
+        <v>0.001463175246029</v>
+      </c>
       <c r="AA65" s="21"/>
       <c r="AB65" s="21"/>
       <c r="AC65" s="21"/>
@@ -7314,22 +8595,22 @@
         <v>30</v>
       </c>
       <c r="AL65" s="85">
-        <v>37.450302121459</v>
+        <v>20.597666166802</v>
       </c>
       <c r="AM65" s="85">
-        <v>3.1911402437695</v>
+        <v>1.7551271340732</v>
       </c>
       <c r="AN65" s="85">
-        <v>32.942951199665</v>
+        <v>18.118623159816</v>
       </c>
       <c r="AO65" s="85">
-        <v>2.8070688717235</v>
+        <v>1.5438878794479</v>
       </c>
       <c r="AP65" s="85">
-        <v>71.761753365513</v>
+        <v>39.468964351032</v>
       </c>
       <c r="AQ65" s="85">
-        <v>6.1148190042754</v>
+        <v>3.3631504523515</v>
       </c>
       <c r="AR65" s="23"/>
       <c r="AS65" s="23"/>
@@ -7366,12 +8647,24 @@
       <c r="D66" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
+      <c r="E66" s="85">
+        <v>116284.24938445</v>
+      </c>
+      <c r="F66" s="85">
+        <v>8.2250946321297</v>
+      </c>
+      <c r="G66" s="85">
+        <v>141523.94034784</v>
+      </c>
+      <c r="H66" s="85">
+        <v>4.6351095959962</v>
+      </c>
+      <c r="I66" s="85">
+        <v>260937.359694</v>
+      </c>
+      <c r="J66" s="85">
+        <v>5.8413445681371</v>
+      </c>
       <c r="K66" s="21"/>
       <c r="L66" s="21"/>
       <c r="M66" s="21"/>
@@ -7384,12 +8677,24 @@
       <c r="T66" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="U66" s="2"/>
-      <c r="V66" s="2"/>
-      <c r="W66" s="21"/>
-      <c r="X66" s="21"/>
-      <c r="Y66" s="21"/>
-      <c r="Z66" s="21"/>
+      <c r="U66" s="85">
+        <v>0.087017828305665</v>
+      </c>
+      <c r="V66" s="85">
+        <v>0.0012195123642184</v>
+      </c>
+      <c r="W66" s="85">
+        <v>0.047555175165011</v>
+      </c>
+      <c r="X66" s="85">
+        <v>0.00093640788949883</v>
+      </c>
+      <c r="Y66" s="85">
+        <v>0.06081462662027</v>
+      </c>
+      <c r="Z66" s="85">
+        <v>0.0010779601268586</v>
+      </c>
       <c r="AA66" s="21"/>
       <c r="AB66" s="21"/>
       <c r="AC66" s="21"/>
@@ -7406,22 +8711,22 @@
         <v>30</v>
       </c>
       <c r="AL66" s="85">
-        <v>26.378328636692</v>
+        <v>14.50808075018</v>
       </c>
       <c r="AM66" s="85">
-        <v>2.2476973831325</v>
+        <v>1.2362335607229</v>
       </c>
       <c r="AN66" s="85">
-        <v>15.416046697006</v>
+        <v>8.4788256833531</v>
       </c>
       <c r="AO66" s="85">
-        <v>1.3136013390518</v>
+        <v>0.72248073647852</v>
       </c>
       <c r="AP66" s="85">
-        <v>42.980598976963</v>
+        <v>23.63932943733</v>
       </c>
       <c r="AQ66" s="85">
-        <v>3.6623768388271</v>
+        <v>2.0143072613549</v>
       </c>
       <c r="AR66" s="23"/>
       <c r="AS66" s="23"/>
@@ -7460,12 +8765,24 @@
       <c r="D67" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
+      <c r="E67" s="85">
+        <v>106189.8153542</v>
+      </c>
+      <c r="F67" s="85">
+        <v>7.5110884309799</v>
+      </c>
+      <c r="G67" s="85">
+        <v>246364.05850474</v>
+      </c>
+      <c r="H67" s="85">
+        <v>8.068772031624</v>
+      </c>
+      <c r="I67" s="85">
+        <v>352067.77523911</v>
+      </c>
+      <c r="J67" s="85">
+        <v>7.8813903418076</v>
+      </c>
       <c r="K67" s="21"/>
       <c r="L67" s="21"/>
       <c r="M67" s="21"/>
@@ -7480,12 +8797,24 @@
       <c r="T67" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2"/>
-      <c r="W67" s="21"/>
-      <c r="X67" s="21"/>
-      <c r="Y67" s="21"/>
-      <c r="Z67" s="21"/>
+      <c r="U67" s="85">
+        <v>0.076302034752277</v>
+      </c>
+      <c r="V67" s="85">
+        <v>0.00086981243508969</v>
+      </c>
+      <c r="W67" s="85">
+        <v>0.081289446580112</v>
+      </c>
+      <c r="X67" s="85">
+        <v>0.0011117425798292</v>
+      </c>
+      <c r="Y67" s="85">
+        <v>0.079613676205959</v>
+      </c>
+      <c r="Z67" s="85">
+        <v>0.00099077750745942</v>
+      </c>
       <c r="AA67" s="21"/>
       <c r="AB67" s="21"/>
       <c r="AC67" s="21"/>
@@ -7504,22 +8833,22 @@
         <v>30</v>
       </c>
       <c r="AL67" s="85">
-        <v>5.9474611449397</v>
+        <v>3.2711036297169</v>
       </c>
       <c r="AM67" s="85">
-        <v>0.50678316416031</v>
+        <v>0.27873074028817</v>
       </c>
       <c r="AN67" s="85">
-        <v>13.739475029183</v>
+        <v>7.5567112660505</v>
       </c>
       <c r="AO67" s="85">
-        <v>1.1707406672367</v>
+        <v>0.64390736698017</v>
       </c>
       <c r="AP67" s="85">
-        <v>19.661390612103</v>
+        <v>10.813764836657</v>
       </c>
       <c r="AQ67" s="85">
-        <v>1.6753470940573</v>
+        <v>0.92144090173153</v>
       </c>
       <c r="AR67" s="23"/>
       <c r="AS67" s="23"/>
@@ -7558,12 +8887,24 @@
       <c r="D68" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
+      <c r="E68" s="85">
+        <v>212344.16992136</v>
+      </c>
+      <c r="F68" s="85">
+        <v>15.019668626058</v>
+      </c>
+      <c r="G68" s="85">
+        <v>479813.77256342</v>
+      </c>
+      <c r="H68" s="85">
+        <v>15.714580982085</v>
+      </c>
+      <c r="I68" s="85">
+        <v>691552.22996826</v>
+      </c>
+      <c r="J68" s="85">
+        <v>15.48109043046</v>
+      </c>
       <c r="K68" s="21"/>
       <c r="L68" s="21"/>
       <c r="M68" s="21"/>
@@ -7576,12 +8917,24 @@
       <c r="T68" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="U68" s="2"/>
-      <c r="V68" s="2"/>
-      <c r="W68" s="21"/>
-      <c r="X68" s="21"/>
-      <c r="Y68" s="21"/>
-      <c r="Z68" s="21"/>
+      <c r="U68" s="85">
+        <v>0.15377241780247</v>
+      </c>
+      <c r="V68" s="85">
+        <v>0.0013489527165435</v>
+      </c>
+      <c r="W68" s="85">
+        <v>0.15834926234859</v>
+      </c>
+      <c r="X68" s="85">
+        <v>0.00022235810978811</v>
+      </c>
+      <c r="Y68" s="85">
+        <v>0.15681144258109</v>
+      </c>
+      <c r="Z68" s="85">
+        <v>0.00078565541316579</v>
+      </c>
       <c r="AA68" s="21"/>
       <c r="AB68" s="21"/>
       <c r="AC68" s="21"/>
@@ -7598,22 +8951,22 @@
         <v>30</v>
       </c>
       <c r="AL68" s="85">
-        <v>14.377717292974</v>
+        <v>7.9077445111357</v>
       </c>
       <c r="AM68" s="85">
-        <v>1.2251252905343</v>
+        <v>0.67381890979387</v>
       </c>
       <c r="AN68" s="85">
-        <v>34.787852017323</v>
+        <v>19.133318609528</v>
       </c>
       <c r="AO68" s="85">
-        <v>2.9642728703961</v>
+        <v>1.6303500787179</v>
       </c>
       <c r="AP68" s="85">
-        <v>49.058900589124</v>
+        <v>26.982395324018</v>
       </c>
       <c r="AQ68" s="85">
-        <v>4.1803089191993</v>
+        <v>2.2991699055596</v>
       </c>
       <c r="AR68" s="23"/>
       <c r="AS68" s="23"/>
@@ -7650,12 +9003,24 @@
       <c r="D69" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
+      <c r="E69" s="85">
+        <v>185361.20501579</v>
+      </c>
+      <c r="F69" s="85">
+        <v>13.111091660745</v>
+      </c>
+      <c r="G69" s="85">
+        <v>441235.29469498</v>
+      </c>
+      <c r="H69" s="85">
+        <v>14.451081163415</v>
+      </c>
+      <c r="I69" s="85">
+        <v>625428.51297585</v>
+      </c>
+      <c r="J69" s="85">
+        <v>14.000844690518</v>
+      </c>
       <c r="K69" s="21"/>
       <c r="L69" s="21"/>
       <c r="M69" s="21"/>
@@ -7668,12 +9033,24 @@
       <c r="T69" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="U69" s="2"/>
-      <c r="V69" s="2"/>
-      <c r="W69" s="21"/>
-      <c r="X69" s="21"/>
-      <c r="Y69" s="21"/>
-      <c r="Z69" s="21"/>
+      <c r="U69" s="85">
+        <v>0.13587779859182</v>
+      </c>
+      <c r="V69" s="85">
+        <v>0.0015166365097786</v>
+      </c>
+      <c r="W69" s="85">
+        <v>0.14571426416189</v>
+      </c>
+      <c r="X69" s="85">
+        <v>0.00040948060764573</v>
+      </c>
+      <c r="Y69" s="85">
+        <v>0.14240921173035</v>
+      </c>
+      <c r="Z69" s="85">
+        <v>0.00096305855871217</v>
+      </c>
       <c r="AA69" s="21"/>
       <c r="AB69" s="21"/>
       <c r="AC69" s="21"/>
@@ -7690,22 +9067,22 @@
         <v>30</v>
       </c>
       <c r="AL69" s="85">
-        <v>17.518220113669</v>
+        <v>9.6350210625182</v>
       </c>
       <c r="AM69" s="85">
-        <v>1.4927275358858</v>
+        <v>0.82100014473717</v>
       </c>
       <c r="AN69" s="85">
-        <v>31.250128856217</v>
+        <v>17.187570870919</v>
       </c>
       <c r="AO69" s="85">
-        <v>2.6628234798382</v>
+        <v>1.464552913911</v>
       </c>
       <c r="AP69" s="85">
-        <v>48.956295508575</v>
+        <v>26.925962529716</v>
       </c>
       <c r="AQ69" s="85">
-        <v>4.1715659402857</v>
+        <v>2.2943612671571</v>
       </c>
       <c r="AR69" s="23"/>
       <c r="AS69" s="23"/>
@@ -7742,12 +9119,24 @@
       <c r="D70" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
+      <c r="E70" s="85">
+        <v>138176.47721807</v>
+      </c>
+      <c r="F70" s="85">
+        <v>9.7735902073509</v>
+      </c>
+      <c r="G70" s="85">
+        <v>398898.12044267</v>
+      </c>
+      <c r="H70" s="85">
+        <v>13.06447871183</v>
+      </c>
+      <c r="I70" s="85">
+        <v>534206.13181703</v>
+      </c>
+      <c r="J70" s="85">
+        <v>11.958740174325</v>
+      </c>
       <c r="K70" s="21"/>
       <c r="L70" s="21"/>
       <c r="M70" s="21"/>
@@ -7760,12 +9149,24 @@
       <c r="T70" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="U70" s="2"/>
-      <c r="V70" s="2"/>
-      <c r="W70" s="21"/>
-      <c r="X70" s="21"/>
-      <c r="Y70" s="21"/>
-      <c r="Z70" s="21"/>
+      <c r="U70" s="85">
+        <v>0.10846081648472</v>
+      </c>
+      <c r="V70" s="85">
+        <v>0.0019604039167814</v>
+      </c>
+      <c r="W70" s="85">
+        <v>0.1306447871183</v>
+      </c>
+      <c r="X70" s="85">
+        <v>0.00010730411937898</v>
+      </c>
+      <c r="Y70" s="85">
+        <v>0.12319097298542</v>
+      </c>
+      <c r="Z70" s="85">
+        <v>0.0010338540180802</v>
+      </c>
       <c r="AA70" s="21"/>
       <c r="AB70" s="21"/>
       <c r="AC70" s="21"/>
@@ -7782,22 +9183,22 @@
         <v>30</v>
       </c>
       <c r="AL70" s="85">
-        <v>31.713969814954</v>
+        <v>17.442683398225</v>
       </c>
       <c r="AM70" s="85">
-        <v>2.7023473679322</v>
+        <v>1.4862910523627</v>
       </c>
       <c r="AN70" s="85">
-        <v>42.60900184315</v>
+        <v>23.434951013732</v>
       </c>
       <c r="AO70" s="85">
-        <v>3.6307130470548</v>
+        <v>1.9968921758801</v>
       </c>
       <c r="AP70" s="85">
-        <v>75.06186708025</v>
+        <v>41.284026894137</v>
       </c>
       <c r="AQ70" s="85">
-        <v>6.3960216939081</v>
+        <v>3.5178119316494</v>
       </c>
       <c r="AR70" s="23"/>
       <c r="AS70" s="23"/>
@@ -7838,12 +9239,24 @@
       <c r="D71" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
+      <c r="E71" s="85">
+        <v>222422.48541204</v>
+      </c>
+      <c r="F71" s="85">
+        <v>15.732534719979</v>
+      </c>
+      <c r="G71" s="85">
+        <v>262817.0542298</v>
+      </c>
+      <c r="H71" s="85">
+        <v>8.6076309566983</v>
+      </c>
+      <c r="I71" s="85">
+        <v>491449.88163819</v>
+      </c>
+      <c r="J71" s="85">
+        <v>11.001598621161</v>
+      </c>
       <c r="K71" s="21"/>
       <c r="L71" s="21"/>
       <c r="M71" s="21"/>
@@ -7860,12 +9273,24 @@
       <c r="T71" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="U71" s="2"/>
-      <c r="V71" s="2"/>
-      <c r="W71" s="21"/>
-      <c r="X71" s="21"/>
-      <c r="Y71" s="21"/>
-      <c r="Z71" s="21"/>
+      <c r="U71" s="85">
+        <v>0.17400373360894</v>
+      </c>
+      <c r="V71" s="85">
+        <v>0.001546880387453</v>
+      </c>
+      <c r="W71" s="85">
+        <v>0.089687293827519</v>
+      </c>
+      <c r="X71" s="85">
+        <v>0.00038630532024372</v>
+      </c>
+      <c r="Y71" s="85">
+        <v>0.11801761759408</v>
+      </c>
+      <c r="Z71" s="85">
+        <v>0.00096659285384836</v>
+      </c>
       <c r="AA71" s="21"/>
       <c r="AB71" s="21"/>
       <c r="AC71" s="21"/>
@@ -7919,12 +9344,24 @@
       <c r="BA71" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="BB71" s="2"/>
-      <c r="BC71" s="2"/>
-      <c r="BD71" s="21"/>
-      <c r="BE71" s="21"/>
-      <c r="BF71" s="21"/>
-      <c r="BG71" s="21"/>
+      <c r="BB71" s="85">
+        <v>0.43105345520315</v>
+      </c>
+      <c r="BC71" s="85">
+        <v>0.012243410159214</v>
+      </c>
+      <c r="BD71" s="85">
+        <v>0.34832400841372</v>
+      </c>
+      <c r="BE71" s="85">
+        <v>0.0025402254925535</v>
+      </c>
+      <c r="BF71" s="85">
+        <v>0.37612110253497</v>
+      </c>
+      <c r="BG71" s="85">
+        <v>0.0073918178258837</v>
+      </c>
       <c r="BH71" s="21"/>
       <c r="BI71" s="21"/>
       <c r="BJ71" s="21"/>
@@ -7946,12 +9383,24 @@
       <c r="D72" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
+      <c r="E72" s="85">
+        <v>96050.249413177</v>
+      </c>
+      <c r="F72" s="85">
+        <v>6.7938899295911</v>
+      </c>
+      <c r="G72" s="85">
+        <v>139701.99522674</v>
+      </c>
+      <c r="H72" s="85">
+        <v>4.5754383114528</v>
+      </c>
+      <c r="I72" s="85">
+        <v>237685.93296873</v>
+      </c>
+      <c r="J72" s="85">
+        <v>5.3208380551473</v>
+      </c>
       <c r="K72" s="21"/>
       <c r="L72" s="21"/>
       <c r="M72" s="21"/>
@@ -7968,12 +9417,24 @@
       <c r="T72" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="U72" s="2"/>
-      <c r="V72" s="2"/>
-      <c r="W72" s="21"/>
-      <c r="X72" s="21"/>
-      <c r="Y72" s="21"/>
-      <c r="Z72" s="21"/>
+      <c r="U72" s="85">
+        <v>0.073899211937213</v>
+      </c>
+      <c r="V72" s="85">
+        <v>0.0018612950671323</v>
+      </c>
+      <c r="W72" s="85">
+        <v>0.047560188583448</v>
+      </c>
+      <c r="X72" s="85">
+        <v>0.00040016751439615</v>
+      </c>
+      <c r="Y72" s="85">
+        <v>0.056410100430313</v>
+      </c>
+      <c r="Z72" s="85">
+        <v>0.0011307312907642</v>
+      </c>
       <c r="AA72" s="21"/>
       <c r="AB72" s="21"/>
       <c r="AC72" s="21"/>
@@ -8027,12 +9488,24 @@
       <c r="BA72" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="BB72" s="2"/>
-      <c r="BC72" s="2"/>
-      <c r="BD72" s="21"/>
-      <c r="BE72" s="21"/>
-      <c r="BF72" s="21"/>
-      <c r="BG72" s="21"/>
+      <c r="BB72" s="85">
+        <v>2.4183070053614</v>
+      </c>
+      <c r="BC72" s="85">
+        <v>0.00049643350259897</v>
+      </c>
+      <c r="BD72" s="85">
+        <v>2.5707764821934</v>
+      </c>
+      <c r="BE72" s="85">
+        <v>0.00061220105727351</v>
+      </c>
+      <c r="BF72" s="85">
+        <v>2.5195467379778</v>
+      </c>
+      <c r="BG72" s="85">
+        <v>0.00055431727993624</v>
+      </c>
       <c r="BH72" s="21"/>
       <c r="BI72" s="21"/>
       <c r="BJ72" s="21"/>
@@ -8054,12 +9527,24 @@
       <c r="D73" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
+      <c r="E73" s="85">
+        <v>21901.898957367</v>
+      </c>
+      <c r="F73" s="85">
+        <v>1.5491796395582</v>
+      </c>
+      <c r="G73" s="85">
+        <v>29401.782013619</v>
+      </c>
+      <c r="H73" s="85">
+        <v>0.96295002538623</v>
+      </c>
+      <c r="I73" s="85">
+        <v>51814.661401509</v>
+      </c>
+      <c r="J73" s="85">
+        <v>1.159923175748</v>
+      </c>
       <c r="K73" s="21"/>
       <c r="L73" s="21"/>
       <c r="M73" s="21"/>
@@ -8076,12 +9561,24 @@
       <c r="T73" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="U73" s="2"/>
-      <c r="V73" s="2"/>
-      <c r="W73" s="21"/>
-      <c r="X73" s="21"/>
-      <c r="Y73" s="21"/>
-      <c r="Z73" s="21"/>
+      <c r="U73" s="85">
+        <v>0.021447548607971</v>
+      </c>
+      <c r="V73" s="85">
+        <v>0.0030484887636246</v>
+      </c>
+      <c r="W73" s="85">
+        <v>0.016852722129542</v>
+      </c>
+      <c r="X73" s="85">
+        <v>0.0025998073720057</v>
+      </c>
+      <c r="Y73" s="85">
+        <v>0.018396583826294</v>
+      </c>
+      <c r="Z73" s="85">
+        <v>0.0028241480678151</v>
+      </c>
       <c r="AA73" s="21"/>
       <c r="AB73" s="21"/>
       <c r="AC73" s="21"/>
@@ -8135,12 +9632,24 @@
       <c r="BA73" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="BB73" s="2"/>
-      <c r="BC73" s="2"/>
-      <c r="BD73" s="21"/>
-      <c r="BE73" s="21"/>
-      <c r="BF73" s="21"/>
-      <c r="BG73" s="21"/>
+      <c r="BB73" s="85">
+        <v>0.090593559847555</v>
+      </c>
+      <c r="BC73" s="85">
+        <v>0.0019632207139231</v>
+      </c>
+      <c r="BD73" s="85">
+        <v>0.05899674766084</v>
+      </c>
+      <c r="BE73" s="85">
+        <v>0.0071097058489909</v>
+      </c>
+      <c r="BF73" s="85">
+        <v>0.069613276555576</v>
+      </c>
+      <c r="BG73" s="85">
+        <v>0.004536463281457</v>
+      </c>
       <c r="BH73" s="21"/>
       <c r="BI73" s="21"/>
       <c r="BJ73" s="21"/>
@@ -8162,12 +9671,24 @@
       <c r="D74" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
+      <c r="E74" s="85">
+        <v>5055.2762849041</v>
+      </c>
+      <c r="F74" s="85">
+        <v>0.35757315418901</v>
+      </c>
+      <c r="G74" s="85">
+        <v>11033.082818423</v>
+      </c>
+      <c r="H74" s="85">
+        <v>0.36134909697541</v>
+      </c>
+      <c r="I74" s="85">
+        <v>16085.06784539</v>
+      </c>
+      <c r="J74" s="85">
+        <v>0.36008038019918</v>
+      </c>
       <c r="K74" s="21"/>
       <c r="L74" s="21"/>
       <c r="M74" s="21"/>
@@ -8184,12 +9705,24 @@
       <c r="T74" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="U74" s="2"/>
-      <c r="V74" s="2"/>
-      <c r="W74" s="21"/>
-      <c r="X74" s="21"/>
-      <c r="Y74" s="21"/>
-      <c r="Z74" s="21"/>
+      <c r="U74" s="85">
+        <v>0.0035757315418901</v>
+      </c>
+      <c r="V74" s="85">
+        <v>0.0012006421786307</v>
+      </c>
+      <c r="W74" s="85">
+        <v>0.0036134909697541</v>
+      </c>
+      <c r="X74" s="85">
+        <v>0.00047504492201662</v>
+      </c>
+      <c r="Y74" s="85">
+        <v>0.0036008038019918</v>
+      </c>
+      <c r="Z74" s="85">
+        <v>0.00083784355032367</v>
+      </c>
       <c r="AA74" s="21"/>
       <c r="AB74" s="21"/>
       <c r="AC74" s="21"/>
@@ -8243,12 +9776,24 @@
       <c r="BA74" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="BB74" s="2"/>
-      <c r="BC74" s="2"/>
-      <c r="BD74" s="21"/>
-      <c r="BE74" s="21"/>
-      <c r="BF74" s="21"/>
-      <c r="BG74" s="21"/>
+      <c r="BB74" s="85">
+        <v>0.081080317808927</v>
+      </c>
+      <c r="BC74" s="85">
+        <v>0.034577797101692</v>
+      </c>
+      <c r="BD74" s="85">
+        <v>0.080678946833974</v>
+      </c>
+      <c r="BE74" s="85">
+        <v>0.0023898474615954</v>
+      </c>
+      <c r="BF74" s="85">
+        <v>0.080813807481558</v>
+      </c>
+      <c r="BG74" s="85">
+        <v>0.018483822281644</v>
+      </c>
       <c r="BH74" s="21"/>
       <c r="BI74" s="21"/>
       <c r="BJ74" s="21"/>
@@ -8270,12 +9815,24 @@
       <c r="D75" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
+      <c r="E75" s="85">
+        <v>310033.30494942</v>
+      </c>
+      <c r="F75" s="85">
+        <v>21.929481299658</v>
+      </c>
+      <c r="G75" s="85">
+        <v>542247.832783</v>
+      </c>
+      <c r="H75" s="85">
+        <v>17.759384927831</v>
+      </c>
+      <c r="I75" s="85">
+        <v>855915.95519624</v>
+      </c>
+      <c r="J75" s="85">
+        <v>19.160537308764</v>
+      </c>
       <c r="K75" s="21"/>
       <c r="L75" s="21"/>
       <c r="M75" s="21"/>
@@ -8292,12 +9849,24 @@
       <c r="T75" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="U75" s="2"/>
-      <c r="V75" s="2"/>
-      <c r="W75" s="21"/>
-      <c r="X75" s="21"/>
-      <c r="Y75" s="21"/>
-      <c r="Z75" s="21"/>
+      <c r="U75" s="85">
+        <v>0.2478847038305</v>
+      </c>
+      <c r="V75" s="85">
+        <v>0.0012502418316963</v>
+      </c>
+      <c r="W75" s="85">
+        <v>0.18361612533546</v>
+      </c>
+      <c r="X75" s="85">
+        <v>0.00065490311243242</v>
+      </c>
+      <c r="Y75" s="85">
+        <v>0.20521036770979</v>
+      </c>
+      <c r="Z75" s="85">
+        <v>0.00095257247206437</v>
+      </c>
       <c r="AA75" s="21"/>
       <c r="AB75" s="21"/>
       <c r="AC75" s="21"/>
@@ -8351,12 +9920,24 @@
       <c r="BA75" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="BB75" s="2"/>
-      <c r="BC75" s="2"/>
-      <c r="BD75" s="21"/>
-      <c r="BE75" s="21"/>
-      <c r="BF75" s="21"/>
-      <c r="BG75" s="21"/>
+      <c r="BB75" s="85">
+        <v>2.2446640895291</v>
+      </c>
+      <c r="BC75" s="85">
+        <v>0.00052095626831632</v>
+      </c>
+      <c r="BD75" s="85">
+        <v>1.9552072276782</v>
+      </c>
+      <c r="BE75" s="85">
+        <v>0.00054516719889219</v>
+      </c>
+      <c r="BF75" s="85">
+        <v>2.0524647332601</v>
+      </c>
+      <c r="BG75" s="85">
+        <v>0.00053306173360425</v>
+      </c>
       <c r="BH75" s="21"/>
       <c r="BI75" s="21"/>
       <c r="BJ75" s="21"/>
@@ -8378,12 +9959,24 @@
       <c r="D76" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
+      <c r="E76" s="85">
+        <v>0</v>
+      </c>
+      <c r="F76" s="85">
+        <v>0</v>
+      </c>
+      <c r="G76" s="85">
+        <v>0</v>
+      </c>
+      <c r="H76" s="85">
+        <v>0</v>
+      </c>
+      <c r="I76" s="85">
+        <v>0</v>
+      </c>
+      <c r="J76" s="85">
+        <v>0</v>
+      </c>
       <c r="K76" s="21"/>
       <c r="L76" s="21"/>
       <c r="M76" s="21"/>
@@ -8400,12 +9993,24 @@
       <c r="T76" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="U76" s="2"/>
-      <c r="V76" s="2"/>
-      <c r="W76" s="21"/>
-      <c r="X76" s="21"/>
-      <c r="Y76" s="21"/>
-      <c r="Z76" s="21"/>
+      <c r="U76" s="85">
+        <v>0.042885976358116</v>
+      </c>
+      <c r="V76" s="85">
+        <v>0.00025229444712257</v>
+      </c>
+      <c r="W76" s="85">
+        <v>0.028884114020454</v>
+      </c>
+      <c r="X76" s="85">
+        <v>0.004785298484267</v>
+      </c>
+      <c r="Y76" s="85">
+        <v>0.033588739765909</v>
+      </c>
+      <c r="Z76" s="85">
+        <v>0.0025187964656948</v>
+      </c>
       <c r="AA76" s="21"/>
       <c r="AB76" s="21"/>
       <c r="AC76" s="21"/>
@@ -8459,12 +10064,24 @@
       <c r="BA76" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="BB76" s="2"/>
-      <c r="BC76" s="2"/>
-      <c r="BD76" s="21"/>
-      <c r="BE76" s="21"/>
-      <c r="BF76" s="21"/>
-      <c r="BG76" s="21"/>
+      <c r="BB76" s="85">
+        <v>0.15920214133454</v>
+      </c>
+      <c r="BC76" s="85">
+        <v>0.0070054747430039</v>
+      </c>
+      <c r="BD76" s="85">
+        <v>0.18820278117067</v>
+      </c>
+      <c r="BE76" s="85">
+        <v>0.0013937902849105</v>
+      </c>
+      <c r="BF76" s="85">
+        <v>0.17845856618573</v>
+      </c>
+      <c r="BG76" s="85">
+        <v>0.0041996325139572</v>
+      </c>
       <c r="BH76" s="21"/>
       <c r="BI76" s="21"/>
       <c r="BJ76" s="21"/>
@@ -8545,12 +10162,24 @@
       <c r="AY77" s="3"/>
       <c r="AZ77" s="3"/>
       <c r="BA77" s="3"/>
-      <c r="BB77" s="3"/>
-      <c r="BC77" s="3"/>
-      <c r="BD77" s="22"/>
-      <c r="BE77" s="22"/>
-      <c r="BF77" s="22"/>
-      <c r="BG77" s="22"/>
+      <c r="BB77" s="88">
+        <v>0.056608148698404</v>
+      </c>
+      <c r="BC77" s="88">
+        <v>0.013118053144404</v>
+      </c>
+      <c r="BD77" s="88">
+        <v>0.024678923623703</v>
+      </c>
+      <c r="BE77" s="88">
+        <v>0.0064286734066914</v>
+      </c>
+      <c r="BF77" s="88">
+        <v>0.035407143248803</v>
+      </c>
+      <c r="BG77" s="88">
+        <v>0.0097733632755477</v>
+      </c>
       <c r="BH77" s="22"/>
       <c r="BI77" s="22"/>
       <c r="BJ77" s="22"/>
@@ -8619,12 +10248,24 @@
       <c r="AY78" s="3"/>
       <c r="AZ78" s="3"/>
       <c r="BA78" s="3"/>
-      <c r="BB78" s="3"/>
-      <c r="BC78" s="3"/>
-      <c r="BD78" s="22"/>
-      <c r="BE78" s="22"/>
-      <c r="BF78" s="22"/>
-      <c r="BG78" s="22"/>
+      <c r="BB78" s="88">
+        <v>0.75030234803953</v>
+      </c>
+      <c r="BC78" s="88">
+        <v>0.0035453798718977</v>
+      </c>
+      <c r="BD78" s="88">
+        <v>0.32930939580764</v>
+      </c>
+      <c r="BE78" s="88">
+        <v>0.0025699482974717</v>
+      </c>
+      <c r="BF78" s="88">
+        <v>0.47076302775756</v>
+      </c>
+      <c r="BG78" s="88">
+        <v>0.0030576640846847</v>
+      </c>
       <c r="BH78" s="22"/>
       <c r="BI78" s="22"/>
       <c r="BJ78" s="22"/>
@@ -8705,12 +10346,24 @@
       <c r="AY79" s="3"/>
       <c r="AZ79" s="3"/>
       <c r="BA79" s="3"/>
-      <c r="BB79" s="3"/>
-      <c r="BC79" s="3"/>
-      <c r="BD79" s="22"/>
-      <c r="BE79" s="22"/>
-      <c r="BF79" s="22"/>
-      <c r="BG79" s="22"/>
+      <c r="BB79" s="88">
+        <v>0.0023823008849558</v>
+      </c>
+      <c r="BC79" s="88">
+        <v>0</v>
+      </c>
+      <c r="BD79" s="88">
+        <v>0.022883771668964</v>
+      </c>
+      <c r="BE79" s="88">
+        <v>0.012087555260151</v>
+      </c>
+      <c r="BF79" s="88">
+        <v>0.015995277485537</v>
+      </c>
+      <c r="BG79" s="88">
+        <v>0.0060437776300753</v>
+      </c>
       <c r="BH79" s="22"/>
       <c r="BI79" s="22"/>
       <c r="BJ79" s="22"/>
@@ -8742,6 +10395,24 @@
       <c r="AU80" s="28"/>
       <c r="AV80" s="28"/>
       <c r="AW80" s="28"/>
+      <c r="BB80" s="85">
+        <v>0.46020819068536</v>
+      </c>
+      <c r="BC80" s="85">
+        <v>0.0083965039759281</v>
+      </c>
+      <c r="BD80" s="85">
+        <v>0.28321623558425</v>
+      </c>
+      <c r="BE80" s="85">
+        <v>0.0030050011459687</v>
+      </c>
+      <c r="BF80" s="85">
+        <v>0.34268553249822</v>
+      </c>
+      <c r="BG80" s="85">
+        <v>0.0057007525609484</v>
+      </c>
     </row>
     <row r="81" spans="1:68">
       <c r="AH81" s="58" t="s">
@@ -8776,6 +10447,1084 @@
         <v>41</v>
       </c>
       <c r="AW81" s="37"/>
+      <c r="BB81" s="89">
+        <v>0.465196253472</v>
+      </c>
+      <c r="BC81" s="89">
+        <v>0.0055851904287166</v>
+      </c>
+      <c r="BD81" s="90">
+        <v>0.23302974686299</v>
+      </c>
+      <c r="BE81" s="90">
+        <v>0.0068670585895218</v>
+      </c>
+      <c r="BF81" s="90">
+        <v>0.31103769308361</v>
+      </c>
+      <c r="BG81" s="90">
+        <v>0.0062261245091192</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="BB82" s="89">
+        <v>0.10132873522382</v>
+      </c>
+      <c r="BC82" s="89">
+        <v>0.0069569835835646</v>
+      </c>
+      <c r="BD82" s="90">
+        <v>0.032509511858998</v>
+      </c>
+      <c r="BE82" s="90">
+        <v>0.0033252855314283</v>
+      </c>
+      <c r="BF82" s="90">
+        <v>0.055632770909579</v>
+      </c>
+      <c r="BG82" s="90">
+        <v>0.0051411345574964</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="BB83" s="89">
+        <v>0.048919255862024</v>
+      </c>
+      <c r="BC83" s="89">
+        <v>0.016462139286342</v>
+      </c>
+      <c r="BD83" s="90">
+        <v>0.021985882352941</v>
+      </c>
+      <c r="BE83" s="90">
+        <v>0</v>
+      </c>
+      <c r="BF83" s="90">
+        <v>0.031035495851993</v>
+      </c>
+      <c r="BG83" s="90">
+        <v>0.008231069643171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="BB84" s="89">
+        <v>0.0059671532846715</v>
+      </c>
+      <c r="BC84" s="89">
+        <v>0</v>
+      </c>
+      <c r="BD84" s="90">
+        <v>0.0030086313193588</v>
+      </c>
+      <c r="BE84" s="90">
+        <v>0</v>
+      </c>
+      <c r="BF84" s="90">
+        <v>0.0040026946997039</v>
+      </c>
+      <c r="BG84" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="BB85" s="89">
+        <v>0.011911504424779</v>
+      </c>
+      <c r="BC85" s="89">
+        <v>0</v>
+      </c>
+      <c r="BD85" s="90">
+        <v>0.0048144367882788</v>
+      </c>
+      <c r="BE85" s="90">
+        <v>0</v>
+      </c>
+      <c r="BF85" s="90">
+        <v>0.0071990515141428</v>
+      </c>
+      <c r="BG85" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="BB86" s="89">
+        <v>0.1302625179252</v>
+      </c>
+      <c r="BC86" s="89">
+        <v>0.0030825407204531</v>
+      </c>
+      <c r="BD86" s="90">
+        <v>0.037018072096903</v>
+      </c>
+      <c r="BE86" s="90">
+        <v>0.0010309018872002</v>
+      </c>
+      <c r="BF86" s="90">
+        <v>0.06834820589521</v>
+      </c>
+      <c r="BG86" s="90">
+        <v>0.0020567213038266</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="BB87" s="89">
+        <v>0.28726868742329</v>
+      </c>
+      <c r="BC87" s="89">
+        <v>0.010854779119428</v>
+      </c>
+      <c r="BD87" s="90">
+        <v>0.025280649887575</v>
+      </c>
+      <c r="BE87" s="90">
+        <v>0.0025948617437966</v>
+      </c>
+      <c r="BF87" s="90">
+        <v>0.11330863049958</v>
+      </c>
+      <c r="BG87" s="90">
+        <v>0.0067248204316123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="BB88" s="89">
+        <v>0.036930224145727</v>
+      </c>
+      <c r="BC88" s="89">
+        <v>0.0087046557950727</v>
+      </c>
+      <c r="BD88" s="90">
+        <v>0.019266520635381</v>
+      </c>
+      <c r="BE88" s="90">
+        <v>0.0058771431688265</v>
+      </c>
+      <c r="BF88" s="90">
+        <v>0.025201525014857</v>
+      </c>
+      <c r="BG88" s="90">
+        <v>0.0072908994819496</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="BB89" s="89">
+        <v>0.011934306569343</v>
+      </c>
+      <c r="BC89" s="89">
+        <v>0</v>
+      </c>
+      <c r="BD89" s="90">
+        <v>0</v>
+      </c>
+      <c r="BE89" s="90">
+        <v>0</v>
+      </c>
+      <c r="BF89" s="90">
+        <v>0.0040099270072993</v>
+      </c>
+      <c r="BG89" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="BB90" s="89">
+        <v>0.0071469026548673</v>
+      </c>
+      <c r="BC90" s="89">
+        <v>0</v>
+      </c>
+      <c r="BD90" s="90">
+        <v>0.0030098846739682</v>
+      </c>
+      <c r="BE90" s="90">
+        <v>0</v>
+      </c>
+      <c r="BF90" s="90">
+        <v>0.0043999227155503</v>
+      </c>
+      <c r="BG90" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="BB91" s="89">
+        <v>1.652724324656</v>
+      </c>
+      <c r="BC91" s="89">
+        <v>0.0044970353061287</v>
+      </c>
+      <c r="BD91" s="90">
+        <v>0.58244871835787</v>
+      </c>
+      <c r="BE91" s="90">
+        <v>0.0033070279549738</v>
+      </c>
+      <c r="BF91" s="90">
+        <v>0.94206132207405</v>
+      </c>
+      <c r="BG91" s="90">
+        <v>0.0039020316305513</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="BB92" s="89">
+        <v>0.39683209417996</v>
+      </c>
+      <c r="BC92" s="89">
+        <v>0.004381307064849</v>
+      </c>
+      <c r="BD92" s="90">
+        <v>0.10384728802495</v>
+      </c>
+      <c r="BE92" s="90">
+        <v>0.0019537637758866</v>
+      </c>
+      <c r="BF92" s="90">
+        <v>0.20229018289303</v>
+      </c>
+      <c r="BG92" s="90">
+        <v>0.0031675354203678</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="BB93" s="89">
+        <v>0.0011911504424779</v>
+      </c>
+      <c r="BC93" s="89">
+        <v>0</v>
+      </c>
+      <c r="BD93" s="90">
+        <v>0.0042145905563212</v>
+      </c>
+      <c r="BE93" s="90">
+        <v>0</v>
+      </c>
+      <c r="BF93" s="90">
+        <v>0.0031987146780698</v>
+      </c>
+      <c r="BG93" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="BB94" s="89">
+        <v>0.0071469026548673</v>
+      </c>
+      <c r="BC94" s="89">
+        <v>0</v>
+      </c>
+      <c r="BD94" s="90">
+        <v>0.0012047058823529</v>
+      </c>
+      <c r="BE94" s="90">
+        <v>0</v>
+      </c>
+      <c r="BF94" s="90">
+        <v>0.0032012839979178</v>
+      </c>
+      <c r="BG94" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="BB95" s="89">
+        <v>1.9481219863058</v>
+      </c>
+      <c r="BC95" s="89">
+        <v>0.0013037140621581</v>
+      </c>
+      <c r="BD95" s="90">
+        <v>1.5869430042794</v>
+      </c>
+      <c r="BE95" s="90">
+        <v>0.0011120583722169</v>
+      </c>
+      <c r="BF95" s="90">
+        <v>1.7082991422403</v>
+      </c>
+      <c r="BG95" s="90">
+        <v>0.0012078862171875</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="BB96" s="89">
+        <v>0.42904674116659</v>
+      </c>
+      <c r="BC96" s="89">
+        <v>0.0046601876506926</v>
+      </c>
+      <c r="BD96" s="90">
+        <v>0.2673561053166</v>
+      </c>
+      <c r="BE96" s="90">
+        <v>0.000528773802092</v>
+      </c>
+      <c r="BF96" s="90">
+        <v>0.3216841589622</v>
+      </c>
+      <c r="BG96" s="90">
+        <v>0.0025944807263923</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="BB97" s="89">
+        <v>0</v>
+      </c>
+      <c r="BC97" s="89">
+        <v>0</v>
+      </c>
+      <c r="BD97" s="90">
+        <v>0.0048175701748023</v>
+      </c>
+      <c r="BE97" s="90">
+        <v>0.0067966326790536</v>
+      </c>
+      <c r="BF97" s="90">
+        <v>0.0031988665960688</v>
+      </c>
+      <c r="BG97" s="90">
+        <v>0.0033983163395268</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="BB98" s="89">
+        <v>0</v>
+      </c>
+      <c r="BC98" s="89">
+        <v>0</v>
+      </c>
+      <c r="BD98" s="90">
+        <v>0</v>
+      </c>
+      <c r="BE98" s="90">
+        <v>0</v>
+      </c>
+      <c r="BF98" s="90">
+        <v>0</v>
+      </c>
+      <c r="BG98" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="BB99" s="89">
+        <v>0.016705748982624</v>
+      </c>
+      <c r="BC99" s="89">
+        <v>0.013188526722053</v>
+      </c>
+      <c r="BD99" s="90">
+        <v>0</v>
+      </c>
+      <c r="BE99" s="90">
+        <v>0</v>
+      </c>
+      <c r="BF99" s="90">
+        <v>0.0056131316581616</v>
+      </c>
+      <c r="BG99" s="90">
+        <v>0.0065942633610267</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="BB100" s="89">
+        <v>1.1445419223564</v>
+      </c>
+      <c r="BC100" s="89">
+        <v>0.016111954608468</v>
+      </c>
+      <c r="BD100" s="90">
+        <v>1.6268908624066</v>
+      </c>
+      <c r="BE100" s="90">
+        <v>0.0016910221703825</v>
+      </c>
+      <c r="BF100" s="90">
+        <v>1.4648216185498</v>
+      </c>
+      <c r="BG100" s="90">
+        <v>0.0089014883894255</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="BB101" s="89">
+        <v>4.4968461081325</v>
+      </c>
+      <c r="BC101" s="89">
+        <v>0.0069561580885544</v>
+      </c>
+      <c r="BD101" s="90">
+        <v>4.4866322535722</v>
+      </c>
+      <c r="BE101" s="90">
+        <v>0.0016237431662355</v>
+      </c>
+      <c r="BF101" s="90">
+        <v>4.4900641087045</v>
+      </c>
+      <c r="BG101" s="90">
+        <v>0.0042899506273949</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="BB102" s="89">
+        <v>1.0673433240747</v>
+      </c>
+      <c r="BC102" s="89">
+        <v>0.0052479975910764</v>
+      </c>
+      <c r="BD102" s="90">
+        <v>0.68170940161021</v>
+      </c>
+      <c r="BE102" s="90">
+        <v>0.0025053424270735</v>
+      </c>
+      <c r="BF102" s="90">
+        <v>0.81128239955827</v>
+      </c>
+      <c r="BG102" s="90">
+        <v>0.0038766700090749</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="BB103" s="89">
+        <v>0.58164853045669</v>
+      </c>
+      <c r="BC103" s="89">
+        <v>0.0020607458384392</v>
+      </c>
+      <c r="BD103" s="90">
+        <v>0.27870454195982</v>
+      </c>
+      <c r="BE103" s="90">
+        <v>0.0015719760284287</v>
+      </c>
+      <c r="BF103" s="90">
+        <v>0.38049372209477</v>
+      </c>
+      <c r="BG103" s="90">
+        <v>0.0018163609334339</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="BB104" s="89">
+        <v>0.61646834313029</v>
+      </c>
+      <c r="BC104" s="89">
+        <v>0.0037463940709475</v>
+      </c>
+      <c r="BD104" s="90">
+        <v>0.16405939508232</v>
+      </c>
+      <c r="BE104" s="90">
+        <v>0.0011742313957078</v>
+      </c>
+      <c r="BF104" s="90">
+        <v>0.31606880162644</v>
+      </c>
+      <c r="BG104" s="90">
+        <v>0.0024603127333277</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="BB105" s="89">
+        <v>0.85005071700795</v>
+      </c>
+      <c r="BC105" s="89">
+        <v>0.0046595679603735</v>
+      </c>
+      <c r="BD105" s="90">
+        <v>0.24593396097773</v>
+      </c>
+      <c r="BE105" s="90">
+        <v>0.0020683419554239</v>
+      </c>
+      <c r="BF105" s="90">
+        <v>0.44891719100388</v>
+      </c>
+      <c r="BG105" s="90">
+        <v>0.0033639549578987</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="BB106" s="89">
+        <v>0.17650004521672</v>
+      </c>
+      <c r="BC106" s="89">
+        <v>0.0036969601643713</v>
+      </c>
+      <c r="BD106" s="90">
+        <v>0.031909038949735</v>
+      </c>
+      <c r="BE106" s="90">
+        <v>0.0025873394440623</v>
+      </c>
+      <c r="BF106" s="90">
+        <v>0.080491617055441</v>
+      </c>
+      <c r="BG106" s="90">
+        <v>0.0031421498042168</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="BB107" s="89">
+        <v>0.0095383243976487</v>
+      </c>
+      <c r="BC107" s="89">
+        <v>0.010261674761878</v>
+      </c>
+      <c r="BD107" s="90">
+        <v>0.0090290273446</v>
+      </c>
+      <c r="BE107" s="90">
+        <v>0.0040786735558899</v>
+      </c>
+      <c r="BF107" s="90">
+        <v>0.0092001511544244</v>
+      </c>
+      <c r="BG107" s="90">
+        <v>0.0071701741588841</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="BB108" s="89">
+        <v>0.019065247723015</v>
+      </c>
+      <c r="BC108" s="89">
+        <v>0.00028232347241245</v>
+      </c>
+      <c r="BD108" s="90">
+        <v>0.0042164705882353</v>
+      </c>
+      <c r="BE108" s="90">
+        <v>0</v>
+      </c>
+      <c r="BF108" s="90">
+        <v>0.0092056597055214</v>
+      </c>
+      <c r="BG108" s="90">
+        <v>0.00014116173620622</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="BB109" s="89">
+        <v>0.017901459854015</v>
+      </c>
+      <c r="BC109" s="89">
+        <v>0</v>
+      </c>
+      <c r="BD109" s="90">
+        <v>0</v>
+      </c>
+      <c r="BE109" s="90">
+        <v>0</v>
+      </c>
+      <c r="BF109" s="90">
+        <v>0.0060148905109489</v>
+      </c>
+      <c r="BG109" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="BB110" s="89">
+        <v>0.04294754214844</v>
+      </c>
+      <c r="BC110" s="89">
+        <v>0.078230635589189</v>
+      </c>
+      <c r="BD110" s="90">
+        <v>0</v>
+      </c>
+      <c r="BE110" s="90">
+        <v>0</v>
+      </c>
+      <c r="BF110" s="90">
+        <v>0.014430374161876</v>
+      </c>
+      <c r="BG110" s="90">
+        <v>0.039115317794594</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="BB111" s="89">
+        <v>0.0059671532846715</v>
+      </c>
+      <c r="BC111" s="89">
+        <v>0</v>
+      </c>
+      <c r="BD111" s="90">
+        <v>0.012636251541307</v>
+      </c>
+      <c r="BE111" s="90">
+        <v>0</v>
+      </c>
+      <c r="BF111" s="90">
+        <v>0.010395434527078</v>
+      </c>
+      <c r="BG111" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="BB112" s="89">
+        <v>0.014321167883212</v>
+      </c>
+      <c r="BC112" s="89">
+        <v>0</v>
+      </c>
+      <c r="BD112" s="90">
+        <v>0</v>
+      </c>
+      <c r="BE112" s="90">
+        <v>0</v>
+      </c>
+      <c r="BF112" s="90">
+        <v>0.0048119124087591</v>
+      </c>
+      <c r="BG112" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="BB113" s="89">
+        <v>0.0023823008849558</v>
+      </c>
+      <c r="BC113" s="89">
+        <v>0</v>
+      </c>
+      <c r="BD113" s="90">
+        <v>0</v>
+      </c>
+      <c r="BE113" s="90">
+        <v>0</v>
+      </c>
+      <c r="BF113" s="90">
+        <v>0.00080045309734513</v>
+      </c>
+      <c r="BG113" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="BB114" s="89">
+        <v>0.028587610619469</v>
+      </c>
+      <c r="BC114" s="89">
+        <v>0</v>
+      </c>
+      <c r="BD114" s="90">
+        <v>0</v>
+      </c>
+      <c r="BE114" s="90">
+        <v>0</v>
+      </c>
+      <c r="BF114" s="90">
+        <v>0.0096054371681416</v>
+      </c>
+      <c r="BG114" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="BB115" s="89">
+        <v>0</v>
+      </c>
+      <c r="BC115" s="89">
+        <v>0</v>
+      </c>
+      <c r="BD115" s="90">
+        <v>0</v>
+      </c>
+      <c r="BE115" s="90">
+        <v>0</v>
+      </c>
+      <c r="BF115" s="90">
+        <v>0</v>
+      </c>
+      <c r="BG115" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="BB116" s="89">
+        <v>0.0023868613138686</v>
+      </c>
+      <c r="BC116" s="89">
+        <v>0</v>
+      </c>
+      <c r="BD116" s="90">
+        <v>0</v>
+      </c>
+      <c r="BE116" s="90">
+        <v>0</v>
+      </c>
+      <c r="BF116" s="90">
+        <v>0.00080198540145985</v>
+      </c>
+      <c r="BG116" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="BB117" s="89">
+        <v>0.040544719333376</v>
+      </c>
+      <c r="BC117" s="89">
+        <v>0.017686382862137</v>
+      </c>
+      <c r="BD117" s="90">
+        <v>0.0018051787916153</v>
+      </c>
+      <c r="BE117" s="90">
+        <v>0</v>
+      </c>
+      <c r="BF117" s="90">
+        <v>0.014821664413647</v>
+      </c>
+      <c r="BG117" s="90">
+        <v>0.0088431914310685</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="BB118" s="89">
+        <v>0.058366371681416</v>
+      </c>
+      <c r="BC118" s="89">
+        <v>0</v>
+      </c>
+      <c r="BD118" s="90">
+        <v>0.030101980126206</v>
+      </c>
+      <c r="BE118" s="90">
+        <v>0.0095099122160236</v>
+      </c>
+      <c r="BF118" s="90">
+        <v>0.039598815688756</v>
+      </c>
+      <c r="BG118" s="90">
+        <v>0.0047549561080118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="BB119" s="89">
+        <v>0.026209870163426</v>
+      </c>
+      <c r="BC119" s="89">
+        <v>0.0020294556913525</v>
+      </c>
+      <c r="BD119" s="90">
+        <v>0.031901518822079</v>
+      </c>
+      <c r="BE119" s="90">
+        <v>0.010656763162954</v>
+      </c>
+      <c r="BF119" s="90">
+        <v>0.029989124872771</v>
+      </c>
+      <c r="BG119" s="90">
+        <v>0.0063431094271533</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="BB120" s="89">
+        <v>0.0083540145985401</v>
+      </c>
+      <c r="BC120" s="89">
+        <v>0</v>
+      </c>
+      <c r="BD120" s="90">
+        <v>0.022868104736346</v>
+      </c>
+      <c r="BE120" s="90">
+        <v>0.0088491659052895</v>
+      </c>
+      <c r="BF120" s="90">
+        <v>0.017991370450043</v>
+      </c>
+      <c r="BG120" s="90">
+        <v>0.0044245829526447</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="BB121" s="89">
+        <v>0.24433177443318</v>
+      </c>
+      <c r="BC121" s="89">
+        <v>0.0091302444347847</v>
+      </c>
+      <c r="BD121" s="90">
+        <v>0.24737992137521</v>
+      </c>
+      <c r="BE121" s="90">
+        <v>0.0056106745525292</v>
+      </c>
+      <c r="BF121" s="90">
+        <v>0.24635574400269</v>
+      </c>
+      <c r="BG121" s="90">
+        <v>0.007370459493657</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="BB122" s="89">
+        <v>0.53509561397843</v>
+      </c>
+      <c r="BC122" s="89">
+        <v>0.011928573081481</v>
+      </c>
+      <c r="BD122" s="90">
+        <v>0.37622931747298</v>
+      </c>
+      <c r="BE122" s="90">
+        <v>0.0030160085670244</v>
+      </c>
+      <c r="BF122" s="90">
+        <v>0.42960839309881</v>
+      </c>
+      <c r="BG122" s="90">
+        <v>0.0074722908242527</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="BB123" s="89">
+        <v>0.40747050061366</v>
+      </c>
+      <c r="BC123" s="89">
+        <v>0.0070543842152023</v>
+      </c>
+      <c r="BD123" s="90">
+        <v>0.40847619351563</v>
+      </c>
+      <c r="BE123" s="90">
+        <v>0.0031218766860404</v>
+      </c>
+      <c r="BF123" s="90">
+        <v>0.40813828070057</v>
+      </c>
+      <c r="BG123" s="90">
+        <v>0.0050881304506214</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="BB124" s="89">
+        <v>0.33116906207609</v>
+      </c>
+      <c r="BC124" s="89">
+        <v>0.0034091961298848</v>
+      </c>
+      <c r="BD124" s="90">
+        <v>0.19533600058026</v>
+      </c>
+      <c r="BE124" s="90">
+        <v>0.0028106760751754</v>
+      </c>
+      <c r="BF124" s="90">
+        <v>0.24097590924286</v>
+      </c>
+      <c r="BG124" s="90">
+        <v>0.0031099361025301</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="BB125" s="89">
+        <v>0.44842971061301</v>
+      </c>
+      <c r="BC125" s="89">
+        <v>0.0065895773432667</v>
+      </c>
+      <c r="BD125" s="90">
+        <v>0.47897780808008</v>
+      </c>
+      <c r="BE125" s="90">
+        <v>0.008141426247212</v>
+      </c>
+      <c r="BF125" s="90">
+        <v>0.46871364733114</v>
+      </c>
+      <c r="BG125" s="90">
+        <v>0.0073655017952393</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="BB126" s="89">
+        <v>0</v>
+      </c>
+      <c r="BC126" s="89">
+        <v>0</v>
+      </c>
+      <c r="BD126" s="90">
+        <v>0</v>
+      </c>
+      <c r="BE126" s="90">
+        <v>0</v>
+      </c>
+      <c r="BF126" s="90">
+        <v>0</v>
+      </c>
+      <c r="BG126" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="BB127" s="89">
+        <v>0</v>
+      </c>
+      <c r="BC127" s="89">
+        <v>0</v>
+      </c>
+      <c r="BD127" s="90">
+        <v>0</v>
+      </c>
+      <c r="BE127" s="90">
+        <v>0</v>
+      </c>
+      <c r="BF127" s="90">
+        <v>0</v>
+      </c>
+      <c r="BG127" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="BB128" s="89">
+        <v>0</v>
+      </c>
+      <c r="BC128" s="89">
+        <v>0</v>
+      </c>
+      <c r="BD128" s="90">
+        <v>0</v>
+      </c>
+      <c r="BE128" s="90">
+        <v>0</v>
+      </c>
+      <c r="BF128" s="90">
+        <v>0</v>
+      </c>
+      <c r="BG128" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="BB129" s="89">
+        <v>0.49877692655513</v>
+      </c>
+      <c r="BC129" s="89">
+        <v>0.0045535746967786</v>
+      </c>
+      <c r="BD129" s="90">
+        <v>0.28517799318198</v>
+      </c>
+      <c r="BE129" s="90">
+        <v>0.0012363338105046</v>
+      </c>
+      <c r="BF129" s="90">
+        <v>0.35694723479536</v>
+      </c>
+      <c r="BG129" s="90">
+        <v>0.0028949542536416</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="BB130" s="89">
+        <v>0.22887418125444</v>
+      </c>
+      <c r="BC130" s="89">
+        <v>0.021872846371774</v>
+      </c>
+      <c r="BD130" s="90">
+        <v>0.10462752680061</v>
+      </c>
+      <c r="BE130" s="90">
+        <v>0.001128370506375</v>
+      </c>
+      <c r="BF130" s="90">
+        <v>0.1463744026971</v>
+      </c>
+      <c r="BG130" s="90">
+        <v>0.011500608439075</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="BB131" s="89">
+        <v>0.13820765454428</v>
+      </c>
+      <c r="BC131" s="89">
+        <v>0.026286319286003</v>
+      </c>
+      <c r="BD131" s="90">
+        <v>0.053265307898745</v>
+      </c>
+      <c r="BE131" s="90">
+        <v>0.0079722753839933</v>
+      </c>
+      <c r="BF131" s="90">
+        <v>0.081805936371645</v>
+      </c>
+      <c r="BG131" s="90">
+        <v>0.017129297334998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="BB132" s="89">
+        <v>0.0083448937407144</v>
+      </c>
+      <c r="BC132" s="89">
+        <v>0.0024012843572614</v>
+      </c>
+      <c r="BD132" s="90">
+        <v>0.010236866613476</v>
+      </c>
+      <c r="BE132" s="90">
+        <v>0.0014844325514946</v>
+      </c>
+      <c r="BF132" s="90">
+        <v>0.0096011637282284</v>
+      </c>
+      <c r="BG132" s="90">
+        <v>0.001942858454378</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="BB133" s="89">
+        <v>1.4229883793037</v>
+      </c>
+      <c r="BC133" s="89">
+        <v>0.0095166112127452</v>
+      </c>
+      <c r="BD133" s="90">
+        <v>1.0917965434105</v>
+      </c>
+      <c r="BE133" s="90">
+        <v>0.0048576577089448</v>
+      </c>
+      <c r="BF133" s="90">
+        <v>1.2030770002706</v>
+      </c>
+      <c r="BG133" s="90">
+        <v>0.007187134460845</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="BB134" s="89">
+        <v>0.36987501453394</v>
+      </c>
+      <c r="BC134" s="89">
+        <v>0.0022298376870686</v>
+      </c>
+      <c r="BD134" s="90">
+        <v>0.15284536447378</v>
+      </c>
+      <c r="BE134" s="90">
+        <v>0.026317286986625</v>
+      </c>
+      <c r="BF134" s="90">
+        <v>0.225767326894</v>
+      </c>
+      <c r="BG134" s="90">
+        <v>0.014273562336847</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
